--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B508635A-519B-EC4F-BD1B-26946764017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6ABD0-100B-F147-A96D-7AB6C52015FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="500" windowWidth="18580" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -22548,9 +22548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE2566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2183" sqref="K2183"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1397" sqref="F1397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -58109,7 +58109,7 @@
     </row>
     <row r="1213" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D1213" t="s">
-        <v>2438</v>
+        <v>2850</v>
       </c>
       <c r="E1213">
         <v>9</v>
@@ -62899,10 +62899,10 @@
         <v>2850</v>
       </c>
       <c r="E1397">
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="F1397">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G1397" t="s">
         <v>2964</v>
@@ -62925,10 +62925,10 @@
         <v>2850</v>
       </c>
       <c r="E1398">
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="F1398">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G1398" t="s">
         <v>2965</v>

--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6ABD0-100B-F147-A96D-7AB6C52015FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205A941-48D1-1F44-8A26-6AF968BF90F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20791,9 +20791,6 @@
     <t>Loos (w)</t>
   </si>
   <si>
-    <t>&lt;Kennt man hier nicht.&gt;</t>
-  </si>
-  <si>
     <t>Gaisl (w)</t>
   </si>
   <si>
@@ -21364,9 +21361,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>&lt;Zusammengestellt von den Lehrern aufgrund der Angaben der Schüler.&gt;</t>
-  </si>
-  <si>
     <t>Leich (w)</t>
   </si>
   <si>
@@ -21466,9 +21460,6 @@
     <t>S,A</t>
   </si>
   <si>
-    <t>&lt;durch Schüler und Erwachsene des Dorfes.&gt;</t>
-  </si>
-  <si>
     <t>amäis</t>
   </si>
   <si>
@@ -21583,9 +21574,6 @@
     <t>Fladermüss (w)</t>
   </si>
   <si>
-    <t>s'Omt (s)</t>
-  </si>
-  <si>
     <t>Gogummere (w)</t>
   </si>
   <si>
@@ -21688,9 +21676,6 @@
     <t>Kienzheim</t>
   </si>
   <si>
-    <t>&lt;Wanner, Daniel, Zimmer, Karl.&gt;</t>
-  </si>
-  <si>
     <t>Ameise</t>
   </si>
   <si>
@@ -21817,9 +21802,6 @@
     <t>Eckert Heinrich</t>
   </si>
   <si>
-    <t>&lt;erfragt bei 12 bis 17 jährigen&gt;</t>
-  </si>
-  <si>
     <t>Ämäse (w)</t>
   </si>
   <si>
@@ -21961,9 +21943,6 @@
     <t>Heinrich Ammann</t>
   </si>
   <si>
-    <t>&lt;Lehrer, Schüler und Eingeborene.&gt;</t>
-  </si>
-  <si>
     <t>Ohmeise</t>
   </si>
   <si>
@@ -22078,9 +22057,6 @@
     <t>Lo[e]s, Sau</t>
   </si>
   <si>
-    <t>Göttle &lt;(Patin)&gt;, Pfedderich &lt;(Pate)&gt;</t>
-  </si>
-  <si>
     <t>Peitsch, Geißel</t>
   </si>
   <si>
@@ -22121,6 +22097,30 @@
   </si>
   <si>
     <t xml:space="preserve">Schüssel </t>
+  </si>
+  <si>
+    <t>durch Schüler und Erwachsene des Dorfes.</t>
+  </si>
+  <si>
+    <t>Wanner, Daniel, Zimmer, Karl.</t>
+  </si>
+  <si>
+    <t>erfragt bei 12 bis 17 jährigen</t>
+  </si>
+  <si>
+    <t>Lehrer, Schüler und Eingeborene.</t>
+  </si>
+  <si>
+    <t>Zusammengestellt von den Lehrern aufgrund der Angaben der Schüler.</t>
+  </si>
+  <si>
+    <t>Omt (s', s)</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>Pfedderich</t>
   </si>
 </sst>
 </file>
@@ -22548,9 +22548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE2566"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1397" sqref="F1397"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ2276" sqref="AZ2276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -85983,7 +85983,7 @@
         <v>48.878839999999997</v>
       </c>
       <c r="K2169" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2169">
         <v>24.4</v>
@@ -85992,11 +85992,14 @@
         <v>48.5</v>
       </c>
       <c r="N2169" t="s">
-        <v>6938</v>
+        <v>6937</v>
       </c>
       <c r="O2169" t="s">
         <v>3840</v>
       </c>
+      <c r="P2169">
+        <v>999</v>
+      </c>
       <c r="Q2169" t="s">
         <v>4352</v>
       </c>
@@ -86004,7 +86007,7 @@
         <v>6827</v>
       </c>
       <c r="S2169" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
       <c r="T2169" t="s">
         <v>5674</v>
@@ -86013,106 +86016,106 @@
         <v>999</v>
       </c>
       <c r="V2169" t="s">
-        <v>7356</v>
+        <v>7348</v>
       </c>
       <c r="W2169" t="s">
+        <v>6939</v>
+      </c>
+      <c r="Y2169" t="s">
         <v>6940</v>
       </c>
-      <c r="Y2169" t="s">
+      <c r="Z2169" t="s">
         <v>6941</v>
       </c>
-      <c r="Z2169" t="s">
+      <c r="AA2169" t="s">
         <v>6942</v>
       </c>
-      <c r="AA2169" t="s">
+      <c r="AB2169" t="s">
         <v>6943</v>
       </c>
-      <c r="AB2169" t="s">
+      <c r="AC2169" t="s">
         <v>6944</v>
       </c>
-      <c r="AC2169" t="s">
+      <c r="AD2169" t="s">
         <v>6945</v>
       </c>
-      <c r="AD2169" t="s">
+      <c r="AE2169" t="s">
         <v>6946</v>
       </c>
-      <c r="AE2169" t="s">
+      <c r="AF2169" t="s">
         <v>6947</v>
       </c>
-      <c r="AF2169" t="s">
+      <c r="AG2169" t="s">
         <v>6948</v>
       </c>
-      <c r="AG2169" t="s">
+      <c r="AH2169" t="s">
         <v>6949</v>
       </c>
-      <c r="AH2169" t="s">
+      <c r="AI2169" t="s">
         <v>6950</v>
       </c>
-      <c r="AI2169" t="s">
+      <c r="AJ2169" t="s">
         <v>6951</v>
       </c>
-      <c r="AJ2169" t="s">
+      <c r="AK2169" t="s">
         <v>6952</v>
       </c>
-      <c r="AK2169" t="s">
+      <c r="AL2169" t="s">
         <v>6953</v>
-      </c>
-      <c r="AL2169" t="s">
-        <v>6954</v>
       </c>
       <c r="AM2169">
         <v>999</v>
       </c>
       <c r="AN2169" t="s">
+        <v>6954</v>
+      </c>
+      <c r="AO2169" t="s">
         <v>6955</v>
       </c>
-      <c r="AO2169" t="s">
+      <c r="AP2169" t="s">
         <v>6956</v>
       </c>
-      <c r="AP2169" t="s">
+      <c r="AQ2169" t="s">
         <v>6957</v>
       </c>
-      <c r="AQ2169" t="s">
+      <c r="AR2169" t="s">
         <v>6958</v>
       </c>
-      <c r="AR2169" t="s">
+      <c r="AS2169" t="s">
         <v>6959</v>
       </c>
-      <c r="AS2169" t="s">
+      <c r="AT2169" t="s">
         <v>6960</v>
       </c>
-      <c r="AT2169" t="s">
+      <c r="AU2169" t="s">
         <v>6961</v>
       </c>
-      <c r="AU2169" t="s">
+      <c r="AV2169" t="s">
         <v>6962</v>
       </c>
-      <c r="AV2169" t="s">
+      <c r="AW2169" t="s">
         <v>6963</v>
       </c>
-      <c r="AW2169" t="s">
+      <c r="AX2169" t="s">
         <v>6964</v>
       </c>
-      <c r="AX2169" t="s">
+      <c r="AY2169" t="s">
         <v>6965</v>
       </c>
-      <c r="AY2169" t="s">
+      <c r="AZ2169" t="s">
         <v>6966</v>
       </c>
-      <c r="AZ2169" t="s">
+      <c r="BA2169" t="s">
         <v>6967</v>
       </c>
-      <c r="BA2169" t="s">
+      <c r="BB2169" t="s">
         <v>6968</v>
       </c>
-      <c r="BB2169" t="s">
+      <c r="BC2169" t="s">
         <v>6969</v>
       </c>
-      <c r="BC2169" t="s">
+      <c r="BD2169" t="s">
         <v>6970</v>
-      </c>
-      <c r="BD2169" t="s">
-        <v>6971</v>
       </c>
     </row>
     <row r="2170" spans="2:56" x14ac:dyDescent="0.2">
@@ -86170,7 +86173,7 @@
         <v>48.878689999999999</v>
       </c>
       <c r="K2171" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2171">
         <v>24.4</v>
@@ -86179,7 +86182,7 @@
         <v>48.5</v>
       </c>
       <c r="N2171" t="s">
-        <v>6972</v>
+        <v>6971</v>
       </c>
       <c r="O2171" t="s">
         <v>3846</v>
@@ -86191,7 +86194,7 @@
         <v>999</v>
       </c>
       <c r="S2171" t="s">
-        <v>6973</v>
+        <v>6972</v>
       </c>
       <c r="T2171" t="s">
         <v>4261</v>
@@ -86206,85 +86209,85 @@
         <v>999</v>
       </c>
       <c r="Y2171" t="s">
+        <v>6973</v>
+      </c>
+      <c r="Z2171" t="s">
         <v>6974</v>
       </c>
-      <c r="Z2171" t="s">
+      <c r="AA2171" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2171" t="s">
         <v>6975</v>
-      </c>
-      <c r="AA2171" t="s">
-        <v>6943</v>
-      </c>
-      <c r="AB2171" t="s">
-        <v>6976</v>
       </c>
       <c r="AC2171" t="s">
         <v>6880</v>
       </c>
       <c r="AD2171" t="s">
+        <v>6976</v>
+      </c>
+      <c r="AE2171" t="s">
         <v>6977</v>
-      </c>
-      <c r="AE2171" t="s">
-        <v>6978</v>
       </c>
       <c r="AF2171" t="s">
         <v>6882</v>
       </c>
       <c r="AG2171" t="s">
+        <v>6978</v>
+      </c>
+      <c r="AH2171" t="s">
         <v>6979</v>
       </c>
-      <c r="AH2171" t="s">
+      <c r="AI2171" t="s">
         <v>6980</v>
       </c>
-      <c r="AI2171" t="s">
+      <c r="AJ2171" t="s">
         <v>6981</v>
       </c>
-      <c r="AJ2171" t="s">
+      <c r="AK2171" t="s">
         <v>6982</v>
       </c>
-      <c r="AK2171" t="s">
+      <c r="AL2171" t="s">
         <v>6983</v>
       </c>
-      <c r="AL2171" t="s">
+      <c r="AM2171" t="s">
         <v>6984</v>
       </c>
-      <c r="AM2171" t="s">
+      <c r="AN2171" t="s">
         <v>6985</v>
       </c>
-      <c r="AN2171" t="s">
+      <c r="AO2171" t="s">
         <v>6986</v>
-      </c>
-      <c r="AO2171" t="s">
-        <v>6987</v>
       </c>
       <c r="AP2171" t="s">
         <v>6890</v>
       </c>
       <c r="AQ2171" t="s">
+        <v>6987</v>
+      </c>
+      <c r="AR2171" t="s">
         <v>6988</v>
       </c>
-      <c r="AR2171" t="s">
+      <c r="AS2171" t="s">
         <v>6989</v>
       </c>
-      <c r="AS2171" t="s">
+      <c r="AT2171" t="s">
         <v>6990</v>
-      </c>
-      <c r="AT2171" t="s">
-        <v>6991</v>
       </c>
       <c r="AU2171" t="s">
         <v>6893</v>
       </c>
       <c r="AV2171" t="s">
+        <v>6991</v>
+      </c>
+      <c r="AW2171" t="s">
         <v>6992</v>
       </c>
-      <c r="AW2171" t="s">
+      <c r="AX2171" t="s">
         <v>6993</v>
       </c>
-      <c r="AX2171" t="s">
+      <c r="AY2171" t="s">
         <v>6994</v>
-      </c>
-      <c r="AY2171" t="s">
-        <v>6995</v>
       </c>
       <c r="AZ2171">
         <v>999</v>
@@ -86293,13 +86296,13 @@
         <v>999</v>
       </c>
       <c r="BB2171" t="s">
+        <v>6995</v>
+      </c>
+      <c r="BC2171" t="s">
         <v>6996</v>
       </c>
-      <c r="BC2171" t="s">
-        <v>6997</v>
-      </c>
       <c r="BD2171" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="2172" spans="2:56" x14ac:dyDescent="0.2">
@@ -86357,7 +86360,7 @@
         <v>48.894869999999997</v>
       </c>
       <c r="K2173" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2173">
         <v>24.4</v>
@@ -86366,22 +86369,25 @@
         <v>48.5</v>
       </c>
       <c r="N2173" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
       <c r="O2173" t="s">
         <v>3852</v>
       </c>
+      <c r="P2173">
+        <v>999</v>
+      </c>
       <c r="Q2173" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="R2173" t="s">
         <v>6836</v>
       </c>
       <c r="S2173" t="s">
+        <v>6999</v>
+      </c>
+      <c r="T2173" t="s">
         <v>7000</v>
-      </c>
-      <c r="T2173" t="s">
-        <v>7001</v>
       </c>
       <c r="U2173">
         <v>999</v>
@@ -86390,88 +86396,88 @@
         <v>999</v>
       </c>
       <c r="W2173" t="s">
-        <v>7357</v>
+        <v>7349</v>
       </c>
       <c r="Y2173" t="s">
+        <v>7001</v>
+      </c>
+      <c r="Z2173" t="s">
         <v>7002</v>
       </c>
-      <c r="Z2173" t="s">
+      <c r="AA2173" t="s">
         <v>7003</v>
       </c>
-      <c r="AA2173" t="s">
+      <c r="AB2173" t="s">
         <v>7004</v>
       </c>
-      <c r="AB2173" t="s">
+      <c r="AC2173" t="s">
         <v>7005</v>
       </c>
-      <c r="AC2173" t="s">
+      <c r="AD2173" t="s">
         <v>7006</v>
       </c>
-      <c r="AD2173" t="s">
+      <c r="AE2173" t="s">
         <v>7007</v>
       </c>
-      <c r="AE2173" t="s">
+      <c r="AF2173" t="s">
         <v>7008</v>
       </c>
-      <c r="AF2173" t="s">
+      <c r="AG2173" t="s">
         <v>7009</v>
       </c>
-      <c r="AG2173" t="s">
+      <c r="AH2173" t="s">
         <v>7010</v>
       </c>
-      <c r="AH2173" t="s">
+      <c r="AI2173" t="s">
         <v>7011</v>
       </c>
-      <c r="AI2173" t="s">
+      <c r="AJ2173" t="s">
         <v>7012</v>
       </c>
-      <c r="AJ2173" t="s">
+      <c r="AK2173" t="s">
         <v>7013</v>
       </c>
-      <c r="AK2173" t="s">
+      <c r="AL2173" t="s">
         <v>7014</v>
       </c>
-      <c r="AL2173" t="s">
+      <c r="AM2173" t="s">
         <v>7015</v>
       </c>
-      <c r="AM2173" t="s">
+      <c r="AN2173" t="s">
         <v>7016</v>
       </c>
-      <c r="AN2173" t="s">
+      <c r="AO2173" t="s">
         <v>7017</v>
-      </c>
-      <c r="AO2173" t="s">
-        <v>7018</v>
       </c>
       <c r="AP2173" t="s">
         <v>6890</v>
       </c>
       <c r="AQ2173" t="s">
+        <v>7018</v>
+      </c>
+      <c r="AR2173" t="s">
+        <v>6988</v>
+      </c>
+      <c r="AS2173" t="s">
         <v>7019</v>
       </c>
-      <c r="AR2173" t="s">
-        <v>6989</v>
-      </c>
-      <c r="AS2173" t="s">
+      <c r="AT2173" t="s">
+        <v>6921</v>
+      </c>
+      <c r="AU2173" t="s">
         <v>7020</v>
       </c>
-      <c r="AT2173" t="s">
-        <v>6922</v>
-      </c>
-      <c r="AU2173" t="s">
+      <c r="AV2173" t="s">
         <v>7021</v>
       </c>
-      <c r="AV2173" t="s">
+      <c r="AW2173" t="s">
         <v>7022</v>
       </c>
-      <c r="AW2173" t="s">
+      <c r="AX2173" t="s">
         <v>7023</v>
       </c>
-      <c r="AX2173" t="s">
+      <c r="AY2173" t="s">
         <v>7024</v>
-      </c>
-      <c r="AY2173" t="s">
-        <v>7025</v>
       </c>
       <c r="AZ2173">
         <v>999</v>
@@ -86480,13 +86486,13 @@
         <v>999</v>
       </c>
       <c r="BB2173" t="s">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="BC2173" t="s">
-        <v>6997</v>
+        <v>6996</v>
       </c>
       <c r="BD2173" t="s">
-        <v>7358</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="2174" spans="2:56" x14ac:dyDescent="0.2">
@@ -86518,7 +86524,7 @@
         <v>48.881709999999998</v>
       </c>
       <c r="K2174" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2174">
         <v>24.4</v>
@@ -86527,22 +86533,25 @@
         <v>48.5</v>
       </c>
       <c r="N2174" t="s">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="O2174" t="s">
         <v>3855</v>
       </c>
+      <c r="P2174">
+        <v>999</v>
+      </c>
       <c r="Q2174" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="R2174" t="s">
         <v>6827</v>
       </c>
       <c r="S2174" t="s">
+        <v>7027</v>
+      </c>
+      <c r="T2174" t="s">
         <v>7028</v>
-      </c>
-      <c r="T2174" t="s">
-        <v>7029</v>
       </c>
       <c r="U2174">
         <v>999</v>
@@ -86551,91 +86560,91 @@
         <v>999</v>
       </c>
       <c r="W2174" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="X2174" s="9" t="s">
+        <v>7029</v>
+      </c>
+      <c r="Y2174" t="s">
         <v>7030</v>
       </c>
-      <c r="Y2174" t="s">
+      <c r="Z2174" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2174" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2174" t="s">
         <v>7031</v>
       </c>
-      <c r="Z2174" t="s">
-        <v>6942</v>
-      </c>
-      <c r="AA2174" t="s">
-        <v>6943</v>
-      </c>
-      <c r="AB2174" t="s">
+      <c r="AC2174" t="s">
         <v>7032</v>
       </c>
-      <c r="AC2174" t="s">
+      <c r="AD2174" t="s">
         <v>7033</v>
       </c>
-      <c r="AD2174" t="s">
+      <c r="AE2174" t="s">
         <v>7034</v>
       </c>
-      <c r="AE2174" t="s">
+      <c r="AF2174" t="s">
         <v>7035</v>
       </c>
-      <c r="AF2174" t="s">
+      <c r="AG2174" t="s">
+        <v>6948</v>
+      </c>
+      <c r="AH2174" t="s">
         <v>7036</v>
       </c>
-      <c r="AG2174" t="s">
-        <v>6949</v>
-      </c>
-      <c r="AH2174" t="s">
+      <c r="AI2174" t="s">
         <v>7037</v>
       </c>
-      <c r="AI2174" t="s">
+      <c r="AJ2174" t="s">
         <v>7038</v>
       </c>
-      <c r="AJ2174" t="s">
+      <c r="AK2174" t="s">
         <v>7039</v>
       </c>
-      <c r="AK2174" t="s">
+      <c r="AL2174" t="s">
         <v>7040</v>
       </c>
-      <c r="AL2174" t="s">
+      <c r="AM2174" t="s">
         <v>7041</v>
       </c>
-      <c r="AM2174" t="s">
+      <c r="AN2174" t="s">
         <v>7042</v>
       </c>
-      <c r="AN2174" t="s">
+      <c r="AO2174" t="s">
         <v>7043</v>
       </c>
-      <c r="AO2174" t="s">
+      <c r="AP2174" t="s">
         <v>7044</v>
       </c>
-      <c r="AP2174" t="s">
+      <c r="AQ2174" t="s">
+        <v>6957</v>
+      </c>
+      <c r="AR2174" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2174" t="s">
         <v>7045</v>
       </c>
-      <c r="AQ2174" t="s">
-        <v>6958</v>
-      </c>
-      <c r="AR2174" t="s">
-        <v>6959</v>
-      </c>
-      <c r="AS2174" t="s">
+      <c r="AT2174" t="s">
+        <v>6921</v>
+      </c>
+      <c r="AU2174" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2174" t="s">
         <v>7046</v>
       </c>
-      <c r="AT2174" t="s">
-        <v>6922</v>
-      </c>
-      <c r="AU2174" t="s">
-        <v>6962</v>
-      </c>
-      <c r="AV2174" t="s">
+      <c r="AW2174" t="s">
         <v>7047</v>
       </c>
-      <c r="AW2174" t="s">
+      <c r="AX2174" t="s">
         <v>7048</v>
       </c>
-      <c r="AX2174" t="s">
+      <c r="AY2174" t="s">
         <v>7049</v>
-      </c>
-      <c r="AY2174" t="s">
-        <v>7050</v>
       </c>
       <c r="AZ2174">
         <v>999</v>
@@ -86644,13 +86653,13 @@
         <v>999</v>
       </c>
       <c r="BB2174" t="s">
+        <v>7050</v>
+      </c>
+      <c r="BC2174" t="s">
         <v>7051</v>
       </c>
-      <c r="BC2174" t="s">
+      <c r="BD2174" t="s">
         <v>7052</v>
-      </c>
-      <c r="BD2174" t="s">
-        <v>7053</v>
       </c>
     </row>
     <row r="2175" spans="2:56" x14ac:dyDescent="0.2">
@@ -87618,7 +87627,7 @@
         <v>48.87312</v>
       </c>
       <c r="K2211" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2211">
         <v>25.1</v>
@@ -87627,11 +87636,14 @@
         <v>48.5</v>
       </c>
       <c r="N2211" t="s">
-        <v>7054</v>
+        <v>7053</v>
       </c>
       <c r="O2211" t="s">
         <v>3960</v>
       </c>
+      <c r="P2211">
+        <v>999</v>
+      </c>
       <c r="Q2211" t="s">
         <v>4352</v>
       </c>
@@ -87651,7 +87663,7 @@
         <v>999</v>
       </c>
       <c r="W2211" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="Y2211">
         <v>999</v>
@@ -88715,7 +88727,7 @@
         <v>48.882489999999997</v>
       </c>
       <c r="K2248" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2248">
         <v>25.4</v>
@@ -88724,11 +88736,14 @@
         <v>48.5</v>
       </c>
       <c r="N2248" t="s">
-        <v>6937</v>
+        <v>6936</v>
       </c>
       <c r="O2248" t="s">
         <v>4065</v>
       </c>
+      <c r="P2248">
+        <v>999</v>
+      </c>
       <c r="Q2248" t="s">
         <v>4110</v>
       </c>
@@ -88736,10 +88751,10 @@
         <v>4833</v>
       </c>
       <c r="S2248" t="s">
+        <v>6931</v>
+      </c>
+      <c r="T2248" t="s">
         <v>6932</v>
-      </c>
-      <c r="T2248" t="s">
-        <v>6933</v>
       </c>
       <c r="U2248">
         <v>999</v>
@@ -88748,7 +88763,7 @@
         <v>999</v>
       </c>
       <c r="W2248" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="Y2248" t="s">
         <v>6901</v>
@@ -88805,46 +88820,46 @@
         <v>6918</v>
       </c>
       <c r="AQ2248" t="s">
+        <v>7361</v>
+      </c>
+      <c r="AR2248" t="s">
         <v>6919</v>
       </c>
-      <c r="AR2248" t="s">
+      <c r="AS2248" t="s">
         <v>6920</v>
       </c>
-      <c r="AS2248" t="s">
+      <c r="AT2248" t="s">
         <v>6921</v>
       </c>
-      <c r="AT2248" t="s">
+      <c r="AU2248" t="s">
         <v>6922</v>
       </c>
-      <c r="AU2248" t="s">
+      <c r="AV2248" t="s">
         <v>6923</v>
       </c>
-      <c r="AV2248" t="s">
+      <c r="AW2248" t="s">
         <v>6924</v>
       </c>
-      <c r="AW2248" t="s">
+      <c r="AX2248" t="s">
         <v>6925</v>
-      </c>
-      <c r="AX2248" t="s">
-        <v>6926</v>
       </c>
       <c r="AY2248">
         <v>999</v>
       </c>
       <c r="AZ2248" t="s">
+        <v>6926</v>
+      </c>
+      <c r="BA2248" t="s">
         <v>6927</v>
       </c>
-      <c r="BA2248" t="s">
+      <c r="BB2248" t="s">
         <v>6928</v>
       </c>
-      <c r="BB2248" t="s">
+      <c r="BC2248" t="s">
         <v>6929</v>
       </c>
-      <c r="BC2248" t="s">
+      <c r="BD2248" t="s">
         <v>6930</v>
-      </c>
-      <c r="BD2248" t="s">
-        <v>6931</v>
       </c>
     </row>
     <row r="2249" spans="2:56" x14ac:dyDescent="0.2">
@@ -89032,7 +89047,7 @@
         <v>48.900449999999999</v>
       </c>
       <c r="K2255" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2255">
         <v>550</v>
@@ -89041,11 +89056,14 @@
         <v>850</v>
       </c>
       <c r="N2255" t="s">
-        <v>7055</v>
+        <v>7054</v>
       </c>
       <c r="O2255" t="s">
         <v>4084</v>
       </c>
+      <c r="P2255">
+        <v>999</v>
+      </c>
       <c r="Q2255" t="s">
         <v>4110</v>
       </c>
@@ -89053,10 +89071,10 @@
         <v>4825</v>
       </c>
       <c r="S2255" t="s">
+        <v>7055</v>
+      </c>
+      <c r="T2255" t="s">
         <v>7056</v>
-      </c>
-      <c r="T2255" t="s">
-        <v>7057</v>
       </c>
       <c r="U2255">
         <v>999</v>
@@ -89065,103 +89083,103 @@
         <v>999</v>
       </c>
       <c r="W2255" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="Y2255" t="s">
+        <v>7057</v>
+      </c>
+      <c r="Z2255" t="s">
         <v>7058</v>
       </c>
-      <c r="Z2255" t="s">
+      <c r="AA2255" t="s">
         <v>7059</v>
       </c>
-      <c r="AA2255" t="s">
+      <c r="AB2255" t="s">
         <v>7060</v>
       </c>
-      <c r="AB2255" t="s">
+      <c r="AC2255" t="s">
         <v>7061</v>
       </c>
-      <c r="AC2255" t="s">
+      <c r="AD2255" t="s">
+        <v>7033</v>
+      </c>
+      <c r="AE2255" t="s">
         <v>7062</v>
       </c>
-      <c r="AD2255" t="s">
-        <v>7034</v>
-      </c>
-      <c r="AE2255" t="s">
+      <c r="AF2255" t="s">
         <v>7063</v>
       </c>
-      <c r="AF2255" t="s">
+      <c r="AG2255" t="s">
         <v>7064</v>
       </c>
-      <c r="AG2255" t="s">
+      <c r="AH2255" t="s">
         <v>7065</v>
       </c>
-      <c r="AH2255" t="s">
+      <c r="AI2255" t="s">
         <v>7066</v>
       </c>
-      <c r="AI2255" t="s">
+      <c r="AJ2255" t="s">
         <v>7067</v>
       </c>
-      <c r="AJ2255" t="s">
+      <c r="AK2255" t="s">
         <v>7068</v>
       </c>
-      <c r="AK2255" t="s">
+      <c r="AL2255" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2255" t="s">
         <v>7069</v>
       </c>
-      <c r="AL2255" t="s">
-        <v>6984</v>
-      </c>
-      <c r="AM2255" t="s">
+      <c r="AN2255" t="s">
         <v>7070</v>
       </c>
-      <c r="AN2255" t="s">
+      <c r="AO2255" t="s">
         <v>7071</v>
-      </c>
-      <c r="AO2255" t="s">
-        <v>7072</v>
       </c>
       <c r="AP2255" t="s">
         <v>6918</v>
       </c>
       <c r="AQ2255" t="s">
+        <v>7072</v>
+      </c>
+      <c r="AR2255" t="s">
         <v>7073</v>
       </c>
-      <c r="AR2255" t="s">
+      <c r="AS2255" t="s">
         <v>7074</v>
       </c>
-      <c r="AS2255" t="s">
+      <c r="AT2255" t="s">
         <v>7075</v>
-      </c>
-      <c r="AT2255" t="s">
-        <v>7076</v>
       </c>
       <c r="AU2255" t="s">
         <v>6893</v>
       </c>
       <c r="AV2255" t="s">
+        <v>7076</v>
+      </c>
+      <c r="AW2255" t="s">
         <v>7077</v>
       </c>
-      <c r="AW2255" t="s">
+      <c r="AX2255" t="s">
         <v>7078</v>
-      </c>
-      <c r="AX2255" t="s">
-        <v>7079</v>
       </c>
       <c r="AY2255">
         <v>999</v>
       </c>
       <c r="AZ2255" t="s">
+        <v>7079</v>
+      </c>
+      <c r="BA2255" t="s">
         <v>7080</v>
       </c>
-      <c r="BA2255" t="s">
+      <c r="BB2255" t="s">
         <v>7081</v>
       </c>
-      <c r="BB2255" t="s">
+      <c r="BC2255" t="s">
         <v>7082</v>
       </c>
-      <c r="BC2255" t="s">
-        <v>7083</v>
-      </c>
       <c r="BD2255" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="2256" spans="2:56" x14ac:dyDescent="0.2">
@@ -89285,6 +89303,9 @@
       <c r="O2259" t="s">
         <v>3238</v>
       </c>
+      <c r="P2259">
+        <v>999</v>
+      </c>
       <c r="Q2259" t="s">
         <v>4110</v>
       </c>
@@ -89292,7 +89313,7 @@
         <v>4833</v>
       </c>
       <c r="S2259" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
       <c r="T2259" t="s">
         <v>4824</v>
@@ -89304,88 +89325,88 @@
         <v>999</v>
       </c>
       <c r="W2259" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="Y2259" t="s">
+        <v>7084</v>
+      </c>
+      <c r="Z2259" t="s">
         <v>7085</v>
       </c>
-      <c r="Z2259" t="s">
+      <c r="AA2259" t="s">
         <v>7086</v>
       </c>
-      <c r="AA2259" t="s">
+      <c r="AB2259" t="s">
         <v>7087</v>
       </c>
-      <c r="AB2259" t="s">
+      <c r="AC2259" t="s">
         <v>7088</v>
       </c>
-      <c r="AC2259" t="s">
+      <c r="AD2259" t="s">
         <v>7089</v>
       </c>
-      <c r="AD2259" t="s">
+      <c r="AE2259" t="s">
         <v>7090</v>
-      </c>
-      <c r="AE2259" t="s">
-        <v>7091</v>
       </c>
       <c r="AF2259" t="s">
         <v>6882</v>
       </c>
       <c r="AG2259" t="s">
+        <v>7091</v>
+      </c>
+      <c r="AH2259" t="s">
         <v>7092</v>
       </c>
-      <c r="AH2259" t="s">
+      <c r="AI2259" t="s">
         <v>7093</v>
       </c>
-      <c r="AI2259" t="s">
+      <c r="AJ2259" t="s">
         <v>7094</v>
       </c>
-      <c r="AJ2259" t="s">
+      <c r="AK2259" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2259" t="s">
         <v>7095</v>
       </c>
-      <c r="AK2259" t="s">
-        <v>6983</v>
-      </c>
-      <c r="AL2259" t="s">
+      <c r="AM2259" t="s">
         <v>7096</v>
       </c>
-      <c r="AM2259" t="s">
+      <c r="AN2259" t="s">
         <v>7097</v>
       </c>
-      <c r="AN2259" t="s">
+      <c r="AO2259" t="s">
         <v>7098</v>
-      </c>
-      <c r="AO2259" t="s">
-        <v>7099</v>
       </c>
       <c r="AP2259" t="s">
         <v>6918</v>
       </c>
       <c r="AQ2259" t="s">
+        <v>7099</v>
+      </c>
+      <c r="AR2259" t="s">
         <v>7100</v>
       </c>
-      <c r="AR2259" t="s">
+      <c r="AS2259" t="s">
         <v>7101</v>
       </c>
-      <c r="AS2259" t="s">
+      <c r="AT2259" t="s">
+        <v>6960</v>
+      </c>
+      <c r="AU2259" t="s">
         <v>7102</v>
       </c>
-      <c r="AT2259" t="s">
-        <v>6961</v>
-      </c>
-      <c r="AU2259" t="s">
+      <c r="AV2259" t="s">
         <v>7103</v>
       </c>
-      <c r="AV2259" t="s">
+      <c r="AW2259" t="s">
         <v>7104</v>
       </c>
-      <c r="AW2259" t="s">
-        <v>7105</v>
-      </c>
       <c r="AX2259" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="AY2259" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
       <c r="AZ2259">
         <v>999</v>
@@ -89394,13 +89415,13 @@
         <v>999</v>
       </c>
       <c r="BB2259" t="s">
-        <v>6929</v>
+        <v>6928</v>
       </c>
       <c r="BC2259" t="s">
+        <v>7105</v>
+      </c>
+      <c r="BD2259" t="s">
         <v>7106</v>
-      </c>
-      <c r="BD2259" t="s">
-        <v>7107</v>
       </c>
     </row>
     <row r="2260" spans="2:56" x14ac:dyDescent="0.2">
@@ -89614,7 +89635,7 @@
         <v>48.857300000000002</v>
       </c>
       <c r="K2267" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2267">
         <v>550</v>
@@ -89623,11 +89644,14 @@
         <v>850</v>
       </c>
       <c r="N2267" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="O2267" t="s">
         <v>4110</v>
       </c>
+      <c r="P2267">
+        <v>999</v>
+      </c>
       <c r="Q2267" t="s">
         <v>4110</v>
       </c>
@@ -89647,16 +89671,16 @@
         <v>999</v>
       </c>
       <c r="W2267" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="X2267" t="s">
-        <v>7110</v>
+        <v>7359</v>
       </c>
       <c r="Y2267">
         <v>999</v>
       </c>
       <c r="Z2267" t="s">
-        <v>7111</v>
+        <v>7109</v>
       </c>
       <c r="AA2267">
         <v>999</v>
@@ -89668,7 +89692,7 @@
         <v>6880</v>
       </c>
       <c r="AD2267" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
       <c r="AE2267">
         <v>999</v>
@@ -89677,16 +89701,16 @@
         <v>6882</v>
       </c>
       <c r="AG2267" t="s">
-        <v>7112</v>
+        <v>7110</v>
       </c>
       <c r="AH2267" t="s">
-        <v>7113</v>
+        <v>7111</v>
       </c>
       <c r="AI2267">
         <v>999</v>
       </c>
       <c r="AJ2267" t="s">
-        <v>7114</v>
+        <v>7112</v>
       </c>
       <c r="AK2267">
         <v>999</v>
@@ -89695,37 +89719,37 @@
         <v>6886</v>
       </c>
       <c r="AM2267" t="s">
-        <v>7115</v>
+        <v>7113</v>
       </c>
       <c r="AN2267">
         <v>999</v>
       </c>
       <c r="AO2267" t="s">
-        <v>7116</v>
+        <v>7114</v>
       </c>
       <c r="AP2267" t="s">
-        <v>7117</v>
+        <v>7115</v>
       </c>
       <c r="AQ2267">
         <v>999</v>
       </c>
       <c r="AR2267" t="s">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="AS2267">
         <v>999</v>
       </c>
       <c r="AT2267" t="s">
-        <v>7118</v>
+        <v>7116</v>
       </c>
       <c r="AU2267" t="s">
         <v>6893</v>
       </c>
       <c r="AV2267" t="s">
-        <v>7119</v>
+        <v>7117</v>
       </c>
       <c r="AW2267" t="s">
-        <v>7120</v>
+        <v>7118</v>
       </c>
       <c r="AX2267">
         <v>999</v>
@@ -89734,19 +89758,19 @@
         <v>999</v>
       </c>
       <c r="AZ2267" t="s">
-        <v>7121</v>
+        <v>7119</v>
       </c>
       <c r="BA2267" t="s">
-        <v>7122</v>
+        <v>7120</v>
       </c>
       <c r="BB2267" t="s">
         <v>6895</v>
       </c>
       <c r="BC2267" t="s">
-        <v>7123</v>
+        <v>7121</v>
       </c>
       <c r="BD2267" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="2268" spans="2:56" x14ac:dyDescent="0.2">
@@ -90376,7 +90400,7 @@
         <v>48.813310000000001</v>
       </c>
       <c r="K2291" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2291">
         <v>25.1</v>
@@ -90385,11 +90409,14 @@
         <v>48.45</v>
       </c>
       <c r="N2291" t="s">
-        <v>7124</v>
+        <v>7122</v>
       </c>
       <c r="O2291" t="s">
         <v>4177</v>
       </c>
+      <c r="P2291">
+        <v>999</v>
+      </c>
       <c r="Q2291" t="s">
         <v>4352</v>
       </c>
@@ -90397,31 +90424,31 @@
         <v>6737</v>
       </c>
       <c r="S2291" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="T2291" t="s">
         <v>3900</v>
       </c>
       <c r="U2291" t="s">
-        <v>7359</v>
+        <v>7351</v>
       </c>
       <c r="V2291">
         <v>999</v>
       </c>
       <c r="W2291" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="Y2291" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="Z2291" t="s">
         <v>6878</v>
       </c>
       <c r="AA2291" t="s">
-        <v>7127</v>
+        <v>7125</v>
       </c>
       <c r="AB2291" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="AC2291" t="s">
         <v>6880</v>
@@ -90430,7 +90457,7 @@
         <v>999</v>
       </c>
       <c r="AE2291" t="s">
-        <v>7129</v>
+        <v>7127</v>
       </c>
       <c r="AF2291" t="s">
         <v>6882</v>
@@ -90442,25 +90469,25 @@
         <v>6884</v>
       </c>
       <c r="AI2291" t="s">
+        <v>7128</v>
+      </c>
+      <c r="AJ2291" t="s">
+        <v>7129</v>
+      </c>
+      <c r="AK2291" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2291" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2291" t="s">
         <v>7130</v>
       </c>
-      <c r="AJ2291" t="s">
+      <c r="AN2291" t="s">
         <v>7131</v>
       </c>
-      <c r="AK2291" t="s">
-        <v>6983</v>
-      </c>
-      <c r="AL2291" t="s">
-        <v>6984</v>
-      </c>
-      <c r="AM2291" t="s">
+      <c r="AO2291" t="s">
         <v>7132</v>
-      </c>
-      <c r="AN2291" t="s">
-        <v>7133</v>
-      </c>
-      <c r="AO2291" t="s">
-        <v>7134</v>
       </c>
       <c r="AP2291" t="s">
         <v>6890</v>
@@ -90472,37 +90499,37 @@
         <v>6892</v>
       </c>
       <c r="AS2291" t="s">
-        <v>7135</v>
+        <v>7133</v>
       </c>
       <c r="AT2291" t="s">
-        <v>7136</v>
+        <v>7134</v>
       </c>
       <c r="AU2291" t="s">
         <v>6893</v>
       </c>
       <c r="AV2291" t="s">
+        <v>7135</v>
+      </c>
+      <c r="AW2291" t="s">
+        <v>7136</v>
+      </c>
+      <c r="AX2291" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2291">
+        <v>999</v>
+      </c>
+      <c r="AZ2291" t="s">
         <v>7137</v>
-      </c>
-      <c r="AW2291" t="s">
-        <v>7138</v>
-      </c>
-      <c r="AX2291" t="s">
-        <v>6994</v>
-      </c>
-      <c r="AY2291" t="s">
-        <v>7139</v>
-      </c>
-      <c r="AZ2291">
-        <v>999</v>
       </c>
       <c r="BA2291">
         <v>999</v>
       </c>
       <c r="BB2291" t="s">
-        <v>7139</v>
+        <v>7137</v>
       </c>
       <c r="BC2291" t="s">
-        <v>7140</v>
+        <v>7138</v>
       </c>
       <c r="BD2291" t="s">
         <v>6897</v>
@@ -90797,7 +90824,7 @@
         <v>48.802219999999998</v>
       </c>
       <c r="K2302" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2302">
         <v>25.1</v>
@@ -90806,11 +90833,14 @@
         <v>48.45</v>
       </c>
       <c r="N2302" t="s">
-        <v>7141</v>
+        <v>7139</v>
       </c>
       <c r="O2302" t="s">
         <v>4208</v>
       </c>
+      <c r="P2302">
+        <v>999</v>
+      </c>
       <c r="Q2302" t="s">
         <v>4231</v>
       </c>
@@ -90818,7 +90848,7 @@
         <v>6827</v>
       </c>
       <c r="S2302" t="s">
-        <v>7142</v>
+        <v>7140</v>
       </c>
       <c r="T2302" t="s">
         <v>549</v>
@@ -90830,106 +90860,106 @@
         <v>4825</v>
       </c>
       <c r="W2302" t="s">
+        <v>7141</v>
+      </c>
+      <c r="X2302" s="9" t="s">
+        <v>7355</v>
+      </c>
+      <c r="Y2302" t="s">
+        <v>7142</v>
+      </c>
+      <c r="Z2302" t="s">
         <v>7143</v>
       </c>
-      <c r="X2302" s="9" t="s">
+      <c r="AA2302" t="s">
         <v>7144</v>
       </c>
-      <c r="Y2302" t="s">
+      <c r="AB2302" t="s">
         <v>7145</v>
       </c>
-      <c r="Z2302" t="s">
+      <c r="AC2302" t="s">
         <v>7146</v>
       </c>
-      <c r="AA2302" t="s">
+      <c r="AD2302" t="s">
         <v>7147</v>
       </c>
-      <c r="AB2302" t="s">
+      <c r="AE2302" t="s">
         <v>7148</v>
       </c>
-      <c r="AC2302" t="s">
+      <c r="AF2302" t="s">
         <v>7149</v>
       </c>
-      <c r="AD2302" t="s">
+      <c r="AG2302" t="s">
         <v>7150</v>
       </c>
-      <c r="AE2302" t="s">
+      <c r="AH2302" t="s">
         <v>7151</v>
       </c>
-      <c r="AF2302" t="s">
+      <c r="AI2302" t="s">
         <v>7152</v>
       </c>
-      <c r="AG2302" t="s">
+      <c r="AJ2302" t="s">
         <v>7153</v>
       </c>
-      <c r="AH2302" t="s">
+      <c r="AK2302" t="s">
         <v>7154</v>
       </c>
-      <c r="AI2302" t="s">
+      <c r="AL2302" t="s">
         <v>7155</v>
       </c>
-      <c r="AJ2302" t="s">
+      <c r="AM2302" t="s">
         <v>7156</v>
       </c>
-      <c r="AK2302" t="s">
+      <c r="AN2302" t="s">
         <v>7157</v>
       </c>
-      <c r="AL2302" t="s">
+      <c r="AO2302" t="s">
         <v>7158</v>
       </c>
-      <c r="AM2302" t="s">
+      <c r="AP2302" t="s">
         <v>7159</v>
       </c>
-      <c r="AN2302" t="s">
+      <c r="AQ2302" t="s">
         <v>7160</v>
       </c>
-      <c r="AO2302" t="s">
+      <c r="AR2302" t="s">
         <v>7161</v>
       </c>
-      <c r="AP2302" t="s">
+      <c r="AS2302" t="s">
         <v>7162</v>
       </c>
-      <c r="AQ2302" t="s">
+      <c r="AT2302" t="s">
+        <v>6921</v>
+      </c>
+      <c r="AU2302" t="s">
         <v>7163</v>
       </c>
-      <c r="AR2302" t="s">
+      <c r="AV2302" t="s">
         <v>7164</v>
       </c>
-      <c r="AS2302" t="s">
+      <c r="AW2302" t="s">
         <v>7165</v>
       </c>
-      <c r="AT2302" t="s">
-        <v>6922</v>
-      </c>
-      <c r="AU2302" t="s">
+      <c r="AX2302" t="s">
         <v>7166</v>
-      </c>
-      <c r="AV2302" t="s">
-        <v>7167</v>
-      </c>
-      <c r="AW2302" t="s">
-        <v>7168</v>
-      </c>
-      <c r="AX2302" t="s">
-        <v>7169</v>
       </c>
       <c r="AY2302">
         <v>999</v>
       </c>
       <c r="AZ2302" t="s">
+        <v>7167</v>
+      </c>
+      <c r="BA2302" t="s">
+        <v>7168</v>
+      </c>
+      <c r="BB2302" t="s">
+        <v>7169</v>
+      </c>
+      <c r="BC2302" t="s">
+        <v>6969</v>
+      </c>
+      <c r="BD2302" t="s">
         <v>7170</v>
-      </c>
-      <c r="BA2302" t="s">
-        <v>7171</v>
-      </c>
-      <c r="BB2302" t="s">
-        <v>7172</v>
-      </c>
-      <c r="BC2302" t="s">
-        <v>6970</v>
-      </c>
-      <c r="BD2302" t="s">
-        <v>7173</v>
       </c>
     </row>
     <row r="2303" spans="2:56" x14ac:dyDescent="0.2">
@@ -91039,7 +91069,7 @@
         <v>48.757350000000002</v>
       </c>
       <c r="K2306" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2306">
         <v>25.1</v>
@@ -91048,11 +91078,14 @@
         <v>48.45</v>
       </c>
       <c r="N2306" t="s">
-        <v>7174</v>
+        <v>7171</v>
       </c>
       <c r="O2306" t="s">
         <v>4220</v>
       </c>
+      <c r="P2306">
+        <v>999</v>
+      </c>
       <c r="Q2306" t="s">
         <v>6843</v>
       </c>
@@ -91060,70 +91093,70 @@
         <v>6737</v>
       </c>
       <c r="S2306" t="s">
-        <v>7175</v>
+        <v>7172</v>
       </c>
       <c r="T2306" t="s">
-        <v>7176</v>
+        <v>7173</v>
       </c>
       <c r="U2306">
         <v>999</v>
       </c>
       <c r="V2306" t="s">
+        <v>7174</v>
+      </c>
+      <c r="W2306" t="s">
+        <v>6933</v>
+      </c>
+      <c r="Y2306" t="s">
+        <v>7175</v>
+      </c>
+      <c r="Z2306" t="s">
+        <v>7176</v>
+      </c>
+      <c r="AA2306" t="s">
         <v>7177</v>
       </c>
-      <c r="W2306" t="s">
-        <v>6934</v>
-      </c>
-      <c r="Y2306" t="s">
-        <v>7178</v>
-      </c>
-      <c r="Z2306" t="s">
-        <v>7179</v>
-      </c>
-      <c r="AA2306" t="s">
-        <v>7180</v>
-      </c>
       <c r="AB2306" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="AC2306" t="s">
         <v>6880</v>
       </c>
       <c r="AD2306" t="s">
-        <v>7181</v>
+        <v>7178</v>
       </c>
       <c r="AE2306" t="s">
-        <v>7182</v>
+        <v>7179</v>
       </c>
       <c r="AF2306" t="s">
         <v>6882</v>
       </c>
       <c r="AG2306" t="s">
+        <v>7360</v>
+      </c>
+      <c r="AH2306" t="s">
+        <v>7180</v>
+      </c>
+      <c r="AI2306" t="s">
+        <v>7128</v>
+      </c>
+      <c r="AJ2306" t="s">
+        <v>7181</v>
+      </c>
+      <c r="AK2306" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2306" t="s">
+        <v>7182</v>
+      </c>
+      <c r="AM2306" t="s">
         <v>7183</v>
       </c>
-      <c r="AH2306" t="s">
+      <c r="AN2306" t="s">
+        <v>7131</v>
+      </c>
+      <c r="AO2306" t="s">
         <v>7184</v>
-      </c>
-      <c r="AI2306" t="s">
-        <v>7130</v>
-      </c>
-      <c r="AJ2306" t="s">
-        <v>7185</v>
-      </c>
-      <c r="AK2306" t="s">
-        <v>6983</v>
-      </c>
-      <c r="AL2306" t="s">
-        <v>7186</v>
-      </c>
-      <c r="AM2306" t="s">
-        <v>7187</v>
-      </c>
-      <c r="AN2306" t="s">
-        <v>7133</v>
-      </c>
-      <c r="AO2306" t="s">
-        <v>7188</v>
       </c>
       <c r="AP2306" t="s">
         <v>6890</v>
@@ -91135,25 +91168,25 @@
         <v>6892</v>
       </c>
       <c r="AS2306" t="s">
-        <v>7189</v>
+        <v>7185</v>
       </c>
       <c r="AT2306" t="s">
-        <v>7190</v>
+        <v>7186</v>
       </c>
       <c r="AU2306" t="s">
         <v>6893</v>
       </c>
       <c r="AV2306" t="s">
-        <v>7191</v>
+        <v>7187</v>
       </c>
       <c r="AW2306" t="s">
+        <v>6992</v>
+      </c>
+      <c r="AX2306" t="s">
         <v>6993</v>
       </c>
-      <c r="AX2306" t="s">
-        <v>6994</v>
-      </c>
       <c r="AY2306" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="AZ2306">
         <v>999</v>
@@ -91162,13 +91195,13 @@
         <v>999</v>
       </c>
       <c r="BB2306" t="s">
-        <v>7192</v>
+        <v>7188</v>
       </c>
       <c r="BC2306" t="s">
-        <v>7193</v>
+        <v>7189</v>
       </c>
       <c r="BD2306" t="s">
-        <v>7194</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="2307" spans="2:56" x14ac:dyDescent="0.2">
@@ -91278,7 +91311,7 @@
         <v>48.814349999999997</v>
       </c>
       <c r="K2310" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2310">
         <v>25.2</v>
@@ -91287,11 +91320,14 @@
         <v>48.45</v>
       </c>
       <c r="N2310" t="s">
-        <v>7195</v>
+        <v>7191</v>
       </c>
       <c r="O2310" t="s">
         <v>4231</v>
       </c>
+      <c r="P2310">
+        <v>999</v>
+      </c>
       <c r="Q2310" t="s">
         <v>4231</v>
       </c>
@@ -91299,7 +91335,7 @@
         <v>6737</v>
       </c>
       <c r="S2310" t="s">
-        <v>7196</v>
+        <v>7192</v>
       </c>
       <c r="T2310" t="s">
         <v>825</v>
@@ -91311,61 +91347,61 @@
         <v>999</v>
       </c>
       <c r="W2310" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="Y2310" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="Z2310" t="s">
         <v>6878</v>
       </c>
       <c r="AA2310" t="s">
-        <v>7197</v>
+        <v>7193</v>
       </c>
       <c r="AB2310" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="AC2310" t="s">
         <v>6880</v>
       </c>
       <c r="AD2310" t="s">
-        <v>7198</v>
+        <v>7194</v>
       </c>
       <c r="AE2310" t="s">
-        <v>7199</v>
+        <v>7195</v>
       </c>
       <c r="AF2310" t="s">
         <v>6882</v>
       </c>
       <c r="AG2310" t="s">
-        <v>7200</v>
+        <v>7196</v>
       </c>
       <c r="AH2310" t="s">
         <v>6884</v>
       </c>
       <c r="AI2310" t="s">
+        <v>7197</v>
+      </c>
+      <c r="AJ2310" t="s">
+        <v>7198</v>
+      </c>
+      <c r="AK2310" t="s">
+        <v>7199</v>
+      </c>
+      <c r="AL2310" t="s">
+        <v>7200</v>
+      </c>
+      <c r="AM2310" t="s">
         <v>7201</v>
       </c>
-      <c r="AJ2310" t="s">
+      <c r="AN2310" t="s">
         <v>7202</v>
       </c>
-      <c r="AK2310" t="s">
+      <c r="AO2310" t="s">
         <v>7203</v>
       </c>
-      <c r="AL2310" t="s">
+      <c r="AP2310" t="s">
         <v>7204</v>
-      </c>
-      <c r="AM2310" t="s">
-        <v>7205</v>
-      </c>
-      <c r="AN2310" t="s">
-        <v>7206</v>
-      </c>
-      <c r="AO2310" t="s">
-        <v>7207</v>
-      </c>
-      <c r="AP2310" t="s">
-        <v>7208</v>
       </c>
       <c r="AQ2310" t="s">
         <v>6891</v>
@@ -91374,25 +91410,25 @@
         <v>6892</v>
       </c>
       <c r="AS2310" t="s">
-        <v>7209</v>
+        <v>7205</v>
       </c>
       <c r="AT2310" t="s">
-        <v>7210</v>
+        <v>7206</v>
       </c>
       <c r="AU2310" t="s">
         <v>6893</v>
       </c>
       <c r="AV2310" t="s">
-        <v>7211</v>
+        <v>7207</v>
       </c>
       <c r="AW2310" t="s">
-        <v>7138</v>
+        <v>7136</v>
       </c>
       <c r="AX2310" t="s">
-        <v>7212</v>
+        <v>7208</v>
       </c>
       <c r="AY2310" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="AZ2310">
         <v>999</v>
@@ -91401,10 +91437,10 @@
         <v>999</v>
       </c>
       <c r="BB2310" t="s">
-        <v>7213</v>
+        <v>7209</v>
       </c>
       <c r="BC2310" t="s">
-        <v>7214</v>
+        <v>7210</v>
       </c>
       <c r="BD2310" t="s">
         <v>6897</v>
@@ -91699,7 +91735,7 @@
         <v>48.768259999999998</v>
       </c>
       <c r="K2321" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2321">
         <v>25.3</v>
@@ -91708,11 +91744,14 @@
         <v>48.45</v>
       </c>
       <c r="N2321" t="s">
-        <v>7215</v>
+        <v>7211</v>
       </c>
       <c r="O2321" t="s">
         <v>4261</v>
       </c>
+      <c r="P2321">
+        <v>999</v>
+      </c>
       <c r="Q2321" t="s">
         <v>4231</v>
       </c>
@@ -91720,10 +91759,10 @@
         <v>6737</v>
       </c>
       <c r="S2321" t="s">
-        <v>7216</v>
+        <v>7212</v>
       </c>
       <c r="T2321" t="s">
-        <v>7217</v>
+        <v>7213</v>
       </c>
       <c r="U2321" t="s">
         <v>803</v>
@@ -91732,106 +91771,106 @@
         <v>6737</v>
       </c>
       <c r="W2321" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="X2321" s="9" t="s">
+        <v>7356</v>
+      </c>
+      <c r="Y2321" t="s">
+        <v>7214</v>
+      </c>
+      <c r="Z2321" t="s">
+        <v>7215</v>
+      </c>
+      <c r="AA2321" t="s">
+        <v>7216</v>
+      </c>
+      <c r="AB2321" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AC2321" t="s">
+        <v>6944</v>
+      </c>
+      <c r="AD2321" t="s">
+        <v>7217</v>
+      </c>
+      <c r="AE2321" t="s">
         <v>7218</v>
       </c>
-      <c r="Y2321" t="s">
+      <c r="AF2321" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2321" t="s">
+        <v>6948</v>
+      </c>
+      <c r="AH2321" t="s">
         <v>7219</v>
       </c>
-      <c r="Z2321" t="s">
+      <c r="AI2321" t="s">
         <v>7220</v>
       </c>
-      <c r="AA2321" t="s">
+      <c r="AJ2321" t="s">
         <v>7221</v>
       </c>
-      <c r="AB2321" t="s">
-        <v>7032</v>
-      </c>
-      <c r="AC2321" t="s">
-        <v>6945</v>
-      </c>
-      <c r="AD2321" t="s">
+      <c r="AK2321" t="s">
         <v>7222</v>
       </c>
-      <c r="AE2321" t="s">
+      <c r="AL2321" t="s">
         <v>7223</v>
       </c>
-      <c r="AF2321" t="s">
-        <v>6948</v>
-      </c>
-      <c r="AG2321" t="s">
-        <v>6949</v>
-      </c>
-      <c r="AH2321" t="s">
+      <c r="AM2321" t="s">
         <v>7224</v>
       </c>
-      <c r="AI2321" t="s">
+      <c r="AN2321" t="s">
         <v>7225</v>
       </c>
-      <c r="AJ2321" t="s">
+      <c r="AO2321" t="s">
         <v>7226</v>
       </c>
-      <c r="AK2321" t="s">
+      <c r="AP2321" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2321" t="s">
         <v>7227</v>
       </c>
-      <c r="AL2321" t="s">
+      <c r="AR2321" t="s">
         <v>7228</v>
       </c>
-      <c r="AM2321" t="s">
+      <c r="AS2321" t="s">
         <v>7229</v>
       </c>
-      <c r="AN2321" t="s">
+      <c r="AT2321" t="s">
         <v>7230</v>
       </c>
-      <c r="AO2321" t="s">
+      <c r="AU2321" t="s">
         <v>7231</v>
       </c>
-      <c r="AP2321" t="s">
-        <v>6957</v>
-      </c>
-      <c r="AQ2321" t="s">
+      <c r="AV2321" t="s">
         <v>7232</v>
       </c>
-      <c r="AR2321" t="s">
+      <c r="AW2321" t="s">
         <v>7233</v>
       </c>
-      <c r="AS2321" t="s">
+      <c r="AX2321" t="s">
         <v>7234</v>
-      </c>
-      <c r="AT2321" t="s">
-        <v>7235</v>
-      </c>
-      <c r="AU2321" t="s">
-        <v>7236</v>
-      </c>
-      <c r="AV2321" t="s">
-        <v>7237</v>
-      </c>
-      <c r="AW2321" t="s">
-        <v>7238</v>
-      </c>
-      <c r="AX2321" t="s">
-        <v>7239</v>
       </c>
       <c r="AY2321">
         <v>999</v>
       </c>
       <c r="AZ2321" t="s">
-        <v>7240</v>
+        <v>7235</v>
       </c>
       <c r="BA2321" t="s">
-        <v>7241</v>
+        <v>7236</v>
       </c>
       <c r="BB2321" t="s">
-        <v>7242</v>
+        <v>7237</v>
       </c>
       <c r="BC2321" t="s">
-        <v>6997</v>
+        <v>6996</v>
       </c>
       <c r="BD2321" t="s">
-        <v>7243</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="2322" spans="2:56" x14ac:dyDescent="0.2">
@@ -91941,7 +91980,7 @@
         <v>48.806600000000003</v>
       </c>
       <c r="K2325" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2325">
         <v>25.3</v>
@@ -91950,11 +91989,14 @@
         <v>48.45</v>
       </c>
       <c r="N2325" t="s">
-        <v>7244</v>
+        <v>7239</v>
       </c>
       <c r="O2325" t="s">
         <v>4273</v>
       </c>
+      <c r="P2325">
+        <v>999</v>
+      </c>
       <c r="Q2325" t="s">
         <v>4231</v>
       </c>
@@ -91962,7 +92004,7 @@
         <v>6737</v>
       </c>
       <c r="S2325" t="s">
-        <v>7245</v>
+        <v>7240</v>
       </c>
       <c r="T2325" t="s">
         <v>6761</v>
@@ -91974,58 +92016,58 @@
         <v>6737</v>
       </c>
       <c r="W2325" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="Y2325" t="s">
-        <v>7246</v>
+        <v>7241</v>
       </c>
       <c r="Z2325" t="s">
         <v>6878</v>
       </c>
       <c r="AA2325" t="s">
-        <v>7247</v>
+        <v>7242</v>
       </c>
       <c r="AB2325" t="s">
-        <v>7248</v>
+        <v>7243</v>
       </c>
       <c r="AC2325" t="s">
         <v>6880</v>
       </c>
       <c r="AD2325" t="s">
-        <v>7249</v>
+        <v>7244</v>
       </c>
       <c r="AE2325" t="s">
-        <v>7250</v>
+        <v>7245</v>
       </c>
       <c r="AF2325" t="s">
         <v>6882</v>
       </c>
       <c r="AG2325" t="s">
-        <v>7251</v>
+        <v>7246</v>
       </c>
       <c r="AH2325" t="s">
         <v>6884</v>
       </c>
       <c r="AI2325" t="s">
-        <v>7252</v>
+        <v>7247</v>
       </c>
       <c r="AJ2325" t="s">
-        <v>7253</v>
+        <v>7248</v>
       </c>
       <c r="AK2325" t="s">
-        <v>7254</v>
+        <v>7249</v>
       </c>
       <c r="AL2325" t="s">
-        <v>6984</v>
+        <v>6983</v>
       </c>
       <c r="AM2325" t="s">
-        <v>7205</v>
+        <v>7201</v>
       </c>
       <c r="AN2325" t="s">
-        <v>7255</v>
+        <v>7250</v>
       </c>
       <c r="AO2325" t="s">
-        <v>7256</v>
+        <v>7251</v>
       </c>
       <c r="AP2325" t="s">
         <v>6890</v>
@@ -92034,28 +92076,28 @@
         <v>6891</v>
       </c>
       <c r="AR2325" t="s">
-        <v>7257</v>
+        <v>7252</v>
       </c>
       <c r="AS2325" t="s">
-        <v>7189</v>
+        <v>7185</v>
       </c>
       <c r="AT2325" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
       <c r="AU2325" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="AV2325" t="s">
         <v>6894</v>
       </c>
       <c r="AW2325" t="s">
-        <v>7138</v>
+        <v>7136</v>
       </c>
       <c r="AX2325" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
       <c r="AY2325" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="AZ2325">
         <v>999</v>
@@ -92064,10 +92106,10 @@
         <v>999</v>
       </c>
       <c r="BB2325" t="s">
-        <v>7258</v>
+        <v>7253</v>
       </c>
       <c r="BC2325" t="s">
-        <v>7106</v>
+        <v>7105</v>
       </c>
       <c r="BD2325" t="s">
         <v>6897</v>
@@ -92154,7 +92196,7 @@
         <v>48.830849999999998</v>
       </c>
       <c r="K2328" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2328">
         <v>25.4</v>
@@ -92163,11 +92205,14 @@
         <v>48.45</v>
       </c>
       <c r="N2328" t="s">
-        <v>7259</v>
+        <v>7254</v>
       </c>
       <c r="O2328" t="s">
         <v>4282</v>
       </c>
+      <c r="P2328">
+        <v>999</v>
+      </c>
       <c r="Q2328" t="s">
         <v>4231</v>
       </c>
@@ -92175,7 +92220,7 @@
         <v>6827</v>
       </c>
       <c r="S2328" t="s">
-        <v>7260</v>
+        <v>7255</v>
       </c>
       <c r="T2328" t="s">
         <v>2779</v>
@@ -92187,91 +92232,91 @@
         <v>999</v>
       </c>
       <c r="W2328" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="X2328" s="9" t="s">
+        <v>7357</v>
+      </c>
+      <c r="Y2328" t="s">
+        <v>7256</v>
+      </c>
+      <c r="Z2328" t="s">
+        <v>7257</v>
+      </c>
+      <c r="AA2328" t="s">
+        <v>7258</v>
+      </c>
+      <c r="AB2328" t="s">
+        <v>7259</v>
+      </c>
+      <c r="AC2328" t="s">
+        <v>7260</v>
+      </c>
+      <c r="AD2328" t="s">
         <v>7261</v>
       </c>
-      <c r="Y2328" t="s">
+      <c r="AE2328" t="s">
         <v>7262</v>
       </c>
-      <c r="Z2328" t="s">
+      <c r="AF2328" t="s">
         <v>7263</v>
       </c>
-      <c r="AA2328" t="s">
+      <c r="AG2328" t="s">
         <v>7264</v>
       </c>
-      <c r="AB2328" t="s">
+      <c r="AH2328" t="s">
         <v>7265</v>
       </c>
-      <c r="AC2328" t="s">
+      <c r="AI2328" t="s">
+        <v>7352</v>
+      </c>
+      <c r="AJ2328" t="s">
         <v>7266</v>
       </c>
-      <c r="AD2328" t="s">
+      <c r="AK2328" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2328" t="s">
         <v>7267</v>
       </c>
-      <c r="AE2328" t="s">
+      <c r="AM2328" t="s">
+        <v>7130</v>
+      </c>
+      <c r="AN2328" t="s">
+        <v>7250</v>
+      </c>
+      <c r="AO2328" t="s">
         <v>7268</v>
-      </c>
-      <c r="AF2328" t="s">
-        <v>7269</v>
-      </c>
-      <c r="AG2328" t="s">
-        <v>7270</v>
-      </c>
-      <c r="AH2328" t="s">
-        <v>7271</v>
-      </c>
-      <c r="AI2328" t="s">
-        <v>7360</v>
-      </c>
-      <c r="AJ2328" t="s">
-        <v>7272</v>
-      </c>
-      <c r="AK2328" t="s">
-        <v>6953</v>
-      </c>
-      <c r="AL2328" t="s">
-        <v>7273</v>
-      </c>
-      <c r="AM2328" t="s">
-        <v>7132</v>
-      </c>
-      <c r="AN2328" t="s">
-        <v>7255</v>
-      </c>
-      <c r="AO2328" t="s">
-        <v>7274</v>
       </c>
       <c r="AP2328" t="s">
         <v>6890</v>
       </c>
       <c r="AQ2328" t="s">
-        <v>7275</v>
+        <v>7269</v>
       </c>
       <c r="AR2328" t="s">
-        <v>7276</v>
+        <v>7270</v>
       </c>
       <c r="AS2328" t="s">
-        <v>7277</v>
+        <v>7271</v>
       </c>
       <c r="AT2328" t="s">
-        <v>7278</v>
+        <v>7272</v>
       </c>
       <c r="AU2328" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="AV2328" t="s">
-        <v>7279</v>
+        <v>7273</v>
       </c>
       <c r="AW2328" t="s">
-        <v>7361</v>
+        <v>7353</v>
       </c>
       <c r="AX2328" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
       <c r="AY2328" t="s">
-        <v>7280</v>
+        <v>7274</v>
       </c>
       <c r="AZ2328">
         <v>999</v>
@@ -92280,13 +92325,13 @@
         <v>999</v>
       </c>
       <c r="BB2328" t="s">
-        <v>7281</v>
+        <v>7275</v>
       </c>
       <c r="BC2328" t="s">
-        <v>7282</v>
+        <v>7276</v>
       </c>
       <c r="BD2328" t="s">
-        <v>7283</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="2329" spans="2:56" x14ac:dyDescent="0.2">
@@ -92370,20 +92415,23 @@
         <v>48.822870000000002</v>
       </c>
       <c r="K2331" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2331">
         <v>540</v>
       </c>
       <c r="M2331" t="s">
-        <v>7284</v>
+        <v>7278</v>
       </c>
       <c r="N2331" t="s">
-        <v>7285</v>
+        <v>7279</v>
       </c>
       <c r="O2331" t="s">
         <v>4291</v>
       </c>
+      <c r="P2331">
+        <v>999</v>
+      </c>
       <c r="Q2331" t="s">
         <v>4110</v>
       </c>
@@ -92391,7 +92439,7 @@
         <v>4825</v>
       </c>
       <c r="S2331" t="s">
-        <v>7286</v>
+        <v>7280</v>
       </c>
       <c r="T2331" t="s">
         <v>5657</v>
@@ -92403,103 +92451,103 @@
         <v>999</v>
       </c>
       <c r="W2331" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="Y2331" t="s">
+        <v>7281</v>
+      </c>
+      <c r="Z2331" t="s">
+        <v>7282</v>
+      </c>
+      <c r="AA2331" t="s">
+        <v>7283</v>
+      </c>
+      <c r="AB2331" t="s">
+        <v>7060</v>
+      </c>
+      <c r="AC2331" t="s">
+        <v>7032</v>
+      </c>
+      <c r="AD2331" t="s">
+        <v>7284</v>
+      </c>
+      <c r="AE2331" t="s">
+        <v>7285</v>
+      </c>
+      <c r="AF2331" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2331" t="s">
+        <v>7286</v>
+      </c>
+      <c r="AH2331" t="s">
         <v>7287</v>
       </c>
-      <c r="Z2331" t="s">
+      <c r="AI2331" t="s">
         <v>7288</v>
       </c>
-      <c r="AA2331" t="s">
+      <c r="AJ2331" t="s">
         <v>7289</v>
       </c>
-      <c r="AB2331" t="s">
-        <v>7061</v>
-      </c>
-      <c r="AC2331" t="s">
-        <v>7033</v>
-      </c>
-      <c r="AD2331" t="s">
+      <c r="AK2331" t="s">
+        <v>7068</v>
+      </c>
+      <c r="AL2331" t="s">
         <v>7290</v>
       </c>
-      <c r="AE2331" t="s">
+      <c r="AM2331" t="s">
         <v>7291</v>
       </c>
-      <c r="AF2331" t="s">
-        <v>6948</v>
-      </c>
-      <c r="AG2331" t="s">
+      <c r="AN2331" t="s">
         <v>7292</v>
       </c>
-      <c r="AH2331" t="s">
+      <c r="AO2331" t="s">
         <v>7293</v>
       </c>
-      <c r="AI2331" t="s">
+      <c r="AP2331" t="s">
         <v>7294</v>
       </c>
-      <c r="AJ2331" t="s">
+      <c r="AQ2331" t="s">
+        <v>7072</v>
+      </c>
+      <c r="AR2331" t="s">
         <v>7295</v>
       </c>
-      <c r="AK2331" t="s">
-        <v>7069</v>
-      </c>
-      <c r="AL2331" t="s">
+      <c r="AS2331" t="s">
         <v>7296</v>
       </c>
-      <c r="AM2331" t="s">
+      <c r="AT2331" t="s">
+        <v>6990</v>
+      </c>
+      <c r="AU2331" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2331" t="s">
         <v>7297</v>
       </c>
-      <c r="AN2331" t="s">
+      <c r="AW2331" t="s">
+        <v>7047</v>
+      </c>
+      <c r="AX2331" t="s">
         <v>7298</v>
       </c>
-      <c r="AO2331" t="s">
-        <v>7299</v>
-      </c>
-      <c r="AP2331" t="s">
-        <v>7300</v>
-      </c>
-      <c r="AQ2331" t="s">
-        <v>7073</v>
-      </c>
-      <c r="AR2331" t="s">
-        <v>7301</v>
-      </c>
-      <c r="AS2331" t="s">
-        <v>7302</v>
-      </c>
-      <c r="AT2331" t="s">
-        <v>6991</v>
-      </c>
-      <c r="AU2331" t="s">
-        <v>6962</v>
-      </c>
-      <c r="AV2331" t="s">
-        <v>7303</v>
-      </c>
-      <c r="AW2331" t="s">
-        <v>7048</v>
-      </c>
-      <c r="AX2331" t="s">
-        <v>7304</v>
-      </c>
-      <c r="AY2331" t="s">
-        <v>7362</v>
-      </c>
-      <c r="AZ2331">
+      <c r="AY2331">
         <v>999</v>
+      </c>
+      <c r="AZ2331" t="s">
+        <v>7354</v>
       </c>
       <c r="BA2331">
         <v>999</v>
       </c>
       <c r="BB2331" t="s">
-        <v>7305</v>
+        <v>7299</v>
       </c>
       <c r="BC2331" t="s">
-        <v>7306</v>
+        <v>7300</v>
       </c>
       <c r="BD2331" t="s">
-        <v>7243</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="2332" spans="2:56" x14ac:dyDescent="0.2">
@@ -92687,7 +92735,7 @@
         <v>48.747169999999997</v>
       </c>
       <c r="K2338" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2338">
         <v>540</v>
@@ -92696,11 +92744,14 @@
         <v>845</v>
       </c>
       <c r="N2338" t="s">
-        <v>7307</v>
+        <v>7301</v>
       </c>
       <c r="O2338" t="s">
         <v>4308</v>
       </c>
+      <c r="P2338">
+        <v>999</v>
+      </c>
       <c r="Q2338" t="s">
         <v>344</v>
       </c>
@@ -92708,7 +92759,7 @@
         <v>4825</v>
       </c>
       <c r="S2338" t="s">
-        <v>7308</v>
+        <v>7302</v>
       </c>
       <c r="T2338" t="s">
         <v>3252</v>
@@ -92720,19 +92771,19 @@
         <v>999</v>
       </c>
       <c r="W2338" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="X2338" s="9" t="s">
-        <v>7309</v>
+        <v>7358</v>
       </c>
       <c r="Y2338" t="s">
-        <v>7310</v>
+        <v>7303</v>
       </c>
       <c r="Z2338" t="s">
-        <v>7311</v>
+        <v>7304</v>
       </c>
       <c r="AA2338" t="s">
-        <v>7312</v>
+        <v>7305</v>
       </c>
       <c r="AB2338" t="s">
         <v>6904</v>
@@ -92741,85 +92792,85 @@
         <v>6880</v>
       </c>
       <c r="AD2338" t="s">
-        <v>7313</v>
+        <v>7306</v>
       </c>
       <c r="AE2338" t="s">
-        <v>7314</v>
+        <v>7307</v>
       </c>
       <c r="AF2338" t="s">
         <v>6882</v>
       </c>
       <c r="AG2338" t="s">
+        <v>7308</v>
+      </c>
+      <c r="AH2338" t="s">
+        <v>7309</v>
+      </c>
+      <c r="AI2338" t="s">
+        <v>7093</v>
+      </c>
+      <c r="AJ2338" t="s">
+        <v>7310</v>
+      </c>
+      <c r="AK2338" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2338" t="s">
+        <v>7311</v>
+      </c>
+      <c r="AM2338" t="s">
+        <v>7312</v>
+      </c>
+      <c r="AN2338" t="s">
+        <v>7313</v>
+      </c>
+      <c r="AO2338" t="s">
+        <v>7314</v>
+      </c>
+      <c r="AP2338" t="s">
+        <v>7204</v>
+      </c>
+      <c r="AQ2338" t="s">
         <v>7315</v>
       </c>
-      <c r="AH2338" t="s">
+      <c r="AR2338" t="s">
         <v>7316</v>
       </c>
-      <c r="AI2338" t="s">
-        <v>7094</v>
-      </c>
-      <c r="AJ2338" t="s">
+      <c r="AS2338" t="s">
         <v>7317</v>
       </c>
-      <c r="AK2338" t="s">
-        <v>6983</v>
-      </c>
-      <c r="AL2338" t="s">
+      <c r="AT2338" t="s">
         <v>7318</v>
-      </c>
-      <c r="AM2338" t="s">
-        <v>7319</v>
-      </c>
-      <c r="AN2338" t="s">
-        <v>7320</v>
-      </c>
-      <c r="AO2338" t="s">
-        <v>7321</v>
-      </c>
-      <c r="AP2338" t="s">
-        <v>7208</v>
-      </c>
-      <c r="AQ2338" t="s">
-        <v>7322</v>
-      </c>
-      <c r="AR2338" t="s">
-        <v>7323</v>
-      </c>
-      <c r="AS2338" t="s">
-        <v>7324</v>
-      </c>
-      <c r="AT2338" t="s">
-        <v>7325</v>
       </c>
       <c r="AU2338" t="s">
         <v>6893</v>
       </c>
       <c r="AV2338" t="s">
-        <v>7326</v>
+        <v>7319</v>
       </c>
       <c r="AW2338" t="s">
-        <v>7327</v>
+        <v>7320</v>
       </c>
       <c r="AX2338" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
       <c r="AY2338">
         <v>999</v>
       </c>
       <c r="AZ2338" t="s">
-        <v>7328</v>
+        <v>7321</v>
       </c>
       <c r="BA2338" t="s">
-        <v>7329</v>
+        <v>7322</v>
       </c>
       <c r="BB2338" t="s">
-        <v>7330</v>
+        <v>7323</v>
       </c>
       <c r="BC2338" t="s">
-        <v>7331</v>
+        <v>7324</v>
       </c>
       <c r="BD2338" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="2339" spans="2:56" x14ac:dyDescent="0.2">
@@ -93137,7 +93188,7 @@
         <v>48.76294</v>
       </c>
       <c r="K2350" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L2350">
         <v>25.5</v>
@@ -93146,11 +93197,14 @@
         <v>48.45</v>
       </c>
       <c r="N2350" t="s">
-        <v>7332</v>
+        <v>7325</v>
       </c>
       <c r="O2350" t="s">
         <v>4342</v>
       </c>
+      <c r="P2350">
+        <v>999</v>
+      </c>
       <c r="Q2350" t="s">
         <v>4110</v>
       </c>
@@ -93158,10 +93212,10 @@
         <v>4825</v>
       </c>
       <c r="S2350" t="s">
-        <v>7333</v>
+        <v>7326</v>
       </c>
       <c r="T2350" t="s">
-        <v>7334</v>
+        <v>7327</v>
       </c>
       <c r="U2350">
         <v>999</v>
@@ -93170,103 +93224,103 @@
         <v>999</v>
       </c>
       <c r="W2350" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="Y2350" t="s">
-        <v>7287</v>
+        <v>7281</v>
       </c>
       <c r="Z2350" t="s">
+        <v>7328</v>
+      </c>
+      <c r="AA2350" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2350" t="s">
+        <v>7329</v>
+      </c>
+      <c r="AC2350" t="s">
+        <v>7330</v>
+      </c>
+      <c r="AD2350" t="s">
+        <v>7331</v>
+      </c>
+      <c r="AE2350" t="s">
+        <v>7332</v>
+      </c>
+      <c r="AF2350" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2350" t="s">
+        <v>7333</v>
+      </c>
+      <c r="AH2350" t="s">
+        <v>7334</v>
+      </c>
+      <c r="AI2350" t="s">
+        <v>7288</v>
+      </c>
+      <c r="AJ2350" t="s">
         <v>7335</v>
       </c>
-      <c r="AA2350" t="s">
-        <v>6943</v>
-      </c>
-      <c r="AB2350" t="s">
+      <c r="AK2350" t="s">
         <v>7336</v>
       </c>
-      <c r="AC2350" t="s">
+      <c r="AL2350" t="s">
         <v>7337</v>
       </c>
-      <c r="AD2350" t="s">
+      <c r="AM2350" t="s">
+        <v>7291</v>
+      </c>
+      <c r="AN2350" t="s">
         <v>7338</v>
       </c>
-      <c r="AE2350" t="s">
+      <c r="AO2350" t="s">
         <v>7339</v>
       </c>
-      <c r="AF2350" t="s">
-        <v>6948</v>
-      </c>
-      <c r="AG2350" t="s">
+      <c r="AP2350" t="s">
         <v>7340</v>
       </c>
-      <c r="AH2350" t="s">
+      <c r="AQ2350" t="s">
+        <v>7362</v>
+      </c>
+      <c r="AR2350" t="s">
         <v>7341</v>
       </c>
-      <c r="AI2350" t="s">
-        <v>7294</v>
-      </c>
-      <c r="AJ2350" t="s">
+      <c r="AS2350" t="s">
+        <v>7296</v>
+      </c>
+      <c r="AT2350" t="s">
+        <v>6990</v>
+      </c>
+      <c r="AU2350" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2350" t="s">
         <v>7342</v>
       </c>
-      <c r="AK2350" t="s">
+      <c r="AW2350" t="s">
         <v>7343</v>
       </c>
-      <c r="AL2350" t="s">
-        <v>7344</v>
-      </c>
-      <c r="AM2350" t="s">
-        <v>7297</v>
-      </c>
-      <c r="AN2350" t="s">
-        <v>7345</v>
-      </c>
-      <c r="AO2350" t="s">
-        <v>7346</v>
-      </c>
-      <c r="AP2350" t="s">
-        <v>7347</v>
-      </c>
-      <c r="AQ2350" t="s">
-        <v>7348</v>
-      </c>
-      <c r="AR2350" t="s">
-        <v>7349</v>
-      </c>
-      <c r="AS2350" t="s">
-        <v>7302</v>
-      </c>
-      <c r="AT2350" t="s">
-        <v>6991</v>
-      </c>
-      <c r="AU2350" t="s">
-        <v>6962</v>
-      </c>
-      <c r="AV2350" t="s">
-        <v>7350</v>
-      </c>
-      <c r="AW2350" t="s">
-        <v>7351</v>
-      </c>
       <c r="AX2350" t="s">
-        <v>7304</v>
+        <v>7298</v>
       </c>
       <c r="AY2350">
         <v>999</v>
       </c>
       <c r="AZ2350" t="s">
-        <v>7352</v>
+        <v>7344</v>
       </c>
       <c r="BA2350" t="s">
-        <v>7353</v>
+        <v>7345</v>
       </c>
       <c r="BB2350" t="s">
-        <v>7354</v>
+        <v>7346</v>
       </c>
       <c r="BC2350" t="s">
-        <v>7355</v>
+        <v>7347</v>
       </c>
       <c r="BD2350" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="2351" spans="2:56" x14ac:dyDescent="0.2">

--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205A941-48D1-1F44-8A26-6AF968BF90F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3007EC-A31F-F149-AB86-F950B35C1C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13562" uniqueCount="7363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="7589">
   <si>
     <t>ID</t>
   </si>
@@ -21121,9 +21121,6 @@
     <t>Heddesheim &lt;bei Mannheim&gt;</t>
   </si>
   <si>
-    <t>&lt;7.u.8. Schuljahr&gt;</t>
-  </si>
-  <si>
     <t>Ämäs</t>
   </si>
   <si>
@@ -22121,13 +22118,714 @@
   </si>
   <si>
     <t>Pfedderich</t>
+  </si>
+  <si>
+    <t>d-e</t>
+  </si>
+  <si>
+    <t>7.u.8. Schuljahr</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>Atsil</t>
+  </si>
+  <si>
+    <t>Enteröwel</t>
+  </si>
+  <si>
+    <t>Omd</t>
+  </si>
+  <si>
+    <t>Arschgretzere</t>
+  </si>
+  <si>
+    <t>Gogelhahn, Glük</t>
+  </si>
+  <si>
+    <t>Grumbire</t>
+  </si>
+  <si>
+    <t>Kader</t>
+  </si>
+  <si>
+    <t>Molkwurme</t>
+  </si>
+  <si>
+    <t>Riwe</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Gresetle</t>
+  </si>
+  <si>
+    <t>Guw, Stecknadel</t>
+  </si>
+  <si>
+    <t>Hawe, irdener Hawe</t>
+  </si>
+  <si>
+    <t>Elsaß-Lothr.</t>
+  </si>
+  <si>
+    <t>Frau Sch[mitz]</t>
+  </si>
+  <si>
+    <t>[¿]tehmidt</t>
+  </si>
+  <si>
+    <t>[Dan]fessel</t>
+  </si>
+  <si>
+    <t>d-b</t>
+  </si>
+  <si>
+    <t>Brambeer (w)</t>
+  </si>
+  <si>
+    <t>Atzel (m)</t>
+  </si>
+  <si>
+    <t>Enderich (m)</t>
+  </si>
+  <si>
+    <t>Flädermüs (w)</t>
+  </si>
+  <si>
+    <t>Gogummer (w)</t>
+  </si>
+  <si>
+    <t>Arschgrätzer (m)</t>
+  </si>
+  <si>
+    <t>Hahn (m), Huhn (s', w)</t>
+  </si>
+  <si>
+    <t>Hehwang (w)</t>
+  </si>
+  <si>
+    <t>Mülwerfer (m)</t>
+  </si>
+  <si>
+    <t>Mor (w)</t>
+  </si>
+  <si>
+    <t>Prümme (w)</t>
+  </si>
+  <si>
+    <t>schälte</t>
+  </si>
+  <si>
+    <t>Krächetle (w)</t>
+  </si>
+  <si>
+    <t>Knebelsgüw (w)</t>
+  </si>
+  <si>
+    <t>Taß (w)</t>
+  </si>
+  <si>
+    <t>irdener Hawe (m)</t>
+  </si>
+  <si>
+    <t>Josef Ma[zr]er</t>
+  </si>
+  <si>
+    <t>Littenheim</t>
+  </si>
+  <si>
+    <t>d-a</t>
+  </si>
+  <si>
+    <t>Imse</t>
+  </si>
+  <si>
+    <t>Tissel</t>
+  </si>
+  <si>
+    <t>Entenvogel</t>
+  </si>
+  <si>
+    <t>Fledermus</t>
+  </si>
+  <si>
+    <t>Mucke</t>
+  </si>
+  <si>
+    <t>Arschkrätzer</t>
+  </si>
+  <si>
+    <t>Hahn, Huhn</t>
+  </si>
+  <si>
+    <t>Krumbier</t>
+  </si>
+  <si>
+    <t>Mulgräber</t>
+  </si>
+  <si>
+    <t>Brumme</t>
+  </si>
+  <si>
+    <t>Krächel</t>
+  </si>
+  <si>
+    <t>Guf</t>
+  </si>
+  <si>
+    <t>Steinerner Hafe</t>
+  </si>
+  <si>
+    <t>zwiege</t>
+  </si>
+  <si>
+    <t>d-d</t>
+  </si>
+  <si>
+    <t>Brâmbeere</t>
+  </si>
+  <si>
+    <t>Âtzel</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Fleddermüss</t>
+  </si>
+  <si>
+    <t>Âmt</t>
+  </si>
+  <si>
+    <t>Gegummer</t>
+  </si>
+  <si>
+    <t>Pudde, Arschkrâtzer</t>
+  </si>
+  <si>
+    <t>Goggelhâhn, Hähn, Glück</t>
+  </si>
+  <si>
+    <t>Häwang</t>
+  </si>
+  <si>
+    <t>Kâder</t>
+  </si>
+  <si>
+    <t>Müllwärfer, Wollgorma</t>
+  </si>
+  <si>
+    <t>Moohr</t>
+  </si>
+  <si>
+    <t>Pâtt</t>
+  </si>
+  <si>
+    <t>schälda</t>
+  </si>
+  <si>
+    <t>Spâtz</t>
+  </si>
+  <si>
+    <t>Grüssettel</t>
+  </si>
+  <si>
+    <t>Strecknôdel</t>
+  </si>
+  <si>
+    <t>Häwa</t>
+  </si>
+  <si>
+    <t>zweja</t>
+  </si>
+  <si>
+    <t>Geis</t>
+  </si>
+  <si>
+    <t>Gisselbraht</t>
+  </si>
+  <si>
+    <t>d-h</t>
+  </si>
+  <si>
+    <t>Amnit[?] (w)</t>
+  </si>
+  <si>
+    <t>Brombeere (w)</t>
+  </si>
+  <si>
+    <t>Flederm[r]us (w)</t>
+  </si>
+  <si>
+    <t>Ohmd (s)</t>
+  </si>
+  <si>
+    <t>Hebamme (w)</t>
+  </si>
+  <si>
+    <t>Grumbir (w)</t>
+  </si>
+  <si>
+    <t>Mülwerfer</t>
+  </si>
+  <si>
+    <t>Pate (m)</t>
+  </si>
+  <si>
+    <t>Greßle (w)</t>
+  </si>
+  <si>
+    <t>Stricknadel (w)</t>
+  </si>
+  <si>
+    <t>Stecknadel (w)</t>
+  </si>
+  <si>
+    <t>Tasse (w)</t>
+  </si>
+  <si>
+    <t>Hah[m] &lt;[?]&gt; (m)</t>
+  </si>
+  <si>
+    <t>zwijen</t>
+  </si>
+  <si>
+    <t>G. [?]ost</t>
+  </si>
+  <si>
+    <t>Pforzheim Laden</t>
+  </si>
+  <si>
+    <t>Einheimische</t>
+  </si>
+  <si>
+    <t>d-l</t>
+  </si>
+  <si>
+    <t>Amuse&lt;(n)&gt; (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[e]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cht (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Brombeer (w)</t>
+  </si>
+  <si>
+    <t>Elster (w)</t>
+  </si>
+  <si>
+    <t>Ente (w)</t>
+  </si>
+  <si>
+    <t>Ohmd (s.)</t>
+  </si>
+  <si>
+    <t>Pudde (w)</t>
+  </si>
+  <si>
+    <t>Gakelhahn (m), Henne (w)</t>
+  </si>
+  <si>
+    <t>Hebamm (w)</t>
+  </si>
+  <si>
+    <t>Krumbeere (w)</t>
+  </si>
+  <si>
+    <t>Mohr (w), Sau (w)</t>
+  </si>
+  <si>
+    <t>Patt' (m)</t>
+  </si>
+  <si>
+    <t>Hebamm' (w)</t>
+  </si>
+  <si>
+    <t>&lt;P?&gt; Brüm' (w)</t>
+  </si>
+  <si>
+    <t>Grüsselbeere&lt;(n)&gt; (w)</t>
+  </si>
+  <si>
+    <t>Guwe (w)</t>
+  </si>
+  <si>
+    <t>&lt;(=irdener)&gt; Hawe (m)</t>
+  </si>
+  <si>
+    <t>Mück' (w)</t>
+  </si>
+  <si>
+    <t>Brombeer' (w)</t>
+  </si>
+  <si>
+    <t>E. Schillung</t>
+  </si>
+  <si>
+    <t>Neustadt i Sch[?].</t>
+  </si>
+  <si>
+    <t>Bürger Emil Löw</t>
+  </si>
+  <si>
+    <t>d-p</t>
+  </si>
+  <si>
+    <t>Ämeise (w)</t>
+  </si>
+  <si>
+    <t>Disel (m)</t>
+  </si>
+  <si>
+    <t>Flädermüs</t>
+  </si>
+  <si>
+    <t>Mug (w)</t>
+  </si>
+  <si>
+    <t>Gagumer (w)</t>
+  </si>
+  <si>
+    <t>Katz (w)</t>
+  </si>
+  <si>
+    <t>Patt (m)</t>
+  </si>
+  <si>
+    <t>Solt Robert</t>
+  </si>
+  <si>
+    <t>d-q</t>
+  </si>
+  <si>
+    <t>Hämeis (d', w)</t>
+  </si>
+  <si>
+    <t>Licht (d', w)</t>
+  </si>
+  <si>
+    <t>Brombeer (d', w)</t>
+  </si>
+  <si>
+    <t>Dissel (de, m)</t>
+  </si>
+  <si>
+    <t>Atzel (d', m)</t>
+  </si>
+  <si>
+    <t>Fleddermüß (w)</t>
+  </si>
+  <si>
+    <t>Muck (d', w)</t>
+  </si>
+  <si>
+    <t>Gāgummer</t>
+  </si>
+  <si>
+    <t>Hahn (m), Huhn (w), Gluck (w)</t>
+  </si>
+  <si>
+    <t>Hewang (d', w)</t>
+  </si>
+  <si>
+    <t>Pātt (m)</t>
+  </si>
+  <si>
+    <t>Guffe (w)</t>
+  </si>
+  <si>
+    <t>Hāfe (m)</t>
+  </si>
+  <si>
+    <t>Zwije</t>
+  </si>
+  <si>
+    <t>Geiß (d', w)</t>
+  </si>
+  <si>
+    <t>Rötsch [?]</t>
+  </si>
+  <si>
+    <t>Strutz</t>
+  </si>
+  <si>
+    <t>d-r</t>
+  </si>
+  <si>
+    <t>Ohmt</t>
+  </si>
+  <si>
+    <t>Hahn (m), Glück (w)</t>
+  </si>
+  <si>
+    <t>Hewāmm (d', w)</t>
+  </si>
+  <si>
+    <t>Katzewollert (m)</t>
+  </si>
+  <si>
+    <t>c-X</t>
+  </si>
+  <si>
+    <t>Ämäße</t>
+  </si>
+  <si>
+    <t>zur Licht</t>
+  </si>
+  <si>
+    <t>Ondrich</t>
+  </si>
+  <si>
+    <t>Gummer</t>
+  </si>
+  <si>
+    <t>Arschkrätzere</t>
+  </si>
+  <si>
+    <t>Gockel, Glück</t>
+  </si>
+  <si>
+    <t>Krummbire</t>
+  </si>
+  <si>
+    <t>Kater</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Pade</t>
+  </si>
+  <si>
+    <t>Brümmel</t>
+  </si>
+  <si>
+    <t>Spärling</t>
+  </si>
+  <si>
+    <t>Gräsedle</t>
+  </si>
+  <si>
+    <t>[?]gobe</t>
+  </si>
+  <si>
+    <t>Toss</t>
+  </si>
+  <si>
+    <t>Kassä[?]</t>
+  </si>
+  <si>
+    <t>Didion</t>
+  </si>
+  <si>
+    <t>Saarbrücken</t>
+  </si>
+  <si>
+    <t>c-Z</t>
+  </si>
+  <si>
+    <t>Licht (s', w)</t>
+  </si>
+  <si>
+    <t>Andrich (w)</t>
+  </si>
+  <si>
+    <t>Fleddermüs (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amt </t>
+  </si>
+  <si>
+    <t>Arschkratzer (m)</t>
+  </si>
+  <si>
+    <t>Goggel (m), Huhn (s)</t>
+  </si>
+  <si>
+    <t>Grummbeer (w)</t>
+  </si>
+  <si>
+    <t>Wolkwurm (m)</t>
+  </si>
+  <si>
+    <t>Prümm (w)</t>
+  </si>
+  <si>
+    <t>Gresse[t]l (w)</t>
+  </si>
+  <si>
+    <t>Steckguw (w)</t>
+  </si>
+  <si>
+    <t>[T]eller</t>
+  </si>
+  <si>
+    <t>R. Löscher</t>
+  </si>
+  <si>
+    <t>[H]al b. Drulingen</t>
+  </si>
+  <si>
+    <t>d-c</t>
+  </si>
+  <si>
+    <t>Dissel (m, w)</t>
+  </si>
+  <si>
+    <t>Entrich (m)</t>
+  </si>
+  <si>
+    <t>Ä̠mes (w)</t>
+  </si>
+  <si>
+    <t>Līcht (w), Begräbnis (s)</t>
+  </si>
+  <si>
+    <t>Fleddermūs (w)</t>
+  </si>
+  <si>
+    <t>Gegummer (w)</t>
+  </si>
+  <si>
+    <t>Arschkrätzere (w)</t>
+  </si>
+  <si>
+    <t>Hahn (a, m), Henne (s, w), Hintel (s)</t>
+  </si>
+  <si>
+    <t>Grummbiere (w)</t>
+  </si>
+  <si>
+    <t>Mǖlwerfer (m)</t>
+  </si>
+  <si>
+    <t>Mohr (s)</t>
+  </si>
+  <si>
+    <t>Gäschel, Geißel (w)</t>
+  </si>
+  <si>
+    <t>Brümme (w)</t>
+  </si>
+  <si>
+    <t>Krächetle (w, s)</t>
+  </si>
+  <si>
+    <t>Stecknodel (m), R[ee]bbelsguwe (w)</t>
+  </si>
+  <si>
+    <t>[Kahhaffe] (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veredeln, zwīgen,[a]īle </t>
+  </si>
+  <si>
+    <t>Unterer Elsaß</t>
+  </si>
+  <si>
+    <t>Karl Faulhaber</t>
+  </si>
+  <si>
+    <t>d-o</t>
+  </si>
+  <si>
+    <t>Ämeise</t>
+  </si>
+  <si>
+    <t>Dissl</t>
+  </si>
+  <si>
+    <t>Flattermüß</t>
+  </si>
+  <si>
+    <t>Gagummer</t>
+  </si>
+  <si>
+    <t>Putte</t>
+  </si>
+  <si>
+    <t>Hahn, Glück</t>
+  </si>
+  <si>
+    <t>Krombēr</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Påt</t>
+  </si>
+  <si>
+    <t>Geischel</t>
+  </si>
+  <si>
+    <t>Prumm</t>
+  </si>
+  <si>
+    <t>Krüselsbeere</t>
+  </si>
+  <si>
+    <t>Strecknodel</t>
+  </si>
+  <si>
+    <t>Schissl</t>
+  </si>
+  <si>
+    <t>Blättl</t>
+  </si>
+  <si>
+    <t>Blättel</t>
+  </si>
+  <si>
+    <t>Tâss</t>
+  </si>
+  <si>
+    <t>irdener Håwe</t>
+  </si>
+  <si>
+    <t>gleicher Lehrer wie &amp; fast identisch mit III_6_0020</t>
+  </si>
+  <si>
+    <t>Josef Fischer</t>
+  </si>
+  <si>
+    <t>S, A</t>
+  </si>
+  <si>
+    <t>und [?] des Dorfes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -22170,8 +22868,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22199,6 +22902,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22233,7 +22942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -22250,6 +22959,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22548,9 +23258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE2566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ2276" sqref="AZ2276"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2184" sqref="C2184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22679,7 +23389,7 @@
       <c r="AN1" s="1" t="s">
         <v>6805</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="16" t="s">
         <v>6806</v>
       </c>
       <c r="AP1" s="1" t="s">
@@ -85929,6 +86639,12 @@
       </c>
     </row>
     <row r="2168" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2168" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2168" t="s">
         <v>3835</v>
       </c>
@@ -85950,8 +86666,140 @@
       <c r="J2168">
         <v>48.900500000000001</v>
       </c>
+      <c r="K2168" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2168">
+        <v>24.4</v>
+      </c>
+      <c r="M2168">
+        <v>48.5</v>
+      </c>
+      <c r="N2168" t="s">
+        <v>7511</v>
+      </c>
       <c r="O2168" t="s">
         <v>3837</v>
+      </c>
+      <c r="P2168">
+        <v>999</v>
+      </c>
+      <c r="Q2168" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2168" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2168" t="s">
+        <v>7528</v>
+      </c>
+      <c r="T2168" t="s">
+        <v>7529</v>
+      </c>
+      <c r="U2168">
+        <v>999</v>
+      </c>
+      <c r="V2168">
+        <v>999</v>
+      </c>
+      <c r="W2168" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2168" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2168" t="s">
+        <v>7512</v>
+      </c>
+      <c r="Z2168" t="s">
+        <v>7513</v>
+      </c>
+      <c r="AA2168" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2168" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2168" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2168" t="s">
+        <v>7514</v>
+      </c>
+      <c r="AE2168" t="s">
+        <v>7217</v>
+      </c>
+      <c r="AF2168" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2168" t="s">
+        <v>6948</v>
+      </c>
+      <c r="AH2168" t="s">
+        <v>7515</v>
+      </c>
+      <c r="AI2168" t="s">
+        <v>7516</v>
+      </c>
+      <c r="AJ2168" t="s">
+        <v>7517</v>
+      </c>
+      <c r="AK2168" t="s">
+        <v>7067</v>
+      </c>
+      <c r="AL2168" t="s">
+        <v>7518</v>
+      </c>
+      <c r="AM2168" t="s">
+        <v>7519</v>
+      </c>
+      <c r="AN2168">
+        <v>888</v>
+      </c>
+      <c r="AP2168" t="s">
+        <v>7520</v>
+      </c>
+      <c r="AQ2168" t="s">
+        <v>7521</v>
+      </c>
+      <c r="AR2168" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2168" t="s">
+        <v>7522</v>
+      </c>
+      <c r="AT2168" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2168" t="s">
+        <v>7523</v>
+      </c>
+      <c r="AV2168" t="s">
+        <v>7524</v>
+      </c>
+      <c r="AW2168" t="s">
+        <v>7525</v>
+      </c>
+      <c r="AX2168" t="s">
+        <v>6964</v>
+      </c>
+      <c r="AY2168" t="s">
+        <v>7526</v>
+      </c>
+      <c r="AZ2168">
+        <v>999</v>
+      </c>
+      <c r="BA2168">
+        <v>999</v>
+      </c>
+      <c r="BB2168" t="s">
+        <v>7527</v>
+      </c>
+      <c r="BC2168" t="s">
+        <v>7415</v>
+      </c>
+      <c r="BD2168" t="s">
+        <v>6970</v>
       </c>
     </row>
     <row r="2169" spans="2:56" x14ac:dyDescent="0.2">
@@ -86016,11 +86864,14 @@
         <v>999</v>
       </c>
       <c r="V2169" t="s">
-        <v>7348</v>
+        <v>7347</v>
       </c>
       <c r="W2169" t="s">
         <v>6939</v>
       </c>
+      <c r="X2169" s="9">
+        <v>999</v>
+      </c>
       <c r="Y2169" t="s">
         <v>6940</v>
       </c>
@@ -86119,6 +86970,12 @@
       </c>
     </row>
     <row r="2170" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2170" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2170" t="s">
         <v>3835</v>
       </c>
@@ -86140,8 +86997,140 @@
       <c r="J2170">
         <v>48.901440000000001</v>
       </c>
+      <c r="K2170" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2170">
+        <v>24.4</v>
+      </c>
+      <c r="M2170">
+        <v>48.5</v>
+      </c>
+      <c r="N2170" t="s">
+        <v>7530</v>
+      </c>
       <c r="O2170" t="s">
         <v>3843</v>
+      </c>
+      <c r="P2170">
+        <v>999</v>
+      </c>
+      <c r="Q2170" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2170" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2170" t="s">
+        <v>7543</v>
+      </c>
+      <c r="T2170" t="s">
+        <v>7544</v>
+      </c>
+      <c r="U2170">
+        <v>999</v>
+      </c>
+      <c r="V2170">
+        <v>999</v>
+      </c>
+      <c r="W2170" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2170" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2170" t="s">
+        <v>7001</v>
+      </c>
+      <c r="Z2170" t="s">
+        <v>7531</v>
+      </c>
+      <c r="AA2170" t="s">
+        <v>7459</v>
+      </c>
+      <c r="AB2170" t="s">
+        <v>7004</v>
+      </c>
+      <c r="AC2170" t="s">
+        <v>7384</v>
+      </c>
+      <c r="AD2170" t="s">
+        <v>7532</v>
+      </c>
+      <c r="AE2170" t="s">
+        <v>7533</v>
+      </c>
+      <c r="AF2170" t="s">
+        <v>7008</v>
+      </c>
+      <c r="AG2170" t="s">
+        <v>7534</v>
+      </c>
+      <c r="AH2170" t="s">
+        <v>7286</v>
+      </c>
+      <c r="AI2170" t="s">
+        <v>7535</v>
+      </c>
+      <c r="AJ2170" t="s">
+        <v>7536</v>
+      </c>
+      <c r="AK2170" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2170" t="s">
+        <v>7537</v>
+      </c>
+      <c r="AM2170" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2170" t="s">
+        <v>7538</v>
+      </c>
+      <c r="AP2170" t="s">
+        <v>6890</v>
+      </c>
+      <c r="AQ2170" t="s">
+        <v>7486</v>
+      </c>
+      <c r="AR2170" t="s">
+        <v>6988</v>
+      </c>
+      <c r="AS2170" t="s">
+        <v>7539</v>
+      </c>
+      <c r="AT2170" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2170" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2170" t="s">
+        <v>7540</v>
+      </c>
+      <c r="AW2170" t="s">
+        <v>7541</v>
+      </c>
+      <c r="AX2170" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2170">
+        <v>999</v>
+      </c>
+      <c r="AZ2170" t="s">
+        <v>6965</v>
+      </c>
+      <c r="BA2170" t="s">
+        <v>7542</v>
+      </c>
+      <c r="BB2170" t="s">
+        <v>6995</v>
+      </c>
+      <c r="BC2170" t="s">
+        <v>7275</v>
+      </c>
+      <c r="BD2170" t="s">
+        <v>7436</v>
       </c>
     </row>
     <row r="2171" spans="2:56" x14ac:dyDescent="0.2">
@@ -86208,6 +87197,9 @@
       <c r="W2171">
         <v>999</v>
       </c>
+      <c r="X2171" s="9">
+        <v>999</v>
+      </c>
       <c r="Y2171" t="s">
         <v>6973</v>
       </c>
@@ -86306,6 +87298,12 @@
       </c>
     </row>
     <row r="2172" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2172" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2172" t="s">
         <v>3835</v>
       </c>
@@ -86327,8 +87325,140 @@
       <c r="J2172">
         <v>48.8596</v>
       </c>
+      <c r="K2172" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2172">
+        <v>24.4</v>
+      </c>
+      <c r="M2172">
+        <v>48.5</v>
+      </c>
+      <c r="N2172" t="s">
+        <v>7545</v>
+      </c>
       <c r="O2172" t="s">
         <v>3849</v>
+      </c>
+      <c r="P2172">
+        <v>999</v>
+      </c>
+      <c r="Q2172" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2172" t="s">
+        <v>7563</v>
+      </c>
+      <c r="S2172" t="s">
+        <v>7564</v>
+      </c>
+      <c r="T2172" t="s">
+        <v>4832</v>
+      </c>
+      <c r="U2172">
+        <v>999</v>
+      </c>
+      <c r="V2172">
+        <v>999</v>
+      </c>
+      <c r="W2172" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2172" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2172" t="s">
+        <v>7548</v>
+      </c>
+      <c r="Z2172" t="s">
+        <v>7549</v>
+      </c>
+      <c r="AA2172" t="s">
+        <v>7440</v>
+      </c>
+      <c r="AB2172" t="s">
+        <v>7546</v>
+      </c>
+      <c r="AC2172" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2172" t="s">
+        <v>7547</v>
+      </c>
+      <c r="AE2172" t="s">
+        <v>7550</v>
+      </c>
+      <c r="AF2172" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2172" t="s">
+        <v>6883</v>
+      </c>
+      <c r="AH2172" t="s">
+        <v>7551</v>
+      </c>
+      <c r="AI2172" t="s">
+        <v>7552</v>
+      </c>
+      <c r="AJ2172" t="s">
+        <v>7553</v>
+      </c>
+      <c r="AK2172" t="s">
+        <v>7465</v>
+      </c>
+      <c r="AL2172" t="s">
+        <v>7554</v>
+      </c>
+      <c r="AM2172" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2172" t="s">
+        <v>7555</v>
+      </c>
+      <c r="AP2172" t="s">
+        <v>7556</v>
+      </c>
+      <c r="AQ2172" t="s">
+        <v>7486</v>
+      </c>
+      <c r="AR2172" t="s">
+        <v>7557</v>
+      </c>
+      <c r="AS2172" t="s">
+        <v>7558</v>
+      </c>
+      <c r="AT2172" t="s">
+        <v>7394</v>
+      </c>
+      <c r="AU2172" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2172" t="s">
+        <v>7559</v>
+      </c>
+      <c r="AW2172" t="s">
+        <v>7560</v>
+      </c>
+      <c r="AX2172" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2172">
+        <v>999</v>
+      </c>
+      <c r="AZ2172" t="s">
+        <v>7450</v>
+      </c>
+      <c r="BA2172" t="s">
+        <v>7119</v>
+      </c>
+      <c r="BB2172" t="s">
+        <v>7561</v>
+      </c>
+      <c r="BC2172" t="s">
+        <v>7562</v>
+      </c>
+      <c r="BD2172" t="s">
+        <v>6930</v>
       </c>
     </row>
     <row r="2173" spans="2:56" x14ac:dyDescent="0.2">
@@ -86396,7 +87526,10 @@
         <v>999</v>
       </c>
       <c r="W2173" t="s">
-        <v>7349</v>
+        <v>7348</v>
+      </c>
+      <c r="X2173" s="9">
+        <v>999</v>
       </c>
       <c r="Y2173" t="s">
         <v>7001</v>
@@ -86492,7 +87625,7 @@
         <v>6996</v>
       </c>
       <c r="BD2173" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="2174" spans="2:56" x14ac:dyDescent="0.2">
@@ -86563,10 +87696,10 @@
         <v>6939</v>
       </c>
       <c r="X2174" s="9" t="s">
+        <v>7363</v>
+      </c>
+      <c r="Y2174" t="s">
         <v>7029</v>
-      </c>
-      <c r="Y2174" t="s">
-        <v>7030</v>
       </c>
       <c r="Z2174" t="s">
         <v>6941</v>
@@ -86575,49 +87708,49 @@
         <v>6942</v>
       </c>
       <c r="AB2174" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2174" t="s">
         <v>7031</v>
       </c>
-      <c r="AC2174" t="s">
+      <c r="AD2174" t="s">
         <v>7032</v>
       </c>
-      <c r="AD2174" t="s">
+      <c r="AE2174" t="s">
         <v>7033</v>
       </c>
-      <c r="AE2174" t="s">
+      <c r="AF2174" t="s">
         <v>7034</v>
-      </c>
-      <c r="AF2174" t="s">
-        <v>7035</v>
       </c>
       <c r="AG2174" t="s">
         <v>6948</v>
       </c>
       <c r="AH2174" t="s">
+        <v>7035</v>
+      </c>
+      <c r="AI2174" t="s">
         <v>7036</v>
       </c>
-      <c r="AI2174" t="s">
+      <c r="AJ2174" t="s">
         <v>7037</v>
       </c>
-      <c r="AJ2174" t="s">
+      <c r="AK2174" t="s">
         <v>7038</v>
       </c>
-      <c r="AK2174" t="s">
+      <c r="AL2174" t="s">
         <v>7039</v>
       </c>
-      <c r="AL2174" t="s">
+      <c r="AM2174" t="s">
         <v>7040</v>
       </c>
-      <c r="AM2174" t="s">
+      <c r="AN2174" t="s">
         <v>7041</v>
       </c>
-      <c r="AN2174" t="s">
+      <c r="AO2174" t="s">
         <v>7042</v>
       </c>
-      <c r="AO2174" t="s">
+      <c r="AP2174" t="s">
         <v>7043</v>
-      </c>
-      <c r="AP2174" t="s">
-        <v>7044</v>
       </c>
       <c r="AQ2174" t="s">
         <v>6957</v>
@@ -86626,7 +87759,7 @@
         <v>6958</v>
       </c>
       <c r="AS2174" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
       <c r="AT2174" t="s">
         <v>6921</v>
@@ -86635,16 +87768,16 @@
         <v>6961</v>
       </c>
       <c r="AV2174" t="s">
+        <v>7045</v>
+      </c>
+      <c r="AW2174" t="s">
         <v>7046</v>
       </c>
-      <c r="AW2174" t="s">
+      <c r="AX2174" t="s">
         <v>7047</v>
       </c>
-      <c r="AX2174" t="s">
+      <c r="AY2174" t="s">
         <v>7048</v>
-      </c>
-      <c r="AY2174" t="s">
-        <v>7049</v>
       </c>
       <c r="AZ2174">
         <v>999</v>
@@ -86653,16 +87786,22 @@
         <v>999</v>
       </c>
       <c r="BB2174" t="s">
+        <v>7049</v>
+      </c>
+      <c r="BC2174" t="s">
         <v>7050</v>
       </c>
-      <c r="BC2174" t="s">
+      <c r="BD2174" t="s">
         <v>7051</v>
       </c>
-      <c r="BD2174" t="s">
-        <v>7052</v>
-      </c>
     </row>
     <row r="2175" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2175" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2175" t="s">
         <v>3835</v>
       </c>
@@ -86684,11 +87823,152 @@
       <c r="J2175">
         <v>48.854880000000001</v>
       </c>
+      <c r="K2175" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2175">
+        <v>24.4</v>
+      </c>
+      <c r="M2175">
+        <v>48.5</v>
+      </c>
+      <c r="N2175" t="s">
+        <v>7362</v>
+      </c>
       <c r="O2175" t="s">
         <v>3858</v>
       </c>
+      <c r="P2175">
+        <v>999</v>
+      </c>
+      <c r="Q2175" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2175" t="s">
+        <v>7378</v>
+      </c>
+      <c r="S2175" t="s">
+        <v>7380</v>
+      </c>
+      <c r="T2175" t="s">
+        <v>7381</v>
+      </c>
+      <c r="U2175">
+        <v>999</v>
+      </c>
+      <c r="V2175">
+        <v>999</v>
+      </c>
+      <c r="W2175" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2175" s="9" t="s">
+        <v>7379</v>
+      </c>
+      <c r="Y2175" t="s">
+        <v>7029</v>
+      </c>
+      <c r="Z2175" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2175" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2175" t="s">
+        <v>7364</v>
+      </c>
+      <c r="AC2175" t="s">
+        <v>7365</v>
+      </c>
+      <c r="AD2175" t="s">
+        <v>7366</v>
+      </c>
+      <c r="AE2175" t="s">
+        <v>6946</v>
+      </c>
+      <c r="AF2175" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2175" t="s">
+        <v>7367</v>
+      </c>
+      <c r="AH2175" t="s">
+        <v>7010</v>
+      </c>
+      <c r="AI2175" t="s">
+        <v>7368</v>
+      </c>
+      <c r="AJ2175" t="s">
+        <v>7369</v>
+      </c>
+      <c r="AK2175" t="s">
+        <v>7038</v>
+      </c>
+      <c r="AL2175" t="s">
+        <v>7370</v>
+      </c>
+      <c r="AM2175" t="s">
+        <v>7371</v>
+      </c>
+      <c r="AN2175" t="s">
+        <v>7372</v>
+      </c>
+      <c r="AO2175" t="s">
+        <v>7373</v>
+      </c>
+      <c r="AP2175" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2175" t="s">
+        <v>7374</v>
+      </c>
+      <c r="AR2175" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2175" t="s">
+        <v>6959</v>
+      </c>
+      <c r="AT2175" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2175" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2175" t="s">
+        <v>7375</v>
+      </c>
+      <c r="AW2175" t="s">
+        <v>7376</v>
+      </c>
+      <c r="AX2175" t="s">
+        <v>7297</v>
+      </c>
+      <c r="AY2175" t="s">
+        <v>6965</v>
+      </c>
+      <c r="AZ2175">
+        <v>999</v>
+      </c>
+      <c r="BA2175">
+        <v>999</v>
+      </c>
+      <c r="BB2175" t="s">
+        <v>7377</v>
+      </c>
+      <c r="BC2175" t="s">
+        <v>6996</v>
+      </c>
+      <c r="BD2175" t="s">
+        <v>6970</v>
+      </c>
     </row>
     <row r="2176" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2176" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2176" t="s">
         <v>3835</v>
       </c>
@@ -86710,11 +87990,149 @@
       <c r="J2176">
         <v>48.837009999999999</v>
       </c>
+      <c r="K2176" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2176">
+        <v>24.4</v>
+      </c>
+      <c r="M2176">
+        <v>48.5</v>
+      </c>
+      <c r="N2176" t="s">
+        <v>7382</v>
+      </c>
       <c r="O2176" t="s">
         <v>3861</v>
       </c>
-    </row>
-    <row r="2177" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2176">
+        <v>999</v>
+      </c>
+      <c r="Q2176" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2176" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2176" t="s">
+        <v>7399</v>
+      </c>
+      <c r="T2176" t="s">
+        <v>7400</v>
+      </c>
+      <c r="U2176" t="s">
+        <v>4352</v>
+      </c>
+      <c r="V2176">
+        <v>999</v>
+      </c>
+      <c r="W2176" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2176" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2176" t="s">
+        <v>7001</v>
+      </c>
+      <c r="Z2176" t="s">
+        <v>6974</v>
+      </c>
+      <c r="AA2176" t="s">
+        <v>7383</v>
+      </c>
+      <c r="AB2176" t="s">
+        <v>7004</v>
+      </c>
+      <c r="AC2176" t="s">
+        <v>7384</v>
+      </c>
+      <c r="AD2176" t="s">
+        <v>7385</v>
+      </c>
+      <c r="AE2176" t="s">
+        <v>7386</v>
+      </c>
+      <c r="AF2176" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2176" t="s">
+        <v>6978</v>
+      </c>
+      <c r="AH2176" t="s">
+        <v>7387</v>
+      </c>
+      <c r="AI2176" t="s">
+        <v>7388</v>
+      </c>
+      <c r="AJ2176" t="s">
+        <v>7389</v>
+      </c>
+      <c r="AK2176" t="s">
+        <v>7390</v>
+      </c>
+      <c r="AL2176" t="s">
+        <v>7310</v>
+      </c>
+      <c r="AM2176" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2176" t="s">
+        <v>7391</v>
+      </c>
+      <c r="AP2176" t="s">
+        <v>7392</v>
+      </c>
+      <c r="AQ2176" t="s">
+        <v>6987</v>
+      </c>
+      <c r="AR2176" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2176" t="s">
+        <v>7393</v>
+      </c>
+      <c r="AT2176" t="s">
+        <v>7394</v>
+      </c>
+      <c r="AU2176" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2176" t="s">
+        <v>7395</v>
+      </c>
+      <c r="AW2176" t="s">
+        <v>7396</v>
+      </c>
+      <c r="AX2176" t="s">
+        <v>7207</v>
+      </c>
+      <c r="AY2176" t="s">
+        <v>7397</v>
+      </c>
+      <c r="AZ2176">
+        <v>999</v>
+      </c>
+      <c r="BA2176">
+        <v>999</v>
+      </c>
+      <c r="BB2176" t="s">
+        <v>7398</v>
+      </c>
+      <c r="BC2176" t="s">
+        <v>6969</v>
+      </c>
+      <c r="BD2176" t="s">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="2177" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2177" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2177" t="s">
         <v>3835</v>
       </c>
@@ -86736,11 +88154,149 @@
       <c r="J2177">
         <v>48.837420000000002</v>
       </c>
+      <c r="K2177" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2177">
+        <v>24.4</v>
+      </c>
+      <c r="M2177">
+        <v>48.5</v>
+      </c>
+      <c r="N2177" t="s">
+        <v>7401</v>
+      </c>
       <c r="O2177" t="s">
         <v>3864</v>
       </c>
-    </row>
-    <row r="2178" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2177">
+        <v>999</v>
+      </c>
+      <c r="Q2177" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2177">
+        <v>999</v>
+      </c>
+      <c r="S2177">
+        <v>999</v>
+      </c>
+      <c r="T2177">
+        <v>999</v>
+      </c>
+      <c r="U2177">
+        <v>999</v>
+      </c>
+      <c r="V2177">
+        <v>999</v>
+      </c>
+      <c r="W2177">
+        <v>999</v>
+      </c>
+      <c r="X2177" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2177" t="s">
+        <v>7402</v>
+      </c>
+      <c r="Z2177" t="s">
+        <v>7214</v>
+      </c>
+      <c r="AA2177" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2177" t="s">
+        <v>7403</v>
+      </c>
+      <c r="AC2177" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2177" t="s">
+        <v>7404</v>
+      </c>
+      <c r="AE2177" t="s">
+        <v>7405</v>
+      </c>
+      <c r="AF2177" t="s">
+        <v>7406</v>
+      </c>
+      <c r="AG2177" t="s">
+        <v>6948</v>
+      </c>
+      <c r="AH2177" t="s">
+        <v>7286</v>
+      </c>
+      <c r="AI2177" t="s">
+        <v>7407</v>
+      </c>
+      <c r="AJ2177" t="s">
+        <v>7408</v>
+      </c>
+      <c r="AK2177" t="s">
+        <v>7038</v>
+      </c>
+      <c r="AL2177" t="s">
+        <v>7409</v>
+      </c>
+      <c r="AM2177" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2177" t="s">
+        <v>7410</v>
+      </c>
+      <c r="AP2177" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2177" t="s">
+        <v>7374</v>
+      </c>
+      <c r="AR2177" t="s">
+        <v>7269</v>
+      </c>
+      <c r="AS2177" t="s">
+        <v>7411</v>
+      </c>
+      <c r="AT2177" t="s">
+        <v>6960</v>
+      </c>
+      <c r="AU2177" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2177" t="s">
+        <v>7412</v>
+      </c>
+      <c r="AW2177" t="s">
+        <v>7413</v>
+      </c>
+      <c r="AX2177" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2177" t="s">
+        <v>6965</v>
+      </c>
+      <c r="AZ2177">
+        <v>999</v>
+      </c>
+      <c r="BA2177">
+        <v>999</v>
+      </c>
+      <c r="BB2177" t="s">
+        <v>7414</v>
+      </c>
+      <c r="BC2177" t="s">
+        <v>7415</v>
+      </c>
+      <c r="BD2177" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="2178" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2178" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2178" t="s">
         <v>3835</v>
       </c>
@@ -86762,11 +88318,149 @@
       <c r="J2178">
         <v>48.870899999999999</v>
       </c>
+      <c r="K2178" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2178">
+        <v>24.4</v>
+      </c>
+      <c r="M2178">
+        <v>48.5</v>
+      </c>
+      <c r="N2178" t="s">
+        <v>7416</v>
+      </c>
       <c r="O2178" t="s">
         <v>3867</v>
       </c>
-    </row>
-    <row r="2179" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2178">
+        <v>999</v>
+      </c>
+      <c r="Q2178" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2178" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2178" t="s">
+        <v>7437</v>
+      </c>
+      <c r="T2178" t="s">
+        <v>835</v>
+      </c>
+      <c r="U2178">
+        <v>999</v>
+      </c>
+      <c r="V2178">
+        <v>999</v>
+      </c>
+      <c r="W2178" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2178" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2178" t="s">
+        <v>7029</v>
+      </c>
+      <c r="Z2178" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2178" t="s">
+        <v>7417</v>
+      </c>
+      <c r="AB2178" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2178" t="s">
+        <v>7418</v>
+      </c>
+      <c r="AD2178" t="s">
+        <v>7419</v>
+      </c>
+      <c r="AE2178" t="s">
+        <v>7420</v>
+      </c>
+      <c r="AF2178" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2178" t="s">
+        <v>7421</v>
+      </c>
+      <c r="AH2178" t="s">
+        <v>7422</v>
+      </c>
+      <c r="AI2178" t="s">
+        <v>7423</v>
+      </c>
+      <c r="AJ2178" t="s">
+        <v>7424</v>
+      </c>
+      <c r="AK2178" t="s">
+        <v>7425</v>
+      </c>
+      <c r="AL2178" t="s">
+        <v>7222</v>
+      </c>
+      <c r="AM2178" t="s">
+        <v>7426</v>
+      </c>
+      <c r="AN2178" t="s">
+        <v>7427</v>
+      </c>
+      <c r="AP2178" t="s">
+        <v>7428</v>
+      </c>
+      <c r="AQ2178" t="s">
+        <v>7429</v>
+      </c>
+      <c r="AR2178" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2178" t="s">
+        <v>6959</v>
+      </c>
+      <c r="AT2178" t="s">
+        <v>7430</v>
+      </c>
+      <c r="AU2178" t="s">
+        <v>7431</v>
+      </c>
+      <c r="AV2178" t="s">
+        <v>7432</v>
+      </c>
+      <c r="AW2178" t="s">
+        <v>6963</v>
+      </c>
+      <c r="AX2178" t="s">
+        <v>7433</v>
+      </c>
+      <c r="AY2178">
+        <v>999</v>
+      </c>
+      <c r="AZ2178" t="s">
+        <v>7583</v>
+      </c>
+      <c r="BA2178" t="s">
+        <v>7582</v>
+      </c>
+      <c r="BB2178" t="s">
+        <v>7434</v>
+      </c>
+      <c r="BC2178" t="s">
+        <v>7435</v>
+      </c>
+      <c r="BD2178" t="s">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="2179" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2179" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2179" t="s">
         <v>3835</v>
       </c>
@@ -86788,11 +88482,149 @@
       <c r="J2179">
         <v>48.900120000000001</v>
       </c>
+      <c r="K2179" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2179">
+        <v>24.5</v>
+      </c>
+      <c r="M2179">
+        <v>48.5</v>
+      </c>
+      <c r="N2179" t="s">
+        <v>7438</v>
+      </c>
       <c r="O2179" t="s">
         <v>3870</v>
       </c>
-    </row>
-    <row r="2180" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2179">
+        <v>999</v>
+      </c>
+      <c r="Q2179" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2179" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2179" t="s">
+        <v>7453</v>
+      </c>
+      <c r="T2179" t="s">
+        <v>7454</v>
+      </c>
+      <c r="U2179">
+        <v>999</v>
+      </c>
+      <c r="V2179">
+        <v>999</v>
+      </c>
+      <c r="W2179" t="s">
+        <v>7107</v>
+      </c>
+      <c r="X2179" s="9" t="s">
+        <v>7455</v>
+      </c>
+      <c r="Y2179" t="s">
+        <v>7439</v>
+      </c>
+      <c r="Z2179" t="s">
+        <v>6878</v>
+      </c>
+      <c r="AA2179" t="s">
+        <v>7440</v>
+      </c>
+      <c r="AB2179" t="s">
+        <v>6879</v>
+      </c>
+      <c r="AC2179" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2179" t="s">
+        <v>7088</v>
+      </c>
+      <c r="AE2179" t="s">
+        <v>7441</v>
+      </c>
+      <c r="AF2179" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2179" t="s">
+        <v>7442</v>
+      </c>
+      <c r="AH2179" t="s">
+        <v>6884</v>
+      </c>
+      <c r="AI2179" t="s">
+        <v>7092</v>
+      </c>
+      <c r="AJ2179" t="s">
+        <v>6981</v>
+      </c>
+      <c r="AK2179" t="s">
+        <v>7443</v>
+      </c>
+      <c r="AL2179" t="s">
+        <v>7444</v>
+      </c>
+      <c r="AM2179" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2179" t="s">
+        <v>7445</v>
+      </c>
+      <c r="AP2179" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2179" t="s">
+        <v>7446</v>
+      </c>
+      <c r="AR2179" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2179" t="s">
+        <v>6959</v>
+      </c>
+      <c r="AT2179" t="s">
+        <v>6990</v>
+      </c>
+      <c r="AU2179" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2179" t="s">
+        <v>7447</v>
+      </c>
+      <c r="AW2179" t="s">
+        <v>7449</v>
+      </c>
+      <c r="AX2179" t="s">
+        <v>7448</v>
+      </c>
+      <c r="AY2179" t="s">
+        <v>7450</v>
+      </c>
+      <c r="AZ2179">
+        <v>999</v>
+      </c>
+      <c r="BA2179">
+        <v>999</v>
+      </c>
+      <c r="BB2179" t="s">
+        <v>7451</v>
+      </c>
+      <c r="BC2179" t="s">
+        <v>7452</v>
+      </c>
+      <c r="BD2179" t="s">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="2180" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2180" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2180" t="s">
         <v>3835</v>
       </c>
@@ -86814,11 +88646,149 @@
       <c r="J2180">
         <v>48.904629999999997</v>
       </c>
+      <c r="K2180" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2180">
+        <v>24.5</v>
+      </c>
+      <c r="M2180">
+        <v>48.5</v>
+      </c>
+      <c r="N2180" t="s">
+        <v>7456</v>
+      </c>
       <c r="O2180" t="s">
         <v>3873</v>
       </c>
-    </row>
-    <row r="2181" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2180">
+        <v>999</v>
+      </c>
+      <c r="Q2180" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2180" t="s">
+        <v>6836</v>
+      </c>
+      <c r="S2180" t="s">
+        <v>7476</v>
+      </c>
+      <c r="T2180" t="s">
+        <v>7477</v>
+      </c>
+      <c r="U2180">
+        <v>999</v>
+      </c>
+      <c r="V2180">
+        <v>999</v>
+      </c>
+      <c r="W2180" t="s">
+        <v>7107</v>
+      </c>
+      <c r="X2180" s="9" t="s">
+        <v>7478</v>
+      </c>
+      <c r="Y2180" t="s">
+        <v>7457</v>
+      </c>
+      <c r="Z2180" t="s">
+        <v>7458</v>
+      </c>
+      <c r="AA2180" t="s">
+        <v>7475</v>
+      </c>
+      <c r="AB2180" t="s">
+        <v>7004</v>
+      </c>
+      <c r="AC2180" t="s">
+        <v>7460</v>
+      </c>
+      <c r="AD2180" t="s">
+        <v>7461</v>
+      </c>
+      <c r="AE2180" t="s">
+        <v>7331</v>
+      </c>
+      <c r="AF2180" t="s">
+        <v>7474</v>
+      </c>
+      <c r="AG2180" t="s">
+        <v>7462</v>
+      </c>
+      <c r="AH2180" t="s">
+        <v>6979</v>
+      </c>
+      <c r="AI2180" t="s">
+        <v>7463</v>
+      </c>
+      <c r="AJ2180" t="s">
+        <v>7464</v>
+      </c>
+      <c r="AK2180" t="s">
+        <v>7469</v>
+      </c>
+      <c r="AL2180" t="s">
+        <v>7466</v>
+      </c>
+      <c r="AM2180" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2180" t="s">
+        <v>7391</v>
+      </c>
+      <c r="AP2180" t="s">
+        <v>7467</v>
+      </c>
+      <c r="AQ2180" t="s">
+        <v>7468</v>
+      </c>
+      <c r="AR2180" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2180" t="s">
+        <v>7470</v>
+      </c>
+      <c r="AT2180" t="s">
+        <v>6960</v>
+      </c>
+      <c r="AU2180" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2180" t="s">
+        <v>7471</v>
+      </c>
+      <c r="AW2180" t="s">
+        <v>7472</v>
+      </c>
+      <c r="AX2180" t="s">
+        <v>7448</v>
+      </c>
+      <c r="AY2180" t="s">
+        <v>7024</v>
+      </c>
+      <c r="AZ2180">
+        <v>999</v>
+      </c>
+      <c r="BA2180">
+        <v>999</v>
+      </c>
+      <c r="BB2180" t="s">
+        <v>7473</v>
+      </c>
+      <c r="BC2180" t="s">
+        <v>6996</v>
+      </c>
+      <c r="BD2180" t="s">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="2181" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2181" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2181" t="s">
         <v>3835</v>
       </c>
@@ -86840,11 +88810,149 @@
       <c r="J2181">
         <v>48.904829999999997</v>
       </c>
+      <c r="K2181" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2181">
+        <v>24.5</v>
+      </c>
+      <c r="M2181">
+        <v>48.5</v>
+      </c>
+      <c r="N2181" t="s">
+        <v>7479</v>
+      </c>
       <c r="O2181" t="s">
         <v>3876</v>
       </c>
-    </row>
-    <row r="2182" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2181">
+        <v>999</v>
+      </c>
+      <c r="Q2181" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2181" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2181" t="s">
+        <v>7487</v>
+      </c>
+      <c r="T2181" t="s">
+        <v>4720</v>
+      </c>
+      <c r="U2181">
+        <v>999</v>
+      </c>
+      <c r="V2181">
+        <v>999</v>
+      </c>
+      <c r="W2181" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2181" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2181" t="s">
+        <v>7480</v>
+      </c>
+      <c r="Z2181" t="s">
+        <v>7175</v>
+      </c>
+      <c r="AA2181" t="s">
+        <v>7440</v>
+      </c>
+      <c r="AB2181" t="s">
+        <v>7481</v>
+      </c>
+      <c r="AC2181" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2181" t="s">
+        <v>6881</v>
+      </c>
+      <c r="AE2181" t="s">
+        <v>7482</v>
+      </c>
+      <c r="AF2181" t="s">
+        <v>7483</v>
+      </c>
+      <c r="AG2181" t="s">
+        <v>6978</v>
+      </c>
+      <c r="AH2181" t="s">
+        <v>7484</v>
+      </c>
+      <c r="AI2181" t="s">
+        <v>7196</v>
+      </c>
+      <c r="AJ2181" t="s">
+        <v>6981</v>
+      </c>
+      <c r="AK2181" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2181" t="s">
+        <v>7310</v>
+      </c>
+      <c r="AM2181" t="s">
+        <v>7485</v>
+      </c>
+      <c r="AN2181" t="s">
+        <v>7201</v>
+      </c>
+      <c r="AP2181" t="s">
+        <v>6890</v>
+      </c>
+      <c r="AQ2181" t="s">
+        <v>7486</v>
+      </c>
+      <c r="AR2181" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2181" t="s">
+        <v>6989</v>
+      </c>
+      <c r="AT2181" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2181" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2181" t="s">
+        <v>6894</v>
+      </c>
+      <c r="AW2181" t="s">
+        <v>7135</v>
+      </c>
+      <c r="AX2181" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2181" t="s">
+        <v>7024</v>
+      </c>
+      <c r="AZ2181">
+        <v>999</v>
+      </c>
+      <c r="BA2181">
+        <v>999</v>
+      </c>
+      <c r="BB2181" t="s">
+        <v>7322</v>
+      </c>
+      <c r="BC2181" t="s">
+        <v>6996</v>
+      </c>
+      <c r="BD2181" t="s">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="2182" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2182" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2182" t="s">
         <v>3835</v>
       </c>
@@ -86866,11 +88974,149 @@
       <c r="J2182">
         <v>48.907539999999997</v>
       </c>
+      <c r="K2182" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2182">
+        <v>24.5</v>
+      </c>
+      <c r="M2182">
+        <v>48.5</v>
+      </c>
+      <c r="N2182" t="s">
+        <v>7488</v>
+      </c>
       <c r="O2182" t="s">
         <v>3879</v>
       </c>
-    </row>
-    <row r="2183" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2182">
+        <v>999</v>
+      </c>
+      <c r="Q2182" t="s">
+        <v>6998</v>
+      </c>
+      <c r="R2182" t="s">
+        <v>6836</v>
+      </c>
+      <c r="S2182" t="s">
+        <v>7504</v>
+      </c>
+      <c r="T2182" t="s">
+        <v>7505</v>
+      </c>
+      <c r="U2182" t="s">
+        <v>4352</v>
+      </c>
+      <c r="V2182">
+        <v>999</v>
+      </c>
+      <c r="W2182" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2182" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2182" t="s">
+        <v>7489</v>
+      </c>
+      <c r="Z2182" t="s">
+        <v>7490</v>
+      </c>
+      <c r="AA2182" t="s">
+        <v>7491</v>
+      </c>
+      <c r="AB2182" t="s">
+        <v>7492</v>
+      </c>
+      <c r="AC2182" t="s">
+        <v>7493</v>
+      </c>
+      <c r="AD2182" t="s">
+        <v>7385</v>
+      </c>
+      <c r="AE2182" t="s">
+        <v>7494</v>
+      </c>
+      <c r="AF2182" t="s">
+        <v>7495</v>
+      </c>
+      <c r="AG2182" t="s">
+        <v>6883</v>
+      </c>
+      <c r="AH2182" t="s">
+        <v>7496</v>
+      </c>
+      <c r="AI2182" t="s">
+        <v>7196</v>
+      </c>
+      <c r="AJ2182" t="s">
+        <v>7497</v>
+      </c>
+      <c r="AK2182" t="s">
+        <v>7498</v>
+      </c>
+      <c r="AL2182" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2182" t="s">
+        <v>7129</v>
+      </c>
+      <c r="AN2182" t="s">
+        <v>7391</v>
+      </c>
+      <c r="AP2182" t="s">
+        <v>6890</v>
+      </c>
+      <c r="AQ2182" t="s">
+        <v>7499</v>
+      </c>
+      <c r="AR2182" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2182" t="s">
+        <v>6989</v>
+      </c>
+      <c r="AT2182" t="s">
+        <v>6960</v>
+      </c>
+      <c r="AU2182" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2182" t="s">
+        <v>7186</v>
+      </c>
+      <c r="AW2182" t="s">
+        <v>7500</v>
+      </c>
+      <c r="AX2182" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2182" t="s">
+        <v>7024</v>
+      </c>
+      <c r="AZ2182">
+        <v>999</v>
+      </c>
+      <c r="BA2182">
+        <v>999</v>
+      </c>
+      <c r="BB2182" t="s">
+        <v>7501</v>
+      </c>
+      <c r="BC2182" t="s">
+        <v>7502</v>
+      </c>
+      <c r="BD2182" t="s">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="2183" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2183" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2183" t="s">
         <v>3835</v>
       </c>
@@ -86892,11 +89138,152 @@
       <c r="J2183">
         <v>48.907060000000001</v>
       </c>
+      <c r="K2183" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2183">
+        <v>24.5</v>
+      </c>
+      <c r="M2183">
+        <v>48.5</v>
+      </c>
+      <c r="N2183" t="s">
+        <v>7506</v>
+      </c>
       <c r="O2183" t="s">
         <v>3882</v>
       </c>
-    </row>
-    <row r="2184" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2183">
+        <v>999</v>
+      </c>
+      <c r="Q2183" t="s">
+        <v>6998</v>
+      </c>
+      <c r="R2183" t="s">
+        <v>6836</v>
+      </c>
+      <c r="S2183" t="s">
+        <v>7504</v>
+      </c>
+      <c r="T2183" t="s">
+        <v>7505</v>
+      </c>
+      <c r="U2183" t="s">
+        <v>4352</v>
+      </c>
+      <c r="V2183">
+        <v>999</v>
+      </c>
+      <c r="W2183" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2183" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2183" t="s">
+        <v>7489</v>
+      </c>
+      <c r="Z2183" t="s">
+        <v>7490</v>
+      </c>
+      <c r="AA2183" t="s">
+        <v>7491</v>
+      </c>
+      <c r="AB2183" t="s">
+        <v>7492</v>
+      </c>
+      <c r="AC2183" t="s">
+        <v>7493</v>
+      </c>
+      <c r="AD2183" t="s">
+        <v>7385</v>
+      </c>
+      <c r="AE2183" t="s">
+        <v>7494</v>
+      </c>
+      <c r="AF2183" t="s">
+        <v>7495</v>
+      </c>
+      <c r="AG2183" t="s">
+        <v>7507</v>
+      </c>
+      <c r="AH2183" t="s">
+        <v>7496</v>
+      </c>
+      <c r="AI2183" t="s">
+        <v>7196</v>
+      </c>
+      <c r="AJ2183" t="s">
+        <v>7508</v>
+      </c>
+      <c r="AK2183" t="s">
+        <v>7509</v>
+      </c>
+      <c r="AL2183" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2183" t="s">
+        <v>7510</v>
+      </c>
+      <c r="AN2183" t="s">
+        <v>7391</v>
+      </c>
+      <c r="AP2183" t="s">
+        <v>6890</v>
+      </c>
+      <c r="AQ2183" t="s">
+        <v>7499</v>
+      </c>
+      <c r="AR2183" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2183" t="s">
+        <v>6989</v>
+      </c>
+      <c r="AT2183" t="s">
+        <v>6960</v>
+      </c>
+      <c r="AU2183" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2183" t="s">
+        <v>7186</v>
+      </c>
+      <c r="AW2183" t="s">
+        <v>7500</v>
+      </c>
+      <c r="AX2183" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2183" t="s">
+        <v>7024</v>
+      </c>
+      <c r="AZ2183">
+        <v>999</v>
+      </c>
+      <c r="BA2183">
+        <v>999</v>
+      </c>
+      <c r="BB2183" t="s">
+        <v>7501</v>
+      </c>
+      <c r="BC2183" t="s">
+        <v>7502</v>
+      </c>
+      <c r="BD2183" t="s">
+        <v>7503</v>
+      </c>
+      <c r="BE2183" t="s">
+        <v>7585</v>
+      </c>
+    </row>
+    <row r="2184" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2184" s="4">
+        <v>44962</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2184" t="s">
         <v>3835</v>
       </c>
@@ -86918,11 +89305,143 @@
       <c r="J2184">
         <v>48.890090000000001</v>
       </c>
+      <c r="K2184" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2184">
+        <v>24.5</v>
+      </c>
+      <c r="M2184">
+        <v>48.5</v>
+      </c>
+      <c r="N2184" t="s">
+        <v>7565</v>
+      </c>
       <c r="O2184" t="s">
         <v>3885</v>
       </c>
-    </row>
-    <row r="2185" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2184">
+        <v>999</v>
+      </c>
+      <c r="Q2184" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2184" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2184" t="s">
+        <v>7586</v>
+      </c>
+      <c r="T2184" t="s">
+        <v>4832</v>
+      </c>
+      <c r="U2184">
+        <v>999</v>
+      </c>
+      <c r="V2184">
+        <v>999</v>
+      </c>
+      <c r="W2184" t="s">
+        <v>7587</v>
+      </c>
+      <c r="X2184" s="9" t="s">
+        <v>7588</v>
+      </c>
+      <c r="Y2184" t="s">
+        <v>7566</v>
+      </c>
+      <c r="Z2184" t="s">
+        <v>7214</v>
+      </c>
+      <c r="AA2184" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2184" t="s">
+        <v>7567</v>
+      </c>
+      <c r="AC2184" t="s">
+        <v>7329</v>
+      </c>
+      <c r="AD2184" t="s">
+        <v>7330</v>
+      </c>
+      <c r="AE2184" t="s">
+        <v>7568</v>
+      </c>
+      <c r="AF2184" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2184" t="s">
+        <v>7507</v>
+      </c>
+      <c r="AH2184" t="s">
+        <v>7569</v>
+      </c>
+      <c r="AI2184" t="s">
+        <v>7570</v>
+      </c>
+      <c r="AJ2184" t="s">
+        <v>7571</v>
+      </c>
+      <c r="AK2184" t="s">
+        <v>7038</v>
+      </c>
+      <c r="AL2184" t="s">
+        <v>7572</v>
+      </c>
+      <c r="AM2184" t="s">
+        <v>7573</v>
+      </c>
+      <c r="AN2184" t="s">
+        <v>7445</v>
+      </c>
+      <c r="AP2184" t="s">
+        <v>7574</v>
+      </c>
+      <c r="AQ2184" t="s">
+        <v>7575</v>
+      </c>
+      <c r="AR2184" t="s">
+        <v>7576</v>
+      </c>
+      <c r="AS2184" t="s">
+        <v>7577</v>
+      </c>
+      <c r="AT2184" t="s">
+        <v>7394</v>
+      </c>
+      <c r="AU2184" t="s">
+        <v>7523</v>
+      </c>
+      <c r="AV2184" t="s">
+        <v>7578</v>
+      </c>
+      <c r="AW2184" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2184" t="s">
+        <v>7579</v>
+      </c>
+      <c r="AY2184">
+        <v>999</v>
+      </c>
+      <c r="AZ2184" t="s">
+        <v>7580</v>
+      </c>
+      <c r="BA2184" t="s">
+        <v>7581</v>
+      </c>
+      <c r="BB2184" t="s">
+        <v>7584</v>
+      </c>
+      <c r="BC2184" t="s">
+        <v>7137</v>
+      </c>
+      <c r="BD2184" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="2185" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2185" t="s">
         <v>3835</v>
       </c>
@@ -86948,7 +89467,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="2186" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2186" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2186" t="s">
         <v>3835</v>
       </c>
@@ -86974,7 +89493,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="2187" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2187" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2187" t="s">
         <v>3835</v>
       </c>
@@ -87000,7 +89519,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="2188" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2188" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2188" t="s">
         <v>3835</v>
       </c>
@@ -87026,7 +89545,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="2189" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2189" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2189" t="s">
         <v>3835</v>
       </c>
@@ -87052,7 +89571,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="2190" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2190" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2190" t="s">
         <v>3835</v>
       </c>
@@ -87078,7 +89597,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="2191" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2191" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2191" t="s">
         <v>3835</v>
       </c>
@@ -87104,7 +89623,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="2192" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2192" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2192" t="s">
         <v>3835</v>
       </c>
@@ -87636,7 +90155,7 @@
         <v>48.5</v>
       </c>
       <c r="N2211" t="s">
-        <v>7053</v>
+        <v>7052</v>
       </c>
       <c r="O2211" t="s">
         <v>3960</v>
@@ -88820,7 +91339,7 @@
         <v>6918</v>
       </c>
       <c r="AQ2248" t="s">
-        <v>7361</v>
+        <v>7360</v>
       </c>
       <c r="AR2248" t="s">
         <v>6919</v>
@@ -89056,7 +91575,7 @@
         <v>850</v>
       </c>
       <c r="N2255" t="s">
-        <v>7054</v>
+        <v>7053</v>
       </c>
       <c r="O2255" t="s">
         <v>4084</v>
@@ -89071,10 +91590,10 @@
         <v>4825</v>
       </c>
       <c r="S2255" t="s">
+        <v>7054</v>
+      </c>
+      <c r="T2255" t="s">
         <v>7055</v>
-      </c>
-      <c r="T2255" t="s">
-        <v>7056</v>
       </c>
       <c r="U2255">
         <v>999</v>
@@ -89086,97 +91605,97 @@
         <v>6939</v>
       </c>
       <c r="Y2255" t="s">
+        <v>7056</v>
+      </c>
+      <c r="Z2255" t="s">
         <v>7057</v>
       </c>
-      <c r="Z2255" t="s">
+      <c r="AA2255" t="s">
         <v>7058</v>
       </c>
-      <c r="AA2255" t="s">
+      <c r="AB2255" t="s">
         <v>7059</v>
       </c>
-      <c r="AB2255" t="s">
+      <c r="AC2255" t="s">
         <v>7060</v>
       </c>
-      <c r="AC2255" t="s">
+      <c r="AD2255" t="s">
+        <v>7032</v>
+      </c>
+      <c r="AE2255" t="s">
         <v>7061</v>
       </c>
-      <c r="AD2255" t="s">
-        <v>7033</v>
-      </c>
-      <c r="AE2255" t="s">
+      <c r="AF2255" t="s">
         <v>7062</v>
       </c>
-      <c r="AF2255" t="s">
+      <c r="AG2255" t="s">
         <v>7063</v>
       </c>
-      <c r="AG2255" t="s">
+      <c r="AH2255" t="s">
         <v>7064</v>
       </c>
-      <c r="AH2255" t="s">
+      <c r="AI2255" t="s">
         <v>7065</v>
       </c>
-      <c r="AI2255" t="s">
+      <c r="AJ2255" t="s">
         <v>7066</v>
       </c>
-      <c r="AJ2255" t="s">
+      <c r="AK2255" t="s">
         <v>7067</v>
-      </c>
-      <c r="AK2255" t="s">
-        <v>7068</v>
       </c>
       <c r="AL2255" t="s">
         <v>6983</v>
       </c>
       <c r="AM2255" t="s">
+        <v>7068</v>
+      </c>
+      <c r="AN2255" t="s">
         <v>7069</v>
       </c>
-      <c r="AN2255" t="s">
+      <c r="AO2255" t="s">
         <v>7070</v>
-      </c>
-      <c r="AO2255" t="s">
-        <v>7071</v>
       </c>
       <c r="AP2255" t="s">
         <v>6918</v>
       </c>
       <c r="AQ2255" t="s">
+        <v>7071</v>
+      </c>
+      <c r="AR2255" t="s">
         <v>7072</v>
       </c>
-      <c r="AR2255" t="s">
+      <c r="AS2255" t="s">
         <v>7073</v>
       </c>
-      <c r="AS2255" t="s">
+      <c r="AT2255" t="s">
         <v>7074</v>
-      </c>
-      <c r="AT2255" t="s">
-        <v>7075</v>
       </c>
       <c r="AU2255" t="s">
         <v>6893</v>
       </c>
       <c r="AV2255" t="s">
+        <v>7075</v>
+      </c>
+      <c r="AW2255" t="s">
         <v>7076</v>
       </c>
-      <c r="AW2255" t="s">
+      <c r="AX2255" t="s">
         <v>7077</v>
-      </c>
-      <c r="AX2255" t="s">
-        <v>7078</v>
       </c>
       <c r="AY2255">
         <v>999</v>
       </c>
       <c r="AZ2255" t="s">
+        <v>7078</v>
+      </c>
+      <c r="BA2255" t="s">
         <v>7079</v>
       </c>
-      <c r="BA2255" t="s">
+      <c r="BB2255" t="s">
         <v>7080</v>
       </c>
-      <c r="BB2255" t="s">
+      <c r="BC2255" t="s">
         <v>7081</v>
-      </c>
-      <c r="BC2255" t="s">
-        <v>7082</v>
       </c>
       <c r="BD2255" t="s">
         <v>6970</v>
@@ -89313,7 +91832,7 @@
         <v>4833</v>
       </c>
       <c r="S2259" t="s">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="T2259" t="s">
         <v>4824</v>
@@ -89328,79 +91847,79 @@
         <v>6933</v>
       </c>
       <c r="Y2259" t="s">
+        <v>7083</v>
+      </c>
+      <c r="Z2259" t="s">
         <v>7084</v>
       </c>
-      <c r="Z2259" t="s">
+      <c r="AA2259" t="s">
         <v>7085</v>
       </c>
-      <c r="AA2259" t="s">
+      <c r="AB2259" t="s">
         <v>7086</v>
       </c>
-      <c r="AB2259" t="s">
+      <c r="AC2259" t="s">
         <v>7087</v>
       </c>
-      <c r="AC2259" t="s">
+      <c r="AD2259" t="s">
         <v>7088</v>
       </c>
-      <c r="AD2259" t="s">
+      <c r="AE2259" t="s">
         <v>7089</v>
-      </c>
-      <c r="AE2259" t="s">
-        <v>7090</v>
       </c>
       <c r="AF2259" t="s">
         <v>6882</v>
       </c>
       <c r="AG2259" t="s">
+        <v>7090</v>
+      </c>
+      <c r="AH2259" t="s">
         <v>7091</v>
       </c>
-      <c r="AH2259" t="s">
+      <c r="AI2259" t="s">
         <v>7092</v>
       </c>
-      <c r="AI2259" t="s">
+      <c r="AJ2259" t="s">
         <v>7093</v>
-      </c>
-      <c r="AJ2259" t="s">
-        <v>7094</v>
       </c>
       <c r="AK2259" t="s">
         <v>6982</v>
       </c>
       <c r="AL2259" t="s">
+        <v>7094</v>
+      </c>
+      <c r="AM2259" t="s">
         <v>7095</v>
       </c>
-      <c r="AM2259" t="s">
+      <c r="AN2259" t="s">
         <v>7096</v>
       </c>
-      <c r="AN2259" t="s">
+      <c r="AO2259" t="s">
         <v>7097</v>
-      </c>
-      <c r="AO2259" t="s">
-        <v>7098</v>
       </c>
       <c r="AP2259" t="s">
         <v>6918</v>
       </c>
       <c r="AQ2259" t="s">
+        <v>7098</v>
+      </c>
+      <c r="AR2259" t="s">
         <v>7099</v>
       </c>
-      <c r="AR2259" t="s">
+      <c r="AS2259" t="s">
         <v>7100</v>
-      </c>
-      <c r="AS2259" t="s">
-        <v>7101</v>
       </c>
       <c r="AT2259" t="s">
         <v>6960</v>
       </c>
       <c r="AU2259" t="s">
+        <v>7101</v>
+      </c>
+      <c r="AV2259" t="s">
         <v>7102</v>
       </c>
-      <c r="AV2259" t="s">
+      <c r="AW2259" t="s">
         <v>7103</v>
-      </c>
-      <c r="AW2259" t="s">
-        <v>7104</v>
       </c>
       <c r="AX2259" t="s">
         <v>6964</v>
@@ -89418,10 +91937,10 @@
         <v>6928</v>
       </c>
       <c r="BC2259" t="s">
+        <v>7104</v>
+      </c>
+      <c r="BD2259" t="s">
         <v>7105</v>
-      </c>
-      <c r="BD2259" t="s">
-        <v>7106</v>
       </c>
     </row>
     <row r="2260" spans="2:56" x14ac:dyDescent="0.2">
@@ -89644,7 +92163,7 @@
         <v>850</v>
       </c>
       <c r="N2267" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
       <c r="O2267" t="s">
         <v>4110</v>
@@ -89671,16 +92190,16 @@
         <v>999</v>
       </c>
       <c r="W2267" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="X2267" t="s">
-        <v>7359</v>
+        <v>7358</v>
       </c>
       <c r="Y2267">
         <v>999</v>
       </c>
       <c r="Z2267" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="AA2267">
         <v>999</v>
@@ -89692,7 +92211,7 @@
         <v>6880</v>
       </c>
       <c r="AD2267" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
       <c r="AE2267">
         <v>999</v>
@@ -89701,16 +92220,16 @@
         <v>6882</v>
       </c>
       <c r="AG2267" t="s">
+        <v>7109</v>
+      </c>
+      <c r="AH2267" t="s">
         <v>7110</v>
-      </c>
-      <c r="AH2267" t="s">
-        <v>7111</v>
       </c>
       <c r="AI2267">
         <v>999</v>
       </c>
       <c r="AJ2267" t="s">
-        <v>7112</v>
+        <v>7111</v>
       </c>
       <c r="AK2267">
         <v>999</v>
@@ -89719,37 +92238,37 @@
         <v>6886</v>
       </c>
       <c r="AM2267" t="s">
-        <v>7113</v>
+        <v>7112</v>
       </c>
       <c r="AN2267">
         <v>999</v>
       </c>
       <c r="AO2267" t="s">
+        <v>7113</v>
+      </c>
+      <c r="AP2267" t="s">
         <v>7114</v>
-      </c>
-      <c r="AP2267" t="s">
-        <v>7115</v>
       </c>
       <c r="AQ2267">
         <v>999</v>
       </c>
       <c r="AR2267" t="s">
-        <v>7073</v>
+        <v>7072</v>
       </c>
       <c r="AS2267">
         <v>999</v>
       </c>
       <c r="AT2267" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="AU2267" t="s">
         <v>6893</v>
       </c>
       <c r="AV2267" t="s">
+        <v>7116</v>
+      </c>
+      <c r="AW2267" t="s">
         <v>7117</v>
-      </c>
-      <c r="AW2267" t="s">
-        <v>7118</v>
       </c>
       <c r="AX2267">
         <v>999</v>
@@ -89758,16 +92277,16 @@
         <v>999</v>
       </c>
       <c r="AZ2267" t="s">
+        <v>7118</v>
+      </c>
+      <c r="BA2267" t="s">
         <v>7119</v>
-      </c>
-      <c r="BA2267" t="s">
-        <v>7120</v>
       </c>
       <c r="BB2267" t="s">
         <v>6895</v>
       </c>
       <c r="BC2267" t="s">
-        <v>7121</v>
+        <v>7120</v>
       </c>
       <c r="BD2267" t="s">
         <v>6930</v>
@@ -90409,7 +92928,7 @@
         <v>48.45</v>
       </c>
       <c r="N2291" t="s">
-        <v>7122</v>
+        <v>7121</v>
       </c>
       <c r="O2291" t="s">
         <v>4177</v>
@@ -90424,13 +92943,13 @@
         <v>6737</v>
       </c>
       <c r="S2291" t="s">
-        <v>7123</v>
+        <v>7122</v>
       </c>
       <c r="T2291" t="s">
         <v>3900</v>
       </c>
       <c r="U2291" t="s">
-        <v>7351</v>
+        <v>7350</v>
       </c>
       <c r="V2291">
         <v>999</v>
@@ -90439,16 +92958,16 @@
         <v>6933</v>
       </c>
       <c r="Y2291" t="s">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="Z2291" t="s">
         <v>6878</v>
       </c>
       <c r="AA2291" t="s">
+        <v>7124</v>
+      </c>
+      <c r="AB2291" t="s">
         <v>7125</v>
-      </c>
-      <c r="AB2291" t="s">
-        <v>7126</v>
       </c>
       <c r="AC2291" t="s">
         <v>6880</v>
@@ -90457,7 +92976,7 @@
         <v>999</v>
       </c>
       <c r="AE2291" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="AF2291" t="s">
         <v>6882</v>
@@ -90469,10 +92988,10 @@
         <v>6884</v>
       </c>
       <c r="AI2291" t="s">
+        <v>7127</v>
+      </c>
+      <c r="AJ2291" t="s">
         <v>7128</v>
-      </c>
-      <c r="AJ2291" t="s">
-        <v>7129</v>
       </c>
       <c r="AK2291" t="s">
         <v>6982</v>
@@ -90481,13 +93000,13 @@
         <v>6983</v>
       </c>
       <c r="AM2291" t="s">
+        <v>7129</v>
+      </c>
+      <c r="AN2291" t="s">
         <v>7130</v>
       </c>
-      <c r="AN2291" t="s">
+      <c r="AO2291" t="s">
         <v>7131</v>
-      </c>
-      <c r="AO2291" t="s">
-        <v>7132</v>
       </c>
       <c r="AP2291" t="s">
         <v>6890</v>
@@ -90499,19 +93018,19 @@
         <v>6892</v>
       </c>
       <c r="AS2291" t="s">
+        <v>7132</v>
+      </c>
+      <c r="AT2291" t="s">
         <v>7133</v>
-      </c>
-      <c r="AT2291" t="s">
-        <v>7134</v>
       </c>
       <c r="AU2291" t="s">
         <v>6893</v>
       </c>
       <c r="AV2291" t="s">
+        <v>7134</v>
+      </c>
+      <c r="AW2291" t="s">
         <v>7135</v>
-      </c>
-      <c r="AW2291" t="s">
-        <v>7136</v>
       </c>
       <c r="AX2291" t="s">
         <v>6993</v>
@@ -90520,16 +93039,16 @@
         <v>999</v>
       </c>
       <c r="AZ2291" t="s">
-        <v>7137</v>
+        <v>7136</v>
       </c>
       <c r="BA2291">
         <v>999</v>
       </c>
       <c r="BB2291" t="s">
+        <v>7136</v>
+      </c>
+      <c r="BC2291" t="s">
         <v>7137</v>
-      </c>
-      <c r="BC2291" t="s">
-        <v>7138</v>
       </c>
       <c r="BD2291" t="s">
         <v>6897</v>
@@ -90833,7 +93352,7 @@
         <v>48.45</v>
       </c>
       <c r="N2302" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
       <c r="O2302" t="s">
         <v>4208</v>
@@ -90848,7 +93367,7 @@
         <v>6827</v>
       </c>
       <c r="S2302" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
       <c r="T2302" t="s">
         <v>549</v>
@@ -90860,106 +93379,106 @@
         <v>4825</v>
       </c>
       <c r="W2302" t="s">
+        <v>7140</v>
+      </c>
+      <c r="X2302" s="9" t="s">
+        <v>7354</v>
+      </c>
+      <c r="Y2302" t="s">
         <v>7141</v>
       </c>
-      <c r="X2302" s="9" t="s">
-        <v>7355</v>
-      </c>
-      <c r="Y2302" t="s">
+      <c r="Z2302" t="s">
         <v>7142</v>
       </c>
-      <c r="Z2302" t="s">
+      <c r="AA2302" t="s">
         <v>7143</v>
       </c>
-      <c r="AA2302" t="s">
+      <c r="AB2302" t="s">
         <v>7144</v>
       </c>
-      <c r="AB2302" t="s">
+      <c r="AC2302" t="s">
         <v>7145</v>
       </c>
-      <c r="AC2302" t="s">
+      <c r="AD2302" t="s">
         <v>7146</v>
       </c>
-      <c r="AD2302" t="s">
+      <c r="AE2302" t="s">
         <v>7147</v>
       </c>
-      <c r="AE2302" t="s">
+      <c r="AF2302" t="s">
         <v>7148</v>
       </c>
-      <c r="AF2302" t="s">
+      <c r="AG2302" t="s">
         <v>7149</v>
       </c>
-      <c r="AG2302" t="s">
+      <c r="AH2302" t="s">
         <v>7150</v>
       </c>
-      <c r="AH2302" t="s">
+      <c r="AI2302" t="s">
         <v>7151</v>
       </c>
-      <c r="AI2302" t="s">
+      <c r="AJ2302" t="s">
         <v>7152</v>
       </c>
-      <c r="AJ2302" t="s">
+      <c r="AK2302" t="s">
         <v>7153</v>
       </c>
-      <c r="AK2302" t="s">
+      <c r="AL2302" t="s">
         <v>7154</v>
       </c>
-      <c r="AL2302" t="s">
+      <c r="AM2302" t="s">
         <v>7155</v>
       </c>
-      <c r="AM2302" t="s">
+      <c r="AN2302" t="s">
         <v>7156</v>
       </c>
-      <c r="AN2302" t="s">
+      <c r="AO2302" t="s">
         <v>7157</v>
       </c>
-      <c r="AO2302" t="s">
+      <c r="AP2302" t="s">
         <v>7158</v>
       </c>
-      <c r="AP2302" t="s">
+      <c r="AQ2302" t="s">
         <v>7159</v>
       </c>
-      <c r="AQ2302" t="s">
+      <c r="AR2302" t="s">
         <v>7160</v>
       </c>
-      <c r="AR2302" t="s">
+      <c r="AS2302" t="s">
         <v>7161</v>
-      </c>
-      <c r="AS2302" t="s">
-        <v>7162</v>
       </c>
       <c r="AT2302" t="s">
         <v>6921</v>
       </c>
       <c r="AU2302" t="s">
+        <v>7162</v>
+      </c>
+      <c r="AV2302" t="s">
         <v>7163</v>
       </c>
-      <c r="AV2302" t="s">
+      <c r="AW2302" t="s">
         <v>7164</v>
       </c>
-      <c r="AW2302" t="s">
+      <c r="AX2302" t="s">
         <v>7165</v>
-      </c>
-      <c r="AX2302" t="s">
-        <v>7166</v>
       </c>
       <c r="AY2302">
         <v>999</v>
       </c>
       <c r="AZ2302" t="s">
+        <v>7166</v>
+      </c>
+      <c r="BA2302" t="s">
         <v>7167</v>
       </c>
-      <c r="BA2302" t="s">
+      <c r="BB2302" t="s">
         <v>7168</v>
-      </c>
-      <c r="BB2302" t="s">
-        <v>7169</v>
       </c>
       <c r="BC2302" t="s">
         <v>6969</v>
       </c>
       <c r="BD2302" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="2303" spans="2:56" x14ac:dyDescent="0.2">
@@ -91078,7 +93597,7 @@
         <v>48.45</v>
       </c>
       <c r="N2306" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="O2306" t="s">
         <v>4220</v>
@@ -91093,70 +93612,70 @@
         <v>6737</v>
       </c>
       <c r="S2306" t="s">
+        <v>7171</v>
+      </c>
+      <c r="T2306" t="s">
         <v>7172</v>
-      </c>
-      <c r="T2306" t="s">
-        <v>7173</v>
       </c>
       <c r="U2306">
         <v>999</v>
       </c>
       <c r="V2306" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="W2306" t="s">
         <v>6933</v>
       </c>
       <c r="Y2306" t="s">
+        <v>7174</v>
+      </c>
+      <c r="Z2306" t="s">
         <v>7175</v>
       </c>
-      <c r="Z2306" t="s">
+      <c r="AA2306" t="s">
         <v>7176</v>
       </c>
-      <c r="AA2306" t="s">
-        <v>7177</v>
-      </c>
       <c r="AB2306" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="AC2306" t="s">
         <v>6880</v>
       </c>
       <c r="AD2306" t="s">
+        <v>7177</v>
+      </c>
+      <c r="AE2306" t="s">
         <v>7178</v>
-      </c>
-      <c r="AE2306" t="s">
-        <v>7179</v>
       </c>
       <c r="AF2306" t="s">
         <v>6882</v>
       </c>
       <c r="AG2306" t="s">
-        <v>7360</v>
+        <v>7359</v>
       </c>
       <c r="AH2306" t="s">
+        <v>7179</v>
+      </c>
+      <c r="AI2306" t="s">
+        <v>7127</v>
+      </c>
+      <c r="AJ2306" t="s">
         <v>7180</v>
-      </c>
-      <c r="AI2306" t="s">
-        <v>7128</v>
-      </c>
-      <c r="AJ2306" t="s">
-        <v>7181</v>
       </c>
       <c r="AK2306" t="s">
         <v>6982</v>
       </c>
       <c r="AL2306" t="s">
+        <v>7181</v>
+      </c>
+      <c r="AM2306" t="s">
         <v>7182</v>
       </c>
-      <c r="AM2306" t="s">
+      <c r="AN2306" t="s">
+        <v>7130</v>
+      </c>
+      <c r="AO2306" t="s">
         <v>7183</v>
-      </c>
-      <c r="AN2306" t="s">
-        <v>7131</v>
-      </c>
-      <c r="AO2306" t="s">
-        <v>7184</v>
       </c>
       <c r="AP2306" t="s">
         <v>6890</v>
@@ -91168,16 +93687,16 @@
         <v>6892</v>
       </c>
       <c r="AS2306" t="s">
+        <v>7184</v>
+      </c>
+      <c r="AT2306" t="s">
         <v>7185</v>
-      </c>
-      <c r="AT2306" t="s">
-        <v>7186</v>
       </c>
       <c r="AU2306" t="s">
         <v>6893</v>
       </c>
       <c r="AV2306" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="AW2306" t="s">
         <v>6992</v>
@@ -91195,13 +93714,13 @@
         <v>999</v>
       </c>
       <c r="BB2306" t="s">
+        <v>7187</v>
+      </c>
+      <c r="BC2306" t="s">
         <v>7188</v>
       </c>
-      <c r="BC2306" t="s">
+      <c r="BD2306" t="s">
         <v>7189</v>
-      </c>
-      <c r="BD2306" t="s">
-        <v>7190</v>
       </c>
     </row>
     <row r="2307" spans="2:56" x14ac:dyDescent="0.2">
@@ -91320,7 +93839,7 @@
         <v>48.45</v>
       </c>
       <c r="N2310" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="O2310" t="s">
         <v>4231</v>
@@ -91335,7 +93854,7 @@
         <v>6737</v>
       </c>
       <c r="S2310" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="T2310" t="s">
         <v>825</v>
@@ -91350,58 +93869,58 @@
         <v>6933</v>
       </c>
       <c r="Y2310" t="s">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="Z2310" t="s">
         <v>6878</v>
       </c>
       <c r="AA2310" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="AB2310" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="AC2310" t="s">
         <v>6880</v>
       </c>
       <c r="AD2310" t="s">
+        <v>7193</v>
+      </c>
+      <c r="AE2310" t="s">
         <v>7194</v>
-      </c>
-      <c r="AE2310" t="s">
-        <v>7195</v>
       </c>
       <c r="AF2310" t="s">
         <v>6882</v>
       </c>
       <c r="AG2310" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="AH2310" t="s">
         <v>6884</v>
       </c>
       <c r="AI2310" t="s">
+        <v>7196</v>
+      </c>
+      <c r="AJ2310" t="s">
         <v>7197</v>
       </c>
-      <c r="AJ2310" t="s">
+      <c r="AK2310" t="s">
         <v>7198</v>
       </c>
-      <c r="AK2310" t="s">
+      <c r="AL2310" t="s">
         <v>7199</v>
       </c>
-      <c r="AL2310" t="s">
+      <c r="AM2310" t="s">
         <v>7200</v>
       </c>
-      <c r="AM2310" t="s">
+      <c r="AN2310" t="s">
         <v>7201</v>
       </c>
-      <c r="AN2310" t="s">
+      <c r="AO2310" t="s">
         <v>7202</v>
       </c>
-      <c r="AO2310" t="s">
+      <c r="AP2310" t="s">
         <v>7203</v>
-      </c>
-      <c r="AP2310" t="s">
-        <v>7204</v>
       </c>
       <c r="AQ2310" t="s">
         <v>6891</v>
@@ -91410,22 +93929,22 @@
         <v>6892</v>
       </c>
       <c r="AS2310" t="s">
+        <v>7204</v>
+      </c>
+      <c r="AT2310" t="s">
         <v>7205</v>
-      </c>
-      <c r="AT2310" t="s">
-        <v>7206</v>
       </c>
       <c r="AU2310" t="s">
         <v>6893</v>
       </c>
       <c r="AV2310" t="s">
+        <v>7206</v>
+      </c>
+      <c r="AW2310" t="s">
+        <v>7135</v>
+      </c>
+      <c r="AX2310" t="s">
         <v>7207</v>
-      </c>
-      <c r="AW2310" t="s">
-        <v>7136</v>
-      </c>
-      <c r="AX2310" t="s">
-        <v>7208</v>
       </c>
       <c r="AY2310" t="s">
         <v>7024</v>
@@ -91437,10 +93956,10 @@
         <v>999</v>
       </c>
       <c r="BB2310" t="s">
+        <v>7208</v>
+      </c>
+      <c r="BC2310" t="s">
         <v>7209</v>
-      </c>
-      <c r="BC2310" t="s">
-        <v>7210</v>
       </c>
       <c r="BD2310" t="s">
         <v>6897</v>
@@ -91744,7 +94263,7 @@
         <v>48.45</v>
       </c>
       <c r="N2321" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="O2321" t="s">
         <v>4261</v>
@@ -91759,10 +94278,10 @@
         <v>6737</v>
       </c>
       <c r="S2321" t="s">
+        <v>7211</v>
+      </c>
+      <c r="T2321" t="s">
         <v>7212</v>
-      </c>
-      <c r="T2321" t="s">
-        <v>7213</v>
       </c>
       <c r="U2321" t="s">
         <v>803</v>
@@ -91774,28 +94293,28 @@
         <v>6933</v>
       </c>
       <c r="X2321" s="9" t="s">
-        <v>7356</v>
+        <v>7355</v>
       </c>
       <c r="Y2321" t="s">
+        <v>7213</v>
+      </c>
+      <c r="Z2321" t="s">
         <v>7214</v>
       </c>
-      <c r="Z2321" t="s">
+      <c r="AA2321" t="s">
         <v>7215</v>
       </c>
-      <c r="AA2321" t="s">
-        <v>7216</v>
-      </c>
       <c r="AB2321" t="s">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="AC2321" t="s">
         <v>6944</v>
       </c>
       <c r="AD2321" t="s">
+        <v>7216</v>
+      </c>
+      <c r="AE2321" t="s">
         <v>7217</v>
-      </c>
-      <c r="AE2321" t="s">
-        <v>7218</v>
       </c>
       <c r="AF2321" t="s">
         <v>6947</v>
@@ -91804,73 +94323,73 @@
         <v>6948</v>
       </c>
       <c r="AH2321" t="s">
+        <v>7218</v>
+      </c>
+      <c r="AI2321" t="s">
         <v>7219</v>
       </c>
-      <c r="AI2321" t="s">
+      <c r="AJ2321" t="s">
         <v>7220</v>
       </c>
-      <c r="AJ2321" t="s">
+      <c r="AK2321" t="s">
         <v>7221</v>
       </c>
-      <c r="AK2321" t="s">
+      <c r="AL2321" t="s">
         <v>7222</v>
       </c>
-      <c r="AL2321" t="s">
+      <c r="AM2321" t="s">
         <v>7223</v>
       </c>
-      <c r="AM2321" t="s">
+      <c r="AN2321" t="s">
         <v>7224</v>
       </c>
-      <c r="AN2321" t="s">
+      <c r="AO2321" t="s">
         <v>7225</v>
-      </c>
-      <c r="AO2321" t="s">
-        <v>7226</v>
       </c>
       <c r="AP2321" t="s">
         <v>6956</v>
       </c>
       <c r="AQ2321" t="s">
+        <v>7226</v>
+      </c>
+      <c r="AR2321" t="s">
         <v>7227</v>
       </c>
-      <c r="AR2321" t="s">
+      <c r="AS2321" t="s">
         <v>7228</v>
       </c>
-      <c r="AS2321" t="s">
+      <c r="AT2321" t="s">
         <v>7229</v>
       </c>
-      <c r="AT2321" t="s">
+      <c r="AU2321" t="s">
         <v>7230</v>
       </c>
-      <c r="AU2321" t="s">
+      <c r="AV2321" t="s">
         <v>7231</v>
       </c>
-      <c r="AV2321" t="s">
+      <c r="AW2321" t="s">
         <v>7232</v>
       </c>
-      <c r="AW2321" t="s">
+      <c r="AX2321" t="s">
         <v>7233</v>
-      </c>
-      <c r="AX2321" t="s">
-        <v>7234</v>
       </c>
       <c r="AY2321">
         <v>999</v>
       </c>
       <c r="AZ2321" t="s">
+        <v>7234</v>
+      </c>
+      <c r="BA2321" t="s">
         <v>7235</v>
       </c>
-      <c r="BA2321" t="s">
+      <c r="BB2321" t="s">
         <v>7236</v>
-      </c>
-      <c r="BB2321" t="s">
-        <v>7237</v>
       </c>
       <c r="BC2321" t="s">
         <v>6996</v>
       </c>
       <c r="BD2321" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="2322" spans="2:56" x14ac:dyDescent="0.2">
@@ -91989,7 +94508,7 @@
         <v>48.45</v>
       </c>
       <c r="N2325" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="O2325" t="s">
         <v>4273</v>
@@ -92004,7 +94523,7 @@
         <v>6737</v>
       </c>
       <c r="S2325" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="T2325" t="s">
         <v>6761</v>
@@ -92019,55 +94538,55 @@
         <v>6934</v>
       </c>
       <c r="Y2325" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="Z2325" t="s">
         <v>6878</v>
       </c>
       <c r="AA2325" t="s">
+        <v>7241</v>
+      </c>
+      <c r="AB2325" t="s">
         <v>7242</v>
-      </c>
-      <c r="AB2325" t="s">
-        <v>7243</v>
       </c>
       <c r="AC2325" t="s">
         <v>6880</v>
       </c>
       <c r="AD2325" t="s">
+        <v>7243</v>
+      </c>
+      <c r="AE2325" t="s">
         <v>7244</v>
-      </c>
-      <c r="AE2325" t="s">
-        <v>7245</v>
       </c>
       <c r="AF2325" t="s">
         <v>6882</v>
       </c>
       <c r="AG2325" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="AH2325" t="s">
         <v>6884</v>
       </c>
       <c r="AI2325" t="s">
+        <v>7246</v>
+      </c>
+      <c r="AJ2325" t="s">
         <v>7247</v>
       </c>
-      <c r="AJ2325" t="s">
+      <c r="AK2325" t="s">
         <v>7248</v>
-      </c>
-      <c r="AK2325" t="s">
-        <v>7249</v>
       </c>
       <c r="AL2325" t="s">
         <v>6983</v>
       </c>
       <c r="AM2325" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="AN2325" t="s">
+        <v>7249</v>
+      </c>
+      <c r="AO2325" t="s">
         <v>7250</v>
-      </c>
-      <c r="AO2325" t="s">
-        <v>7251</v>
       </c>
       <c r="AP2325" t="s">
         <v>6890</v>
@@ -92076,22 +94595,22 @@
         <v>6891</v>
       </c>
       <c r="AR2325" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="AS2325" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="AT2325" t="s">
         <v>6960</v>
       </c>
       <c r="AU2325" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="AV2325" t="s">
         <v>6894</v>
       </c>
       <c r="AW2325" t="s">
-        <v>7136</v>
+        <v>7135</v>
       </c>
       <c r="AX2325" t="s">
         <v>6993</v>
@@ -92106,10 +94625,10 @@
         <v>999</v>
       </c>
       <c r="BB2325" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="BC2325" t="s">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="BD2325" t="s">
         <v>6897</v>
@@ -92205,7 +94724,7 @@
         <v>48.45</v>
       </c>
       <c r="N2328" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="O2328" t="s">
         <v>4282</v>
@@ -92220,7 +94739,7 @@
         <v>6827</v>
       </c>
       <c r="S2328" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="T2328" t="s">
         <v>2779</v>
@@ -92235,88 +94754,88 @@
         <v>6939</v>
       </c>
       <c r="X2328" s="9" t="s">
-        <v>7357</v>
+        <v>7356</v>
       </c>
       <c r="Y2328" t="s">
+        <v>7255</v>
+      </c>
+      <c r="Z2328" t="s">
         <v>7256</v>
       </c>
-      <c r="Z2328" t="s">
+      <c r="AA2328" t="s">
         <v>7257</v>
       </c>
-      <c r="AA2328" t="s">
+      <c r="AB2328" t="s">
         <v>7258</v>
       </c>
-      <c r="AB2328" t="s">
+      <c r="AC2328" t="s">
         <v>7259</v>
       </c>
-      <c r="AC2328" t="s">
+      <c r="AD2328" t="s">
         <v>7260</v>
       </c>
-      <c r="AD2328" t="s">
+      <c r="AE2328" t="s">
         <v>7261</v>
       </c>
-      <c r="AE2328" t="s">
+      <c r="AF2328" t="s">
         <v>7262</v>
       </c>
-      <c r="AF2328" t="s">
+      <c r="AG2328" t="s">
         <v>7263</v>
       </c>
-      <c r="AG2328" t="s">
+      <c r="AH2328" t="s">
         <v>7264</v>
       </c>
-      <c r="AH2328" t="s">
+      <c r="AI2328" t="s">
+        <v>7351</v>
+      </c>
+      <c r="AJ2328" t="s">
         <v>7265</v>
-      </c>
-      <c r="AI2328" t="s">
-        <v>7352</v>
-      </c>
-      <c r="AJ2328" t="s">
-        <v>7266</v>
       </c>
       <c r="AK2328" t="s">
         <v>6952</v>
       </c>
       <c r="AL2328" t="s">
+        <v>7266</v>
+      </c>
+      <c r="AM2328" t="s">
+        <v>7129</v>
+      </c>
+      <c r="AN2328" t="s">
+        <v>7249</v>
+      </c>
+      <c r="AO2328" t="s">
         <v>7267</v>
-      </c>
-      <c r="AM2328" t="s">
-        <v>7130</v>
-      </c>
-      <c r="AN2328" t="s">
-        <v>7250</v>
-      </c>
-      <c r="AO2328" t="s">
-        <v>7268</v>
       </c>
       <c r="AP2328" t="s">
         <v>6890</v>
       </c>
       <c r="AQ2328" t="s">
+        <v>7268</v>
+      </c>
+      <c r="AR2328" t="s">
         <v>7269</v>
       </c>
-      <c r="AR2328" t="s">
+      <c r="AS2328" t="s">
         <v>7270</v>
       </c>
-      <c r="AS2328" t="s">
+      <c r="AT2328" t="s">
         <v>7271</v>
-      </c>
-      <c r="AT2328" t="s">
-        <v>7272</v>
       </c>
       <c r="AU2328" t="s">
         <v>6961</v>
       </c>
       <c r="AV2328" t="s">
+        <v>7272</v>
+      </c>
+      <c r="AW2328" t="s">
+        <v>7352</v>
+      </c>
+      <c r="AX2328" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2328" t="s">
         <v>7273</v>
-      </c>
-      <c r="AW2328" t="s">
-        <v>7353</v>
-      </c>
-      <c r="AX2328" t="s">
-        <v>7078</v>
-      </c>
-      <c r="AY2328" t="s">
-        <v>7274</v>
       </c>
       <c r="AZ2328">
         <v>999</v>
@@ -92325,13 +94844,13 @@
         <v>999</v>
       </c>
       <c r="BB2328" t="s">
+        <v>7274</v>
+      </c>
+      <c r="BC2328" t="s">
         <v>7275</v>
       </c>
-      <c r="BC2328" t="s">
+      <c r="BD2328" t="s">
         <v>7276</v>
-      </c>
-      <c r="BD2328" t="s">
-        <v>7277</v>
       </c>
     </row>
     <row r="2329" spans="2:56" x14ac:dyDescent="0.2">
@@ -92421,10 +94940,10 @@
         <v>540</v>
       </c>
       <c r="M2331" t="s">
+        <v>7277</v>
+      </c>
+      <c r="N2331" t="s">
         <v>7278</v>
-      </c>
-      <c r="N2331" t="s">
-        <v>7279</v>
       </c>
       <c r="O2331" t="s">
         <v>4291</v>
@@ -92439,7 +94958,7 @@
         <v>4825</v>
       </c>
       <c r="S2331" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
       <c r="T2331" t="s">
         <v>5657</v>
@@ -92454,67 +94973,67 @@
         <v>6934</v>
       </c>
       <c r="Y2331" t="s">
+        <v>7280</v>
+      </c>
+      <c r="Z2331" t="s">
         <v>7281</v>
       </c>
-      <c r="Z2331" t="s">
+      <c r="AA2331" t="s">
         <v>7282</v>
       </c>
-      <c r="AA2331" t="s">
+      <c r="AB2331" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2331" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2331" t="s">
         <v>7283</v>
       </c>
-      <c r="AB2331" t="s">
-        <v>7060</v>
-      </c>
-      <c r="AC2331" t="s">
-        <v>7032</v>
-      </c>
-      <c r="AD2331" t="s">
+      <c r="AE2331" t="s">
         <v>7284</v>
-      </c>
-      <c r="AE2331" t="s">
-        <v>7285</v>
       </c>
       <c r="AF2331" t="s">
         <v>6947</v>
       </c>
       <c r="AG2331" t="s">
+        <v>7285</v>
+      </c>
+      <c r="AH2331" t="s">
         <v>7286</v>
       </c>
-      <c r="AH2331" t="s">
+      <c r="AI2331" t="s">
         <v>7287</v>
       </c>
-      <c r="AI2331" t="s">
+      <c r="AJ2331" t="s">
         <v>7288</v>
       </c>
-      <c r="AJ2331" t="s">
+      <c r="AK2331" t="s">
+        <v>7067</v>
+      </c>
+      <c r="AL2331" t="s">
         <v>7289</v>
       </c>
-      <c r="AK2331" t="s">
-        <v>7068</v>
-      </c>
-      <c r="AL2331" t="s">
+      <c r="AM2331" t="s">
         <v>7290</v>
       </c>
-      <c r="AM2331" t="s">
+      <c r="AN2331" t="s">
         <v>7291</v>
       </c>
-      <c r="AN2331" t="s">
+      <c r="AO2331" t="s">
         <v>7292</v>
       </c>
-      <c r="AO2331" t="s">
+      <c r="AP2331" t="s">
         <v>7293</v>
       </c>
-      <c r="AP2331" t="s">
+      <c r="AQ2331" t="s">
+        <v>7071</v>
+      </c>
+      <c r="AR2331" t="s">
         <v>7294</v>
       </c>
-      <c r="AQ2331" t="s">
-        <v>7072</v>
-      </c>
-      <c r="AR2331" t="s">
+      <c r="AS2331" t="s">
         <v>7295</v>
-      </c>
-      <c r="AS2331" t="s">
-        <v>7296</v>
       </c>
       <c r="AT2331" t="s">
         <v>6990</v>
@@ -92523,31 +95042,31 @@
         <v>6961</v>
       </c>
       <c r="AV2331" t="s">
+        <v>7296</v>
+      </c>
+      <c r="AW2331" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2331" t="s">
         <v>7297</v>
-      </c>
-      <c r="AW2331" t="s">
-        <v>7047</v>
-      </c>
-      <c r="AX2331" t="s">
-        <v>7298</v>
       </c>
       <c r="AY2331">
         <v>999</v>
       </c>
       <c r="AZ2331" t="s">
-        <v>7354</v>
+        <v>7353</v>
       </c>
       <c r="BA2331">
         <v>999</v>
       </c>
       <c r="BB2331" t="s">
+        <v>7298</v>
+      </c>
+      <c r="BC2331" t="s">
         <v>7299</v>
       </c>
-      <c r="BC2331" t="s">
-        <v>7300</v>
-      </c>
       <c r="BD2331" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="2332" spans="2:56" x14ac:dyDescent="0.2">
@@ -92744,7 +95263,7 @@
         <v>845</v>
       </c>
       <c r="N2338" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="O2338" t="s">
         <v>4308</v>
@@ -92759,7 +95278,7 @@
         <v>4825</v>
       </c>
       <c r="S2338" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
       <c r="T2338" t="s">
         <v>3252</v>
@@ -92774,16 +95293,16 @@
         <v>6934</v>
       </c>
       <c r="X2338" s="9" t="s">
-        <v>7358</v>
+        <v>7357</v>
       </c>
       <c r="Y2338" t="s">
+        <v>7302</v>
+      </c>
+      <c r="Z2338" t="s">
         <v>7303</v>
       </c>
-      <c r="Z2338" t="s">
+      <c r="AA2338" t="s">
         <v>7304</v>
-      </c>
-      <c r="AA2338" t="s">
-        <v>7305</v>
       </c>
       <c r="AB2338" t="s">
         <v>6904</v>
@@ -92792,64 +95311,64 @@
         <v>6880</v>
       </c>
       <c r="AD2338" t="s">
+        <v>7305</v>
+      </c>
+      <c r="AE2338" t="s">
         <v>7306</v>
-      </c>
-      <c r="AE2338" t="s">
-        <v>7307</v>
       </c>
       <c r="AF2338" t="s">
         <v>6882</v>
       </c>
       <c r="AG2338" t="s">
+        <v>7307</v>
+      </c>
+      <c r="AH2338" t="s">
         <v>7308</v>
       </c>
-      <c r="AH2338" t="s">
+      <c r="AI2338" t="s">
+        <v>7092</v>
+      </c>
+      <c r="AJ2338" t="s">
         <v>7309</v>
-      </c>
-      <c r="AI2338" t="s">
-        <v>7093</v>
-      </c>
-      <c r="AJ2338" t="s">
-        <v>7310</v>
       </c>
       <c r="AK2338" t="s">
         <v>6982</v>
       </c>
       <c r="AL2338" t="s">
+        <v>7310</v>
+      </c>
+      <c r="AM2338" t="s">
         <v>7311</v>
       </c>
-      <c r="AM2338" t="s">
+      <c r="AN2338" t="s">
         <v>7312</v>
       </c>
-      <c r="AN2338" t="s">
+      <c r="AO2338" t="s">
         <v>7313</v>
       </c>
-      <c r="AO2338" t="s">
+      <c r="AP2338" t="s">
+        <v>7203</v>
+      </c>
+      <c r="AQ2338" t="s">
         <v>7314</v>
       </c>
-      <c r="AP2338" t="s">
-        <v>7204</v>
-      </c>
-      <c r="AQ2338" t="s">
+      <c r="AR2338" t="s">
         <v>7315</v>
       </c>
-      <c r="AR2338" t="s">
+      <c r="AS2338" t="s">
         <v>7316</v>
       </c>
-      <c r="AS2338" t="s">
+      <c r="AT2338" t="s">
         <v>7317</v>
-      </c>
-      <c r="AT2338" t="s">
-        <v>7318</v>
       </c>
       <c r="AU2338" t="s">
         <v>6893</v>
       </c>
       <c r="AV2338" t="s">
+        <v>7318</v>
+      </c>
+      <c r="AW2338" t="s">
         <v>7319</v>
-      </c>
-      <c r="AW2338" t="s">
-        <v>7320</v>
       </c>
       <c r="AX2338" t="s">
         <v>6993</v>
@@ -92858,16 +95377,16 @@
         <v>999</v>
       </c>
       <c r="AZ2338" t="s">
+        <v>7320</v>
+      </c>
+      <c r="BA2338" t="s">
         <v>7321</v>
       </c>
-      <c r="BA2338" t="s">
+      <c r="BB2338" t="s">
         <v>7322</v>
       </c>
-      <c r="BB2338" t="s">
+      <c r="BC2338" t="s">
         <v>7323</v>
-      </c>
-      <c r="BC2338" t="s">
-        <v>7324</v>
       </c>
       <c r="BD2338" t="s">
         <v>6930</v>
@@ -93197,7 +95716,7 @@
         <v>48.45</v>
       </c>
       <c r="N2350" t="s">
-        <v>7325</v>
+        <v>7324</v>
       </c>
       <c r="O2350" t="s">
         <v>4342</v>
@@ -93212,10 +95731,10 @@
         <v>4825</v>
       </c>
       <c r="S2350" t="s">
+        <v>7325</v>
+      </c>
+      <c r="T2350" t="s">
         <v>7326</v>
-      </c>
-      <c r="T2350" t="s">
-        <v>7327</v>
       </c>
       <c r="U2350">
         <v>999</v>
@@ -93227,67 +95746,67 @@
         <v>6934</v>
       </c>
       <c r="Y2350" t="s">
-        <v>7281</v>
+        <v>7280</v>
       </c>
       <c r="Z2350" t="s">
-        <v>7328</v>
+        <v>7327</v>
       </c>
       <c r="AA2350" t="s">
         <v>6942</v>
       </c>
       <c r="AB2350" t="s">
+        <v>7328</v>
+      </c>
+      <c r="AC2350" t="s">
         <v>7329</v>
       </c>
-      <c r="AC2350" t="s">
+      <c r="AD2350" t="s">
         <v>7330</v>
       </c>
-      <c r="AD2350" t="s">
+      <c r="AE2350" t="s">
         <v>7331</v>
-      </c>
-      <c r="AE2350" t="s">
-        <v>7332</v>
       </c>
       <c r="AF2350" t="s">
         <v>6947</v>
       </c>
       <c r="AG2350" t="s">
+        <v>7332</v>
+      </c>
+      <c r="AH2350" t="s">
         <v>7333</v>
       </c>
-      <c r="AH2350" t="s">
+      <c r="AI2350" t="s">
+        <v>7287</v>
+      </c>
+      <c r="AJ2350" t="s">
         <v>7334</v>
       </c>
-      <c r="AI2350" t="s">
-        <v>7288</v>
-      </c>
-      <c r="AJ2350" t="s">
+      <c r="AK2350" t="s">
         <v>7335</v>
       </c>
-      <c r="AK2350" t="s">
+      <c r="AL2350" t="s">
         <v>7336</v>
       </c>
-      <c r="AL2350" t="s">
+      <c r="AM2350" t="s">
+        <v>7290</v>
+      </c>
+      <c r="AN2350" t="s">
         <v>7337</v>
       </c>
-      <c r="AM2350" t="s">
-        <v>7291</v>
-      </c>
-      <c r="AN2350" t="s">
+      <c r="AO2350" t="s">
         <v>7338</v>
       </c>
-      <c r="AO2350" t="s">
+      <c r="AP2350" t="s">
         <v>7339</v>
       </c>
-      <c r="AP2350" t="s">
+      <c r="AQ2350" t="s">
+        <v>7361</v>
+      </c>
+      <c r="AR2350" t="s">
         <v>7340</v>
       </c>
-      <c r="AQ2350" t="s">
-        <v>7362</v>
-      </c>
-      <c r="AR2350" t="s">
-        <v>7341</v>
-      </c>
       <c r="AS2350" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="AT2350" t="s">
         <v>6990</v>
@@ -93296,28 +95815,28 @@
         <v>6961</v>
       </c>
       <c r="AV2350" t="s">
+        <v>7341</v>
+      </c>
+      <c r="AW2350" t="s">
         <v>7342</v>
       </c>
-      <c r="AW2350" t="s">
-        <v>7343</v>
-      </c>
       <c r="AX2350" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="AY2350">
         <v>999</v>
       </c>
       <c r="AZ2350" t="s">
+        <v>7343</v>
+      </c>
+      <c r="BA2350" t="s">
         <v>7344</v>
       </c>
-      <c r="BA2350" t="s">
+      <c r="BB2350" t="s">
         <v>7345</v>
       </c>
-      <c r="BB2350" t="s">
+      <c r="BC2350" t="s">
         <v>7346</v>
-      </c>
-      <c r="BC2350" t="s">
-        <v>7347</v>
       </c>
       <c r="BD2350" t="s">
         <v>6970</v>

--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3007EC-A31F-F149-AB86-F950B35C1C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819A136-62BD-4042-AE96-255462337638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="7589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14433" uniqueCount="7730">
   <si>
     <t>ID</t>
   </si>
@@ -22819,6 +22819,429 @@
   </si>
   <si>
     <t>und [?] des Dorfes</t>
+  </si>
+  <si>
+    <t>d-n</t>
+  </si>
+  <si>
+    <t>Amäs</t>
+  </si>
+  <si>
+    <t>Fleddermüß</t>
+  </si>
+  <si>
+    <t>Omt</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>Hewam</t>
+  </si>
+  <si>
+    <t>Grumbier</t>
+  </si>
+  <si>
+    <t>Kaater</t>
+  </si>
+  <si>
+    <t>Brümm</t>
+  </si>
+  <si>
+    <t>Grüßelbeer</t>
+  </si>
+  <si>
+    <t>Striggnodel</t>
+  </si>
+  <si>
+    <t>Taß</t>
+  </si>
+  <si>
+    <t>Hawe</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>U Elsaß</t>
+  </si>
+  <si>
+    <t>E. Meiss</t>
+  </si>
+  <si>
+    <t>d-k</t>
+  </si>
+  <si>
+    <t>[D]issel</t>
+  </si>
+  <si>
+    <t>Fläddermüs</t>
+  </si>
+  <si>
+    <t>Håhn, Gluck</t>
+  </si>
+  <si>
+    <t>Krumbere</t>
+  </si>
+  <si>
+    <t>Kåter</t>
+  </si>
+  <si>
+    <t>Brüm</t>
+  </si>
+  <si>
+    <t>Krüsselbeere</t>
+  </si>
+  <si>
+    <t>Guv &lt;(w)&gt;</t>
+  </si>
+  <si>
+    <t>Hawe &lt;f&gt;</t>
+  </si>
+  <si>
+    <t>zweje &lt;(zweigen)&gt;</t>
+  </si>
+  <si>
+    <t>Siegel</t>
+  </si>
+  <si>
+    <t>d-i</t>
+  </si>
+  <si>
+    <t>Ämäse</t>
+  </si>
+  <si>
+    <t>Elschter</t>
+  </si>
+  <si>
+    <t>Endĕ</t>
+  </si>
+  <si>
+    <t>[P]aschkrätzer</t>
+  </si>
+  <si>
+    <t>Håhn, Huhn</t>
+  </si>
+  <si>
+    <t>Hewåmm</t>
+  </si>
+  <si>
+    <t>Kådr</t>
+  </si>
+  <si>
+    <t>Müllwärfer</t>
+  </si>
+  <si>
+    <t>Pått</t>
+  </si>
+  <si>
+    <t>Prüme</t>
+  </si>
+  <si>
+    <t>Schbåtz</t>
+  </si>
+  <si>
+    <t>Grüsselbeere</t>
+  </si>
+  <si>
+    <t>Schtricknådel</t>
+  </si>
+  <si>
+    <t>Tåss</t>
+  </si>
+  <si>
+    <t>Håwe</t>
+  </si>
+  <si>
+    <t>Loni Berger</t>
+  </si>
+  <si>
+    <t>Vorsof</t>
+  </si>
+  <si>
+    <t>Heilbronn</t>
+  </si>
+  <si>
+    <t>Volksschule Bettweder</t>
+  </si>
+  <si>
+    <t>d-m</t>
+  </si>
+  <si>
+    <t>Licht (e)</t>
+  </si>
+  <si>
+    <t>Azel</t>
+  </si>
+  <si>
+    <t>Enterich (e)</t>
+  </si>
+  <si>
+    <t>Flettermüs</t>
+  </si>
+  <si>
+    <t>Muck (e)</t>
+  </si>
+  <si>
+    <t>Ahmt</t>
+  </si>
+  <si>
+    <t>Grombeere</t>
+  </si>
+  <si>
+    <t>Müllwerfer</t>
+  </si>
+  <si>
+    <t>Grüsselsbeere</t>
+  </si>
+  <si>
+    <t>irderhawe</t>
+  </si>
+  <si>
+    <t>zwige</t>
+  </si>
+  <si>
+    <t>E. Martzloff</t>
+  </si>
+  <si>
+    <t>Neuweiler (Breuschtal)</t>
+  </si>
+  <si>
+    <t>d-t</t>
+  </si>
+  <si>
+    <t>Emeise</t>
+  </si>
+  <si>
+    <t>Br[u]mbeer</t>
+  </si>
+  <si>
+    <t>Entenwürei</t>
+  </si>
+  <si>
+    <t>Mucken</t>
+  </si>
+  <si>
+    <t>Gukumer</t>
+  </si>
+  <si>
+    <t>Buttä</t>
+  </si>
+  <si>
+    <t>Hebwang</t>
+  </si>
+  <si>
+    <t>Krummbiere</t>
+  </si>
+  <si>
+    <t>K[å]ter</t>
+  </si>
+  <si>
+    <t>Brumm[ä]</t>
+  </si>
+  <si>
+    <t>schältä</t>
+  </si>
+  <si>
+    <t>Gruselbeer</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssel</t>
+  </si>
+  <si>
+    <t>irdener Hawä</t>
+  </si>
+  <si>
+    <t>zwigä</t>
+  </si>
+  <si>
+    <t>Gaiß</t>
+  </si>
+  <si>
+    <t>Rudolf Lauf[er]</t>
+  </si>
+  <si>
+    <t>[D]illingen &lt;[?]&gt;</t>
+  </si>
+  <si>
+    <t>Flädermüss (w)</t>
+  </si>
+  <si>
+    <t>Hewang (w)</t>
+  </si>
+  <si>
+    <t>Katēr (m)</t>
+  </si>
+  <si>
+    <t>Mulwerfer (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeer (w)</t>
+  </si>
+  <si>
+    <t>Stopnodel (w)</t>
+  </si>
+  <si>
+    <t>i. E.</t>
+  </si>
+  <si>
+    <t>Ernst Bieber</t>
+  </si>
+  <si>
+    <t>Schoenburg</t>
+  </si>
+  <si>
+    <t>d-u</t>
+  </si>
+  <si>
+    <t>Bråmbeere (w)</t>
+  </si>
+  <si>
+    <t>Hăhn (m), Huhn (w), Glück (w)</t>
+  </si>
+  <si>
+    <t>Kåter (m)</t>
+  </si>
+  <si>
+    <t>Mohr (w), Moor (w)</t>
+  </si>
+  <si>
+    <t>Påt (m)</t>
+  </si>
+  <si>
+    <t>Gaschel (w)</t>
+  </si>
+  <si>
+    <t>Brüm (w)</t>
+  </si>
+  <si>
+    <t>Stopnodel (w), Guwe (w)</t>
+  </si>
+  <si>
+    <t>[T]üssel</t>
+  </si>
+  <si>
+    <t>Tellerle (s)</t>
+  </si>
+  <si>
+    <t>Bieber Ernst</t>
+  </si>
+  <si>
+    <t>Gemeinsame [Umsetzung] des Lehrers und der Schüler</t>
+  </si>
+  <si>
+    <t>Emeis</t>
+  </si>
+  <si>
+    <t>Entevöjel</t>
+  </si>
+  <si>
+    <t>Ommt</t>
+  </si>
+  <si>
+    <t>Prümme</t>
+  </si>
+  <si>
+    <t>Schissel</t>
+  </si>
+  <si>
+    <t>[D]ock Ernst</t>
+  </si>
+  <si>
+    <t>[L]</t>
+  </si>
+  <si>
+    <t>[D]ock.</t>
+  </si>
+  <si>
+    <t>d-z</t>
+  </si>
+  <si>
+    <t>Emeise (w)</t>
+  </si>
+  <si>
+    <t>Koppelschlacht (w)</t>
+  </si>
+  <si>
+    <t>Pütte (w)</t>
+  </si>
+  <si>
+    <t>Grummbier (w)</t>
+  </si>
+  <si>
+    <t>Blümme (w)</t>
+  </si>
+  <si>
+    <t>Grüsselbeer (w)</t>
+  </si>
+  <si>
+    <t>Steggnodel (w)</t>
+  </si>
+  <si>
+    <t>Schtriggnodel (w)</t>
+  </si>
+  <si>
+    <t>Schüessel (w)</t>
+  </si>
+  <si>
+    <t>zweje, veredle &lt;(, Rose)&gt;</t>
+  </si>
+  <si>
+    <t>Eugen Gomer</t>
+  </si>
+  <si>
+    <t>z.T. durch die Schüler z.T. durch Erwachsene</t>
+  </si>
+  <si>
+    <t>d-y</t>
+  </si>
+  <si>
+    <t>E̠meis</t>
+  </si>
+  <si>
+    <t>Disssel (w)</t>
+  </si>
+  <si>
+    <t>Ātzel</t>
+  </si>
+  <si>
+    <t>Entvogel</t>
+  </si>
+  <si>
+    <t>Fleeddermüs</t>
+  </si>
+  <si>
+    <t>Gūgūmmer</t>
+  </si>
+  <si>
+    <t>Hahn, Huhn, Glück &lt;(Glügg)&gt;</t>
+  </si>
+  <si>
+    <t>Grumbeeere</t>
+  </si>
+  <si>
+    <t>Pātt</t>
+  </si>
+  <si>
+    <t>Gessel</t>
+  </si>
+  <si>
+    <t>Spåtz</t>
+  </si>
+  <si>
+    <t>Strecknūdel</t>
+  </si>
+  <si>
+    <t>irdener Håfe</t>
+  </si>
+  <si>
+    <t>zweya</t>
+  </si>
+  <si>
+    <t>Bühler Eugen</t>
+  </si>
+  <si>
+    <t>O. Elsass</t>
   </si>
 </sst>
 </file>
@@ -22942,7 +23365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -22960,6 +23383,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23259,8 +23683,8 @@
   <dimension ref="A1:BE2566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2184" sqref="C2184"/>
+      <pane ySplit="1" topLeftCell="A2177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2195" sqref="B2195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -89442,6 +89866,12 @@
       </c>
     </row>
     <row r="2185" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2185" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2185" t="s">
         <v>3835</v>
       </c>
@@ -89463,11 +89893,149 @@
       <c r="J2185">
         <v>48.88035</v>
       </c>
+      <c r="K2185" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2185">
+        <v>24.5</v>
+      </c>
+      <c r="M2185">
+        <v>48.5</v>
+      </c>
+      <c r="N2185" t="s">
+        <v>7589</v>
+      </c>
       <c r="O2185" t="s">
         <v>3888</v>
       </c>
+      <c r="P2185">
+        <v>999</v>
+      </c>
+      <c r="Q2185" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2185" t="s">
+        <v>7603</v>
+      </c>
+      <c r="S2185" t="s">
+        <v>7604</v>
+      </c>
+      <c r="T2185" t="s">
+        <v>481</v>
+      </c>
+      <c r="U2185">
+        <v>999</v>
+      </c>
+      <c r="V2185">
+        <v>999</v>
+      </c>
+      <c r="W2185" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2185" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2185" t="s">
+        <v>7590</v>
+      </c>
+      <c r="Z2185" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2185" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2185" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2185" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2185" t="s">
+        <v>7330</v>
+      </c>
+      <c r="AE2185" t="s">
+        <v>7591</v>
+      </c>
+      <c r="AF2185" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2185" t="s">
+        <v>7592</v>
+      </c>
+      <c r="AH2185" t="s">
+        <v>7569</v>
+      </c>
+      <c r="AI2185" t="s">
+        <v>7593</v>
+      </c>
+      <c r="AJ2185" t="s">
+        <v>7408</v>
+      </c>
+      <c r="AK2185" t="s">
+        <v>7594</v>
+      </c>
+      <c r="AL2185" t="s">
+        <v>7595</v>
+      </c>
+      <c r="AM2185" t="s">
+        <v>7596</v>
+      </c>
+      <c r="AN2185" t="s">
+        <v>7445</v>
+      </c>
+      <c r="AP2185" t="s">
+        <v>7574</v>
+      </c>
+      <c r="AQ2185" t="s">
+        <v>6957</v>
+      </c>
+      <c r="AR2185" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2185" t="s">
+        <v>7597</v>
+      </c>
+      <c r="AT2185" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2185" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2185" t="s">
+        <v>7598</v>
+      </c>
+      <c r="AW2185" t="s">
+        <v>6963</v>
+      </c>
+      <c r="AX2185" t="s">
+        <v>7599</v>
+      </c>
+      <c r="AY2185" t="s">
+        <v>7600</v>
+      </c>
+      <c r="AZ2185">
+        <v>999</v>
+      </c>
+      <c r="BA2185">
+        <v>999</v>
+      </c>
+      <c r="BB2185" t="s">
+        <v>7601</v>
+      </c>
+      <c r="BC2185" t="s">
+        <v>7137</v>
+      </c>
+      <c r="BD2185" t="s">
+        <v>7602</v>
+      </c>
     </row>
     <row r="2186" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2186" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2186" t="s">
         <v>3835</v>
       </c>
@@ -89489,11 +90057,149 @@
       <c r="J2186">
         <v>48.891559999999998</v>
       </c>
+      <c r="K2186" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2186">
+        <v>24.5</v>
+      </c>
+      <c r="M2186">
+        <v>48.5</v>
+      </c>
+      <c r="N2186" t="s">
+        <v>7605</v>
+      </c>
       <c r="O2186" t="s">
         <v>3891</v>
       </c>
+      <c r="P2186">
+        <v>999</v>
+      </c>
+      <c r="Q2186" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2186" t="s">
+        <v>6866</v>
+      </c>
+      <c r="S2186" t="s">
+        <v>7616</v>
+      </c>
+      <c r="T2186" t="s">
+        <v>5101</v>
+      </c>
+      <c r="U2186" t="s">
+        <v>4825</v>
+      </c>
+      <c r="V2186">
+        <v>999</v>
+      </c>
+      <c r="W2186" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2186" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2186" t="s">
+        <v>7029</v>
+      </c>
+      <c r="Z2186" t="s">
+        <v>7214</v>
+      </c>
+      <c r="AA2186" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2186" t="s">
+        <v>7606</v>
+      </c>
+      <c r="AC2186" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2186" t="s">
+        <v>7330</v>
+      </c>
+      <c r="AE2186" t="s">
+        <v>7607</v>
+      </c>
+      <c r="AF2186" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2186" t="s">
+        <v>7592</v>
+      </c>
+      <c r="AH2186" t="s">
+        <v>7569</v>
+      </c>
+      <c r="AI2186" t="s">
+        <v>7593</v>
+      </c>
+      <c r="AJ2186" t="s">
+        <v>7608</v>
+      </c>
+      <c r="AK2186" t="s">
+        <v>7594</v>
+      </c>
+      <c r="AL2186" t="s">
+        <v>7609</v>
+      </c>
+      <c r="AM2186" t="s">
+        <v>7610</v>
+      </c>
+      <c r="AN2186" t="s">
+        <v>7445</v>
+      </c>
+      <c r="AP2186" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2186" t="s">
+        <v>7575</v>
+      </c>
+      <c r="AR2186" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2186" t="s">
+        <v>7611</v>
+      </c>
+      <c r="AT2186" t="s">
+        <v>7394</v>
+      </c>
+      <c r="AU2186" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2186" t="s">
+        <v>7612</v>
+      </c>
+      <c r="AW2186" t="s">
+        <v>7613</v>
+      </c>
+      <c r="AX2186" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2186" t="s">
+        <v>6965</v>
+      </c>
+      <c r="AZ2186">
+        <v>999</v>
+      </c>
+      <c r="BA2186">
+        <v>999</v>
+      </c>
+      <c r="BB2186" t="s">
+        <v>7614</v>
+      </c>
+      <c r="BC2186" t="s">
+        <v>7615</v>
+      </c>
+      <c r="BD2186" t="s">
+        <v>7237</v>
+      </c>
     </row>
     <row r="2187" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2187" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2187" t="s">
         <v>3835</v>
       </c>
@@ -89515,11 +90221,149 @@
       <c r="J2187">
         <v>48.88617</v>
       </c>
+      <c r="K2187" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2187">
+        <v>24.5</v>
+      </c>
+      <c r="M2187">
+        <v>48.5</v>
+      </c>
+      <c r="N2187" t="s">
+        <v>7617</v>
+      </c>
       <c r="O2187" t="s">
         <v>3894</v>
       </c>
+      <c r="P2187">
+        <v>999</v>
+      </c>
+      <c r="Q2187" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2187" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2187" t="s">
+        <v>7633</v>
+      </c>
+      <c r="T2187" t="s">
+        <v>7634</v>
+      </c>
+      <c r="U2187" t="s">
+        <v>7635</v>
+      </c>
+      <c r="V2187">
+        <v>999</v>
+      </c>
+      <c r="W2187" t="s">
+        <v>7107</v>
+      </c>
+      <c r="X2187" s="9" t="s">
+        <v>7636</v>
+      </c>
+      <c r="Y2187" t="s">
+        <v>7618</v>
+      </c>
+      <c r="Z2187" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2187" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2187" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2187" t="s">
+        <v>7619</v>
+      </c>
+      <c r="AD2187" t="s">
+        <v>7620</v>
+      </c>
+      <c r="AE2187" t="s">
+        <v>7482</v>
+      </c>
+      <c r="AF2187" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2187" t="s">
+        <v>7367</v>
+      </c>
+      <c r="AH2187" t="s">
+        <v>7569</v>
+      </c>
+      <c r="AI2187" t="s">
+        <v>7621</v>
+      </c>
+      <c r="AJ2187" t="s">
+        <v>7622</v>
+      </c>
+      <c r="AK2187" t="s">
+        <v>7623</v>
+      </c>
+      <c r="AL2187" t="s">
+        <v>7289</v>
+      </c>
+      <c r="AM2187" t="s">
+        <v>7624</v>
+      </c>
+      <c r="AN2187" t="s">
+        <v>7625</v>
+      </c>
+      <c r="AP2187" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2187" t="s">
+        <v>7626</v>
+      </c>
+      <c r="AR2187" t="s">
+        <v>7269</v>
+      </c>
+      <c r="AS2187" t="s">
+        <v>7627</v>
+      </c>
+      <c r="AT2187" t="s">
+        <v>6921</v>
+      </c>
+      <c r="AU2187" t="s">
+        <v>7628</v>
+      </c>
+      <c r="AV2187" t="s">
+        <v>7629</v>
+      </c>
+      <c r="AW2187" t="s">
+        <v>6963</v>
+      </c>
+      <c r="AX2187" t="s">
+        <v>7630</v>
+      </c>
+      <c r="AY2187" t="s">
+        <v>7631</v>
+      </c>
+      <c r="AZ2187">
+        <v>999</v>
+      </c>
+      <c r="BA2187">
+        <v>999</v>
+      </c>
+      <c r="BB2187" t="s">
+        <v>7632</v>
+      </c>
+      <c r="BC2187" t="s">
+        <v>7137</v>
+      </c>
+      <c r="BD2187" t="s">
+        <v>6970</v>
+      </c>
     </row>
     <row r="2188" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2188" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2188" t="s">
         <v>3835</v>
       </c>
@@ -89541,11 +90385,149 @@
       <c r="J2188">
         <v>48.866199999999999</v>
       </c>
+      <c r="K2188" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2188">
+        <v>24.5</v>
+      </c>
+      <c r="M2188">
+        <v>48.5</v>
+      </c>
+      <c r="N2188" t="s">
+        <v>7637</v>
+      </c>
       <c r="O2188" t="s">
         <v>3897</v>
       </c>
+      <c r="P2188">
+        <v>999</v>
+      </c>
+      <c r="Q2188" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2188">
+        <v>999</v>
+      </c>
+      <c r="S2188" t="s">
+        <v>7649</v>
+      </c>
+      <c r="T2188" t="s">
+        <v>7650</v>
+      </c>
+      <c r="U2188">
+        <v>999</v>
+      </c>
+      <c r="V2188">
+        <v>999</v>
+      </c>
+      <c r="W2188" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2188" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2188" t="s">
+        <v>7618</v>
+      </c>
+      <c r="Z2188" t="s">
+        <v>7638</v>
+      </c>
+      <c r="AA2188" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2188" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2188" t="s">
+        <v>7639</v>
+      </c>
+      <c r="AD2188" t="s">
+        <v>7640</v>
+      </c>
+      <c r="AE2188" t="s">
+        <v>7641</v>
+      </c>
+      <c r="AF2188" t="s">
+        <v>7642</v>
+      </c>
+      <c r="AG2188" t="s">
+        <v>7643</v>
+      </c>
+      <c r="AH2188" t="s">
+        <v>7010</v>
+      </c>
+      <c r="AI2188" t="s">
+        <v>7570</v>
+      </c>
+      <c r="AJ2188" t="s">
+        <v>7571</v>
+      </c>
+      <c r="AK2188" t="s">
+        <v>7038</v>
+      </c>
+      <c r="AL2188" t="s">
+        <v>7644</v>
+      </c>
+      <c r="AM2188" t="s">
+        <v>7519</v>
+      </c>
+      <c r="AN2188" t="s">
+        <v>7645</v>
+      </c>
+      <c r="AP2188" t="s">
+        <v>7574</v>
+      </c>
+      <c r="AQ2188" t="s">
+        <v>6957</v>
+      </c>
+      <c r="AR2188" t="s">
+        <v>6958</v>
+      </c>
+      <c r="AS2188" t="s">
+        <v>6959</v>
+      </c>
+      <c r="AT2188" t="s">
+        <v>6960</v>
+      </c>
+      <c r="AU2188" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2188" t="s">
+        <v>7646</v>
+      </c>
+      <c r="AW2188" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2188" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2188">
+        <v>999</v>
+      </c>
+      <c r="AZ2188" t="s">
+        <v>6965</v>
+      </c>
+      <c r="BA2188" t="s">
+        <v>7235</v>
+      </c>
+      <c r="BB2188" t="s">
+        <v>7647</v>
+      </c>
+      <c r="BC2188" t="s">
+        <v>7648</v>
+      </c>
+      <c r="BD2188" t="s">
+        <v>7436</v>
+      </c>
     </row>
     <row r="2189" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2189" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2189" t="s">
         <v>3835</v>
       </c>
@@ -89567,11 +90549,149 @@
       <c r="J2189">
         <v>48.843179999999997</v>
       </c>
+      <c r="K2189" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2189">
+        <v>24.5</v>
+      </c>
+      <c r="M2189">
+        <v>48.5</v>
+      </c>
+      <c r="N2189" t="s">
+        <v>7651</v>
+      </c>
       <c r="O2189" t="s">
         <v>3900</v>
       </c>
+      <c r="P2189">
+        <v>999</v>
+      </c>
+      <c r="Q2189" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2189">
+        <v>999</v>
+      </c>
+      <c r="S2189" t="s">
+        <v>7668</v>
+      </c>
+      <c r="T2189" t="s">
+        <v>7669</v>
+      </c>
+      <c r="U2189">
+        <v>999</v>
+      </c>
+      <c r="V2189">
+        <v>999</v>
+      </c>
+      <c r="W2189" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2189" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2189" t="s">
+        <v>7652</v>
+      </c>
+      <c r="Z2189" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2189" t="s">
+        <v>7653</v>
+      </c>
+      <c r="AB2189" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2189" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2189" t="s">
+        <v>7654</v>
+      </c>
+      <c r="AE2189" t="s">
+        <v>6946</v>
+      </c>
+      <c r="AF2189" t="s">
+        <v>7655</v>
+      </c>
+      <c r="AG2189" t="s">
+        <v>6948</v>
+      </c>
+      <c r="AH2189" t="s">
+        <v>7656</v>
+      </c>
+      <c r="AI2189" t="s">
+        <v>7657</v>
+      </c>
+      <c r="AJ2189" t="s">
+        <v>7622</v>
+      </c>
+      <c r="AK2189" t="s">
+        <v>7658</v>
+      </c>
+      <c r="AL2189" t="s">
+        <v>7659</v>
+      </c>
+      <c r="AM2189" t="s">
+        <v>7660</v>
+      </c>
+      <c r="AN2189" t="s">
+        <v>7645</v>
+      </c>
+      <c r="AP2189" t="s">
+        <v>7520</v>
+      </c>
+      <c r="AQ2189" t="s">
+        <v>7575</v>
+      </c>
+      <c r="AR2189" t="s">
+        <v>7576</v>
+      </c>
+      <c r="AS2189" t="s">
+        <v>7661</v>
+      </c>
+      <c r="AT2189" t="s">
+        <v>7662</v>
+      </c>
+      <c r="AU2189" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2189" t="s">
+        <v>7663</v>
+      </c>
+      <c r="AW2189" t="s">
+        <v>7103</v>
+      </c>
+      <c r="AX2189" t="s">
+        <v>6964</v>
+      </c>
+      <c r="AY2189" t="s">
+        <v>7664</v>
+      </c>
+      <c r="AZ2189">
+        <v>999</v>
+      </c>
+      <c r="BA2189">
+        <v>999</v>
+      </c>
+      <c r="BB2189" t="s">
+        <v>7665</v>
+      </c>
+      <c r="BC2189" t="s">
+        <v>7666</v>
+      </c>
+      <c r="BD2189" t="s">
+        <v>7667</v>
+      </c>
     </row>
     <row r="2190" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2190" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2190" t="s">
         <v>3835</v>
       </c>
@@ -89593,11 +90713,149 @@
       <c r="J2190">
         <v>48.865160000000003</v>
       </c>
+      <c r="K2190" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2190">
+        <v>24.5</v>
+      </c>
+      <c r="M2190">
+        <v>48.5</v>
+      </c>
+      <c r="N2190" t="s">
+        <v>7589</v>
+      </c>
       <c r="O2190" t="s">
         <v>3903</v>
       </c>
+      <c r="P2190" t="s">
+        <v>7676</v>
+      </c>
+      <c r="Q2190" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2190" t="s">
+        <v>6737</v>
+      </c>
+      <c r="S2190" t="s">
+        <v>7677</v>
+      </c>
+      <c r="T2190" t="s">
+        <v>7678</v>
+      </c>
+      <c r="U2190" t="s">
+        <v>4352</v>
+      </c>
+      <c r="V2190">
+        <v>999</v>
+      </c>
+      <c r="W2190" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2190" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2190" t="s">
+        <v>7056</v>
+      </c>
+      <c r="Z2190" t="s">
+        <v>7002</v>
+      </c>
+      <c r="AA2190" t="s">
+        <v>7383</v>
+      </c>
+      <c r="AB2190" t="s">
+        <v>7004</v>
+      </c>
+      <c r="AC2190" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2190" t="s">
+        <v>7088</v>
+      </c>
+      <c r="AE2190" t="s">
+        <v>7670</v>
+      </c>
+      <c r="AF2190" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2190" t="s">
+        <v>6978</v>
+      </c>
+      <c r="AH2190" t="s">
+        <v>7484</v>
+      </c>
+      <c r="AI2190" t="s">
+        <v>7127</v>
+      </c>
+      <c r="AJ2190" t="s">
+        <v>6981</v>
+      </c>
+      <c r="AK2190" t="s">
+        <v>7671</v>
+      </c>
+      <c r="AL2190" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2190" t="s">
+        <v>7672</v>
+      </c>
+      <c r="AN2190" t="s">
+        <v>7673</v>
+      </c>
+      <c r="AP2190" t="s">
+        <v>7203</v>
+      </c>
+      <c r="AQ2190" t="s">
+        <v>6987</v>
+      </c>
+      <c r="AR2190" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2190" t="s">
+        <v>7019</v>
+      </c>
+      <c r="AT2190" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2190" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2190" t="s">
+        <v>7674</v>
+      </c>
+      <c r="AW2190" t="s">
+        <v>7675</v>
+      </c>
+      <c r="AX2190" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2190" t="s">
+        <v>7024</v>
+      </c>
+      <c r="AZ2190">
+        <v>999</v>
+      </c>
+      <c r="BA2190">
+        <v>999</v>
+      </c>
+      <c r="BB2190" t="s">
+        <v>6995</v>
+      </c>
+      <c r="BC2190" t="s">
+        <v>6969</v>
+      </c>
+      <c r="BD2190" t="s">
+        <v>7189</v>
+      </c>
     </row>
     <row r="2191" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2191" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2191" t="s">
         <v>3835</v>
       </c>
@@ -89619,11 +90877,149 @@
       <c r="J2191">
         <v>48.865160000000003</v>
       </c>
+      <c r="K2191" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2191">
+        <v>24.5</v>
+      </c>
+      <c r="M2191">
+        <v>48.5</v>
+      </c>
+      <c r="N2191" t="s">
+        <v>7679</v>
+      </c>
       <c r="O2191" t="s">
         <v>3903</v>
       </c>
+      <c r="P2191">
+        <v>999</v>
+      </c>
+      <c r="Q2191" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2191" t="s">
+        <v>6737</v>
+      </c>
+      <c r="S2191" t="s">
+        <v>7690</v>
+      </c>
+      <c r="T2191" t="s">
+        <v>3913</v>
+      </c>
+      <c r="U2191" t="s">
+        <v>4352</v>
+      </c>
+      <c r="V2191">
+        <v>999</v>
+      </c>
+      <c r="W2191" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2191" s="9" t="s">
+        <v>7691</v>
+      </c>
+      <c r="Y2191" t="s">
+        <v>7056</v>
+      </c>
+      <c r="Z2191" t="s">
+        <v>6878</v>
+      </c>
+      <c r="AA2191" t="s">
+        <v>7680</v>
+      </c>
+      <c r="AB2191" t="s">
+        <v>7004</v>
+      </c>
+      <c r="AC2191" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2191" t="s">
+        <v>7088</v>
+      </c>
+      <c r="AE2191" t="s">
+        <v>7670</v>
+      </c>
+      <c r="AF2191" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2191" t="s">
+        <v>6883</v>
+      </c>
+      <c r="AH2191" t="s">
+        <v>7484</v>
+      </c>
+      <c r="AI2191" t="s">
+        <v>7246</v>
+      </c>
+      <c r="AJ2191" t="s">
+        <v>7681</v>
+      </c>
+      <c r="AK2191" t="s">
+        <v>7671</v>
+      </c>
+      <c r="AL2191" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2191" t="s">
+        <v>7682</v>
+      </c>
+      <c r="AN2191" t="s">
+        <v>7391</v>
+      </c>
+      <c r="AP2191" t="s">
+        <v>7683</v>
+      </c>
+      <c r="AQ2191" t="s">
+        <v>7684</v>
+      </c>
+      <c r="AR2191" t="s">
+        <v>7685</v>
+      </c>
+      <c r="AS2191" t="s">
+        <v>7686</v>
+      </c>
+      <c r="AT2191" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2191" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2191" t="s">
+        <v>7674</v>
+      </c>
+      <c r="AW2191" t="s">
+        <v>7687</v>
+      </c>
+      <c r="AX2191" t="s">
+        <v>6993</v>
+      </c>
+      <c r="AY2191">
+        <v>999</v>
+      </c>
+      <c r="AZ2191" t="s">
+        <v>7688</v>
+      </c>
+      <c r="BA2191" t="s">
+        <v>7689</v>
+      </c>
+      <c r="BB2191" t="s">
+        <v>6995</v>
+      </c>
+      <c r="BC2191" t="s">
+        <v>6969</v>
+      </c>
+      <c r="BD2191" t="s">
+        <v>7189</v>
+      </c>
     </row>
     <row r="2192" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2192" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2192" t="s">
         <v>3835</v>
       </c>
@@ -89645,11 +91041,149 @@
       <c r="J2192">
         <v>48.857480000000002</v>
       </c>
+      <c r="K2192" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2192">
+        <v>24.5</v>
+      </c>
+      <c r="M2192">
+        <v>48.5</v>
+      </c>
+      <c r="N2192" t="s">
+        <v>7565</v>
+      </c>
       <c r="O2192" t="s">
         <v>3907</v>
       </c>
-    </row>
-    <row r="2193" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2192">
+        <v>999</v>
+      </c>
+      <c r="Q2192" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2192" t="s">
+        <v>6836</v>
+      </c>
+      <c r="S2192" t="s">
+        <v>7697</v>
+      </c>
+      <c r="T2192" t="s">
+        <v>258</v>
+      </c>
+      <c r="U2192">
+        <v>999</v>
+      </c>
+      <c r="V2192" t="s">
+        <v>6836</v>
+      </c>
+      <c r="W2192" t="s">
+        <v>7698</v>
+      </c>
+      <c r="X2192" s="9" t="s">
+        <v>7699</v>
+      </c>
+      <c r="Y2192" t="s">
+        <v>7692</v>
+      </c>
+      <c r="Z2192" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2192" t="s">
+        <v>6942</v>
+      </c>
+      <c r="AB2192" t="s">
+        <v>7059</v>
+      </c>
+      <c r="AC2192" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2192" t="s">
+        <v>7693</v>
+      </c>
+      <c r="AE2192" t="s">
+        <v>7217</v>
+      </c>
+      <c r="AF2192" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2192" t="s">
+        <v>7694</v>
+      </c>
+      <c r="AH2192" t="s">
+        <v>7010</v>
+      </c>
+      <c r="AI2192" t="s">
+        <v>7127</v>
+      </c>
+      <c r="AJ2192" t="s">
+        <v>7408</v>
+      </c>
+      <c r="AK2192" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2192" t="s">
+        <v>7222</v>
+      </c>
+      <c r="AM2192" t="s">
+        <v>7519</v>
+      </c>
+      <c r="AN2192" t="s">
+        <v>7645</v>
+      </c>
+      <c r="AP2192" t="s">
+        <v>7574</v>
+      </c>
+      <c r="AQ2192" t="s">
+        <v>6957</v>
+      </c>
+      <c r="AR2192" t="s">
+        <v>7576</v>
+      </c>
+      <c r="AS2192" t="s">
+        <v>7695</v>
+      </c>
+      <c r="AT2192" t="s">
+        <v>7205</v>
+      </c>
+      <c r="AU2192" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2192" t="s">
+        <v>7231</v>
+      </c>
+      <c r="AW2192" t="s">
+        <v>6963</v>
+      </c>
+      <c r="AX2192" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2192">
+        <v>999</v>
+      </c>
+      <c r="AZ2192" t="s">
+        <v>6965</v>
+      </c>
+      <c r="BA2192" t="s">
+        <v>7696</v>
+      </c>
+      <c r="BB2192" t="s">
+        <v>7601</v>
+      </c>
+      <c r="BC2192" t="s">
+        <v>7502</v>
+      </c>
+      <c r="BD2192" t="s">
+        <v>7237</v>
+      </c>
+    </row>
+    <row r="2193" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2193" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2193" t="s">
         <v>3835</v>
       </c>
@@ -89671,11 +91205,149 @@
       <c r="J2193">
         <v>48.858640000000001</v>
       </c>
+      <c r="K2193" s="17" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2193">
+        <v>24.5</v>
+      </c>
+      <c r="M2193">
+        <v>48.5</v>
+      </c>
+      <c r="N2193" t="s">
+        <v>7700</v>
+      </c>
       <c r="O2193" t="s">
         <v>3910</v>
       </c>
-    </row>
-    <row r="2194" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2193">
+        <v>999</v>
+      </c>
+      <c r="Q2193" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2193" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2193" t="s">
+        <v>7711</v>
+      </c>
+      <c r="T2193" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U2193" t="s">
+        <v>4845</v>
+      </c>
+      <c r="V2193">
+        <v>999</v>
+      </c>
+      <c r="W2193" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2193" s="9" t="s">
+        <v>7712</v>
+      </c>
+      <c r="Y2193" t="s">
+        <v>7701</v>
+      </c>
+      <c r="Z2193" t="s">
+        <v>7002</v>
+      </c>
+      <c r="AA2193" t="s">
+        <v>7440</v>
+      </c>
+      <c r="AB2193" t="s">
+        <v>6879</v>
+      </c>
+      <c r="AC2193" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2193" t="s">
+        <v>7385</v>
+      </c>
+      <c r="AE2193" t="s">
+        <v>7007</v>
+      </c>
+      <c r="AF2193" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2193" t="s">
+        <v>7702</v>
+      </c>
+      <c r="AH2193" t="s">
+        <v>6884</v>
+      </c>
+      <c r="AI2193" t="s">
+        <v>7703</v>
+      </c>
+      <c r="AJ2193" t="s">
+        <v>6981</v>
+      </c>
+      <c r="AK2193" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2193" t="s">
+        <v>7704</v>
+      </c>
+      <c r="AM2193" t="s">
+        <v>6984</v>
+      </c>
+      <c r="AN2193" t="s">
+        <v>7445</v>
+      </c>
+      <c r="AP2193" t="s">
+        <v>7203</v>
+      </c>
+      <c r="AQ2193" t="s">
+        <v>7486</v>
+      </c>
+      <c r="AR2193" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2193" t="s">
+        <v>7705</v>
+      </c>
+      <c r="AT2193" t="s">
+        <v>7394</v>
+      </c>
+      <c r="AU2193" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2193" t="s">
+        <v>7706</v>
+      </c>
+      <c r="AW2193" t="s">
+        <v>7707</v>
+      </c>
+      <c r="AX2193" t="s">
+        <v>7708</v>
+      </c>
+      <c r="AY2193" t="s">
+        <v>7024</v>
+      </c>
+      <c r="AZ2193">
+        <v>999</v>
+      </c>
+      <c r="BA2193">
+        <v>999</v>
+      </c>
+      <c r="BB2193" t="s">
+        <v>7709</v>
+      </c>
+      <c r="BC2193" t="s">
+        <v>7710</v>
+      </c>
+      <c r="BD2193" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="2194" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2194" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2194" t="s">
         <v>3835</v>
       </c>
@@ -89697,11 +91369,144 @@
       <c r="J2194">
         <v>48.833919999999999</v>
       </c>
+      <c r="K2194" s="17" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2194">
+        <v>24.5</v>
+      </c>
+      <c r="M2194">
+        <v>48.5</v>
+      </c>
+      <c r="N2194" t="s">
+        <v>7713</v>
+      </c>
       <c r="O2194" t="s">
         <v>3913</v>
       </c>
-    </row>
-    <row r="2195" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2194">
+        <v>999</v>
+      </c>
+      <c r="Q2194" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2194" t="s">
+        <v>6737</v>
+      </c>
+      <c r="S2194" t="s">
+        <v>7728</v>
+      </c>
+      <c r="T2194" t="s">
+        <v>1308</v>
+      </c>
+      <c r="U2194">
+        <v>999</v>
+      </c>
+      <c r="V2194" t="s">
+        <v>7729</v>
+      </c>
+      <c r="W2194">
+        <v>999</v>
+      </c>
+      <c r="X2194" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2194" t="s">
+        <v>7714</v>
+      </c>
+      <c r="Z2194" t="s">
+        <v>7638</v>
+      </c>
+      <c r="AA2194" t="s">
+        <v>7459</v>
+      </c>
+      <c r="AB2194" t="s">
+        <v>7715</v>
+      </c>
+      <c r="AC2194" t="s">
+        <v>7716</v>
+      </c>
+      <c r="AD2194" t="s">
+        <v>7717</v>
+      </c>
+      <c r="AE2194" t="s">
+        <v>7718</v>
+      </c>
+      <c r="AF2194" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2194" t="s">
+        <v>7507</v>
+      </c>
+      <c r="AH2194" t="s">
+        <v>7719</v>
+      </c>
+      <c r="AI2194" t="s">
+        <v>7593</v>
+      </c>
+      <c r="AJ2194" t="s">
+        <v>7720</v>
+      </c>
+      <c r="AK2194" t="s">
+        <v>7067</v>
+      </c>
+      <c r="AL2194" t="s">
+        <v>7721</v>
+      </c>
+      <c r="AM2194" t="s">
+        <v>7573</v>
+      </c>
+      <c r="AN2194" t="s">
+        <v>7337</v>
+      </c>
+      <c r="AP2194" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2194" t="s">
+        <v>7722</v>
+      </c>
+      <c r="AR2194" t="s">
+        <v>7723</v>
+      </c>
+      <c r="AS2194" t="s">
+        <v>7627</v>
+      </c>
+      <c r="AT2194" t="s">
+        <v>6990</v>
+      </c>
+      <c r="AU2194" t="s">
+        <v>7724</v>
+      </c>
+      <c r="AV2194" t="s">
+        <v>7646</v>
+      </c>
+      <c r="AW2194" t="s">
+        <v>7413</v>
+      </c>
+      <c r="AX2194" t="s">
+        <v>7725</v>
+      </c>
+      <c r="AY2194" t="s">
+        <v>7631</v>
+      </c>
+      <c r="AZ2194">
+        <v>999</v>
+      </c>
+      <c r="BA2194">
+        <v>999</v>
+      </c>
+      <c r="BB2194" t="s">
+        <v>7726</v>
+      </c>
+      <c r="BC2194" t="s">
+        <v>7727</v>
+      </c>
+      <c r="BD2194" t="s">
+        <v>7237</v>
+      </c>
+    </row>
+    <row r="2195" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2195" s="4"/>
       <c r="D2195" t="s">
         <v>3835</v>
       </c>
@@ -89723,11 +91528,12 @@
       <c r="J2195">
         <v>48.869120000000002</v>
       </c>
+      <c r="K2195" s="17"/>
       <c r="O2195" t="s">
         <v>3916</v>
       </c>
     </row>
-    <row r="2196" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2196" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2196" t="s">
         <v>3835</v>
       </c>
@@ -89753,7 +91559,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="2197" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2197" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2197" t="s">
         <v>3835</v>
       </c>
@@ -89779,7 +91585,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="2198" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2198" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2198" t="s">
         <v>3835</v>
       </c>
@@ -89805,7 +91611,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="2199" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2199" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2199" t="s">
         <v>3835</v>
       </c>
@@ -89831,7 +91637,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="2200" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2200" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2200" t="s">
         <v>3835</v>
       </c>
@@ -89857,7 +91663,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="2201" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2201" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2201" t="s">
         <v>3835</v>
       </c>
@@ -89883,7 +91689,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2202" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2202" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2202" t="s">
         <v>3835</v>
       </c>
@@ -89909,7 +91715,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="2203" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2203" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2203" t="s">
         <v>3835</v>
       </c>
@@ -89935,7 +91741,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="2204" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2204" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2204" t="s">
         <v>3835</v>
       </c>
@@ -89961,7 +91767,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="2205" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2205" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2205" t="s">
         <v>3835</v>
       </c>
@@ -89987,7 +91793,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="2206" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2206" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2206" t="s">
         <v>3835</v>
       </c>
@@ -90013,7 +91819,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="2207" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2207" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2207" t="s">
         <v>3835</v>
       </c>
@@ -90039,7 +91845,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="2208" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2208" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2208" t="s">
         <v>3835</v>
       </c>

--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{7819A136-62BD-4042-AE96-255462337638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB10CCA9-6AF0-4F55-A0CD-115590B6D145}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23364,7 +23364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -23382,9 +23382,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23400,6 +23398,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23684,8 +23686,8 @@
   <dimension ref="A1:BE2566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23846,7 +23848,7 @@
       <c r="AX1" s="1" t="s">
         <v>6815</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AY1" s="17" t="s">
         <v>6822</v>
       </c>
       <c r="AZ1" s="1" t="s">
@@ -24913,7 +24915,7 @@
       <c r="S8" t="s">
         <v>7027</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" t="s">
         <v>7028</v>
       </c>
       <c r="U8">
@@ -30821,7 +30823,6 @@
       <c r="R44" t="s">
         <v>4825</v>
       </c>
-      <c r="BD44" s="17"/>
     </row>
     <row r="45" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
@@ -30858,7 +30859,6 @@
       <c r="R45" t="s">
         <v>4825</v>
       </c>
-      <c r="BD45" s="17"/>
     </row>
     <row r="46" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
@@ -30895,7 +30895,6 @@
       <c r="R46" t="s">
         <v>4833</v>
       </c>
-      <c r="BD46" s="17"/>
     </row>
     <row r="47" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
@@ -30932,7 +30931,6 @@
       <c r="R47" t="s">
         <v>4833</v>
       </c>
-      <c r="BD47" s="17"/>
     </row>
     <row r="48" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -30969,9 +30967,8 @@
       <c r="R48">
         <v>999</v>
       </c>
-      <c r="BD48" s="17"/>
-    </row>
-    <row r="49" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="D49" t="s">
         <v>4828</v>
@@ -31006,9 +31003,8 @@
       <c r="R49" t="s">
         <v>4825</v>
       </c>
-      <c r="BD49" s="17"/>
-    </row>
-    <row r="50" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="D50" t="s">
         <v>4828</v>
@@ -31043,9 +31039,8 @@
       <c r="R50" t="s">
         <v>4825</v>
       </c>
-      <c r="BD50" s="17"/>
-    </row>
-    <row r="51" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="D51" t="s">
         <v>4828</v>
@@ -31080,9 +31075,8 @@
       <c r="R51" t="s">
         <v>4825</v>
       </c>
-      <c r="BD51" s="17"/>
-    </row>
-    <row r="52" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>4850</v>
       </c>
@@ -31114,7 +31108,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="53" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>4850</v>
       </c>
@@ -31146,7 +31140,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="54" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>4850</v>
       </c>
@@ -31178,7 +31172,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="55" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>4850</v>
       </c>
@@ -31210,7 +31204,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="56" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>4850</v>
       </c>
@@ -31242,7 +31236,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="57" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>4850</v>
       </c>
@@ -31274,7 +31268,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="58" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>4850</v>
       </c>
@@ -31306,7 +31300,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="59" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>4850</v>
       </c>
@@ -31338,7 +31332,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="60" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>4850</v>
       </c>
@@ -31370,7 +31364,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="61" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>4850</v>
       </c>
@@ -31405,7 +31399,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="62" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>4850</v>
       </c>
@@ -31437,7 +31431,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="63" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>4850</v>
       </c>
@@ -31469,7 +31463,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="64" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>4850</v>
       </c>
@@ -40195,7 +40189,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="337" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
         <v>5093</v>
       </c>
@@ -40227,7 +40221,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="338" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>5093</v>
       </c>
@@ -40259,7 +40253,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="339" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
         <v>5093</v>
       </c>
@@ -40291,7 +40285,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="340" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
         <v>5093</v>
       </c>
@@ -40323,7 +40317,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="341" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
         <v>5093</v>
       </c>
@@ -40355,7 +40349,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="342" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>5093</v>
       </c>
@@ -40387,7 +40381,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="343" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>5093</v>
       </c>
@@ -40419,7 +40413,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="344" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
         <v>5093</v>
       </c>
@@ -40451,7 +40445,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="345" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
         <v>5093</v>
       </c>
@@ -40483,7 +40477,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="346" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
         <v>5093</v>
       </c>
@@ -40515,7 +40509,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="347" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
         <v>5093</v>
       </c>
@@ -40547,7 +40541,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="348" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
         <v>5093</v>
       </c>
@@ -40579,7 +40573,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="349" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
         <v>5093</v>
       </c>
@@ -40611,7 +40605,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="350" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
         <v>5093</v>
       </c>
@@ -40646,7 +40640,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="351" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
         <v>5093</v>
       </c>
@@ -40678,7 +40672,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="352" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B352" s="4"/>
       <c r="D352" t="s">
         <v>14</v>
@@ -40710,9 +40704,8 @@
       <c r="R352" t="s">
         <v>6737</v>
       </c>
-      <c r="BD352" s="17"/>
-    </row>
-    <row r="353" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B353" s="4"/>
       <c r="D353" t="s">
         <v>14</v>
@@ -40744,9 +40737,8 @@
       <c r="R353" t="s">
         <v>6854</v>
       </c>
-      <c r="BD353" s="17"/>
-    </row>
-    <row r="354" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B354" s="4"/>
       <c r="D354" t="s">
         <v>14</v>
@@ -40779,7 +40771,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="355" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="D355" t="s">
         <v>14</v>
@@ -40812,7 +40804,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="356" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B356" s="4"/>
       <c r="D356" t="s">
         <v>14</v>
@@ -40845,7 +40837,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="357" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B357" s="4"/>
       <c r="D357" t="s">
         <v>14</v>
@@ -40878,7 +40870,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="358" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B358" s="4"/>
       <c r="D358" t="s">
         <v>14</v>
@@ -40911,7 +40903,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="359" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
       <c r="D359" t="s">
         <v>14</v>
@@ -40944,7 +40936,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="360" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B360" s="4"/>
       <c r="D360" t="s">
         <v>14</v>
@@ -40977,7 +40969,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="361" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B361" s="4"/>
       <c r="D361" t="s">
         <v>14</v>
@@ -41010,7 +41002,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="362" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B362" s="4"/>
       <c r="D362" t="s">
         <v>14</v>
@@ -41043,7 +41035,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="363" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B363" s="4"/>
       <c r="D363" t="s">
         <v>14</v>
@@ -41076,7 +41068,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="364" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B364" s="4"/>
       <c r="D364" t="s">
         <v>14</v>
@@ -41109,7 +41101,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="365" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B365" s="4"/>
       <c r="D365" t="s">
         <v>14</v>
@@ -41142,7 +41134,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="366" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B366" s="4"/>
       <c r="D366" t="s">
         <v>14</v>
@@ -41175,7 +41167,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="367" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B367" s="4"/>
       <c r="D367" t="s">
         <v>14</v>
@@ -41208,7 +41200,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="368" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B368" s="4"/>
       <c r="D368" t="s">
         <v>14</v>
@@ -46860,7 +46852,7 @@
       <c r="R538" t="s">
         <v>4825</v>
       </c>
-      <c r="X538" s="17"/>
+      <c r="X538"/>
     </row>
     <row r="539" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B539" s="4"/>
@@ -46993,7 +46985,7 @@
       <c r="R542" t="s">
         <v>4825</v>
       </c>
-      <c r="X542" s="17"/>
+      <c r="X542"/>
     </row>
     <row r="543" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B543" s="4"/>
@@ -79949,7 +79941,6 @@
       <c r="R1746" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1746" s="17"/>
     </row>
     <row r="1747" spans="2:56" x14ac:dyDescent="0.25">
       <c r="D1747" t="s">
@@ -79982,7 +79973,6 @@
       <c r="R1747" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1747" s="17"/>
     </row>
     <row r="1748" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1748" s="4"/>
@@ -80016,7 +80006,6 @@
       <c r="R1748" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1748" s="17"/>
     </row>
     <row r="1749" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1749" s="4"/>
@@ -80050,7 +80039,6 @@
       <c r="R1749" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1749" s="17"/>
     </row>
     <row r="1750" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1750" s="4"/>
@@ -80117,7 +80105,6 @@
       <c r="R1751" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1751" s="17"/>
     </row>
     <row r="1752" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1752" s="4"/>
@@ -80151,7 +80138,6 @@
       <c r="R1752" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1752" s="17"/>
     </row>
     <row r="1753" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1753" s="4"/>
@@ -80185,7 +80171,6 @@
       <c r="R1753" t="s">
         <v>6046</v>
       </c>
-      <c r="BD1753" s="17"/>
     </row>
     <row r="1754" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1754" s="4"/>
@@ -80219,7 +80204,6 @@
       <c r="R1754" t="s">
         <v>6046</v>
       </c>
-      <c r="BD1754" s="17"/>
     </row>
     <row r="1755" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1755" s="4"/>
@@ -80253,7 +80237,6 @@
       <c r="R1755" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1755" s="17"/>
     </row>
     <row r="1756" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1756" s="4"/>
@@ -80287,7 +80270,6 @@
       <c r="R1756" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1756" s="17"/>
     </row>
     <row r="1757" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1757" s="4"/>
@@ -80321,7 +80303,6 @@
       <c r="R1757" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1757" s="17"/>
     </row>
     <row r="1758" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1758" s="4"/>
@@ -80358,7 +80339,6 @@
       <c r="R1758" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1758" s="17"/>
     </row>
     <row r="1759" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1759" s="4"/>
@@ -80392,7 +80372,6 @@
       <c r="R1759" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1759" s="17"/>
     </row>
     <row r="1760" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B1760" s="4"/>
@@ -80426,9 +80405,8 @@
       <c r="R1760" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1760" s="17"/>
-    </row>
-    <row r="1761" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1761" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1761" s="4"/>
       <c r="D1761" t="s">
         <v>4344</v>
@@ -80460,9 +80438,8 @@
       <c r="R1761" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1761" s="17"/>
-    </row>
-    <row r="1762" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1762" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1762" s="4"/>
       <c r="D1762" t="s">
         <v>4344</v>
@@ -80494,9 +80471,8 @@
       <c r="R1762" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1762" s="17"/>
-    </row>
-    <row r="1763" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1763" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1763" s="4"/>
       <c r="D1763" t="s">
         <v>4344</v>
@@ -80528,9 +80504,8 @@
       <c r="R1763" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1763" s="17"/>
-    </row>
-    <row r="1764" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1764" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1764" s="4"/>
       <c r="D1764" t="s">
         <v>4344</v>
@@ -80562,9 +80537,8 @@
       <c r="R1764" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1764" s="17"/>
-    </row>
-    <row r="1765" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1765" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1765" s="4"/>
       <c r="D1765" t="s">
         <v>4568</v>
@@ -80596,9 +80570,8 @@
       <c r="R1765" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1765" s="17"/>
-    </row>
-    <row r="1766" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1766" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1766" s="4"/>
       <c r="D1766" t="s">
         <v>4568</v>
@@ -80630,9 +80603,8 @@
       <c r="R1766" t="s">
         <v>6046</v>
       </c>
-      <c r="BD1766" s="17"/>
-    </row>
-    <row r="1767" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1767" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1767" s="4"/>
       <c r="D1767" t="s">
         <v>4568</v>
@@ -80664,9 +80636,8 @@
       <c r="R1767" t="s">
         <v>6046</v>
       </c>
-      <c r="BD1767" s="17"/>
-    </row>
-    <row r="1768" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1768" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1768" s="4"/>
       <c r="D1768" t="s">
         <v>4568</v>
@@ -80698,9 +80669,8 @@
       <c r="R1768" t="s">
         <v>6046</v>
       </c>
-      <c r="BD1768" s="17"/>
-    </row>
-    <row r="1769" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1769" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1769" s="4"/>
       <c r="D1769" t="s">
         <v>391</v>
@@ -80735,9 +80705,8 @@
       <c r="R1769" t="s">
         <v>4833</v>
       </c>
-      <c r="BD1769" s="17"/>
-    </row>
-    <row r="1770" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1770" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1770" s="4"/>
       <c r="D1770" t="s">
         <v>606</v>
@@ -80769,9 +80738,8 @@
       <c r="R1770" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1770" s="17"/>
-    </row>
-    <row r="1771" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1771" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1771" s="4"/>
       <c r="D1771" t="s">
         <v>606</v>
@@ -80806,9 +80774,8 @@
       <c r="R1771" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1771" s="17"/>
-    </row>
-    <row r="1772" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1772" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1772" s="4"/>
       <c r="D1772" t="s">
         <v>795</v>
@@ -80843,9 +80810,8 @@
       <c r="R1772" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1772" s="17"/>
-    </row>
-    <row r="1773" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1773" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1773" s="4"/>
       <c r="D1773" t="s">
         <v>795</v>
@@ -80880,9 +80846,8 @@
       <c r="R1773" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1773" s="17"/>
-    </row>
-    <row r="1774" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1774" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1774" s="4"/>
       <c r="D1774" t="s">
         <v>795</v>
@@ -80917,9 +80882,8 @@
       <c r="R1774" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1774" s="17"/>
-    </row>
-    <row r="1775" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1775" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1775" s="4"/>
       <c r="D1775" t="s">
         <v>978</v>
@@ -80954,9 +80918,8 @@
       <c r="R1775" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1775" s="17"/>
-    </row>
-    <row r="1776" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1776" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1776" s="4"/>
       <c r="D1776" t="s">
         <v>978</v>
@@ -80991,9 +80954,8 @@
       <c r="R1776" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1776" s="17"/>
-    </row>
-    <row r="1777" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1777" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1777" s="4"/>
       <c r="D1777" t="s">
         <v>978</v>
@@ -81028,9 +80990,8 @@
       <c r="R1777" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1777" s="17"/>
-    </row>
-    <row r="1778" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1778" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1778" s="4"/>
       <c r="D1778" t="s">
         <v>978</v>
@@ -81062,9 +81023,8 @@
       <c r="R1778" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1778" s="17"/>
-    </row>
-    <row r="1779" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1779" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1779" s="4"/>
       <c r="D1779" t="s">
         <v>978</v>
@@ -81096,9 +81056,8 @@
       <c r="R1779" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1779" s="17"/>
-    </row>
-    <row r="1780" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1780" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1780" s="4"/>
       <c r="D1780" t="s">
         <v>978</v>
@@ -81130,9 +81089,8 @@
       <c r="R1780" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1780" s="17"/>
-    </row>
-    <row r="1781" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1781" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1781" s="4"/>
       <c r="D1781" t="s">
         <v>978</v>
@@ -81164,9 +81122,8 @@
       <c r="R1781" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1781" s="17"/>
-    </row>
-    <row r="1782" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1782" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1782" s="4"/>
       <c r="D1782" t="s">
         <v>978</v>
@@ -81198,9 +81155,8 @@
       <c r="R1782" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1782" s="17"/>
-    </row>
-    <row r="1783" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1783" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1783" s="4"/>
       <c r="D1783" t="s">
         <v>978</v>
@@ -81232,9 +81188,8 @@
       <c r="R1783" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1783" s="17"/>
-    </row>
-    <row r="1784" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1784" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1784" s="4"/>
       <c r="D1784" t="s">
         <v>978</v>
@@ -81266,9 +81221,8 @@
       <c r="R1784" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1784" s="17"/>
-    </row>
-    <row r="1785" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1785" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1785" s="4"/>
       <c r="D1785" t="s">
         <v>978</v>
@@ -81300,9 +81254,8 @@
       <c r="R1785" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1785" s="17"/>
-    </row>
-    <row r="1786" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1786" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1786" s="4"/>
       <c r="D1786" t="s">
         <v>978</v>
@@ -81337,9 +81290,8 @@
       <c r="R1786" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1786" s="17"/>
-    </row>
-    <row r="1787" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1787" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1787" s="4"/>
       <c r="D1787" t="s">
         <v>978</v>
@@ -81374,9 +81326,8 @@
       <c r="R1787" t="s">
         <v>4825</v>
       </c>
-      <c r="BD1787" s="17"/>
-    </row>
-    <row r="1788" spans="2:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1788" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1788" s="4"/>
       <c r="D1788" t="s">
         <v>1225</v>
@@ -81409,7 +81360,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="1789" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="1789" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1789" s="4"/>
       <c r="D1789" t="s">
         <v>1225</v>
@@ -81442,7 +81393,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="1790" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="1790" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1790" s="4"/>
       <c r="D1790" t="s">
         <v>1225</v>
@@ -81475,7 +81426,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="1791" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="1791" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1791" s="4"/>
       <c r="D1791" t="s">
         <v>1225</v>
@@ -81508,7 +81459,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="1792" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="1792" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D1792" t="s">
         <v>1225</v>
       </c>
@@ -95534,7 +95485,7 @@
       <c r="O2267" t="s">
         <v>4081</v>
       </c>
-      <c r="X2267" s="17"/>
+      <c r="X2267"/>
     </row>
     <row r="2268" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D2268" t="s">

--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53BE016-CEC4-6249-B587-E83877FF579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5E751-3BDE-A443-A521-6BE299867F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20960" yWindow="-580" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14889" uniqueCount="7926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15081" uniqueCount="8019">
   <si>
     <t>ID</t>
   </si>
@@ -23829,12 +23829,291 @@
   <si>
     <t>i. R.</t>
   </si>
+  <si>
+    <t>Emais</t>
+  </si>
+  <si>
+    <t>Brömbär, Brombeer</t>
+  </si>
+  <si>
+    <t>Endefawwel</t>
+  </si>
+  <si>
+    <t>Mugg</t>
+  </si>
+  <si>
+    <t>Umd</t>
+  </si>
+  <si>
+    <t>Gagummere &lt;(grosse)&gt;, Gornijon &lt;(Cornichon)&gt;</t>
+  </si>
+  <si>
+    <t>Budde &lt;(Mehrzahl)&gt;, Budd &lt;(Einz)&gt;</t>
+  </si>
+  <si>
+    <t>Guggelhohn, Gockler, Hu[n]n</t>
+  </si>
+  <si>
+    <t>Mülwurf</t>
+  </si>
+  <si>
+    <t>Ka[o]tzemoller</t>
+  </si>
+  <si>
+    <t>Mu(o)r</t>
+  </si>
+  <si>
+    <t>Gaischol</t>
+  </si>
+  <si>
+    <t>Pflü[e]m</t>
+  </si>
+  <si>
+    <t>Spätz</t>
+  </si>
+  <si>
+    <t>Striggnodl</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssel, Kaffeeetäß</t>
+  </si>
+  <si>
+    <t>Dellerle</t>
+  </si>
+  <si>
+    <t>Håfe, Hafen, Růtschhåfe</t>
+  </si>
+  <si>
+    <t>zweje, zweigen</t>
+  </si>
+  <si>
+    <t>Gais &lt;(kleine: Ziggele)&gt;</t>
+  </si>
+  <si>
+    <t>u. Elsass</t>
+  </si>
+  <si>
+    <t>Hartmann</t>
+  </si>
+  <si>
+    <t>d-P</t>
+  </si>
+  <si>
+    <t>Āmais</t>
+  </si>
+  <si>
+    <t>Licht ([D]')</t>
+  </si>
+  <si>
+    <t>Brombär</t>
+  </si>
+  <si>
+    <t>Odsel (d')</t>
+  </si>
+  <si>
+    <t>Ant (d')</t>
+  </si>
+  <si>
+    <t>Graummer</t>
+  </si>
+  <si>
+    <t>Kuttelhohn, Glück ([D]'), Hüë ([D]')</t>
+  </si>
+  <si>
+    <t>Hewom</t>
+  </si>
+  <si>
+    <t>Kātzemolle</t>
+  </si>
+  <si>
+    <t>Mühlwalfer</t>
+  </si>
+  <si>
+    <t>Mohr (e)</t>
+  </si>
+  <si>
+    <t>Gaischtl</t>
+  </si>
+  <si>
+    <t>dewere</t>
+  </si>
+  <si>
+    <t>Spotz</t>
+  </si>
+  <si>
+    <t>Grüselsbär</t>
+  </si>
+  <si>
+    <t>Nodel ([D]')</t>
+  </si>
+  <si>
+    <t>Ho[a]fe</t>
+  </si>
+  <si>
+    <t>zwëje</t>
+  </si>
+  <si>
+    <t>Bruchral</t>
+  </si>
+  <si>
+    <t>Westermann</t>
+  </si>
+  <si>
+    <t>[M]eibsheim</t>
+  </si>
+  <si>
+    <t>d-R</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Brumle</t>
+  </si>
+  <si>
+    <t>Aotzel</t>
+  </si>
+  <si>
+    <t>Entefaūel</t>
+  </si>
+  <si>
+    <t>Ommet</t>
+  </si>
+  <si>
+    <t>Gagūmmer</t>
+  </si>
+  <si>
+    <t>Kuttler, Glück</t>
+  </si>
+  <si>
+    <t>Heewamm</t>
+  </si>
+  <si>
+    <t>Kruckbeer</t>
+  </si>
+  <si>
+    <t>Mülwälfer</t>
+  </si>
+  <si>
+    <t>Gaischel</t>
+  </si>
+  <si>
+    <t>Spaotz</t>
+  </si>
+  <si>
+    <t>Krüßelbeer</t>
+  </si>
+  <si>
+    <t>Gūff</t>
+  </si>
+  <si>
+    <t>Stricknoddel</t>
+  </si>
+  <si>
+    <t>Ha[a]fe</t>
+  </si>
+  <si>
+    <t>eile</t>
+  </si>
+  <si>
+    <t>Geisz</t>
+  </si>
+  <si>
+    <t>[B]laūs</t>
+  </si>
+  <si>
+    <t>e-d</t>
+  </si>
+  <si>
+    <t>Brummbär</t>
+  </si>
+  <si>
+    <t>Andev[ü]jel</t>
+  </si>
+  <si>
+    <t>Fladdermüß</t>
+  </si>
+  <si>
+    <t>Ummt</t>
+  </si>
+  <si>
+    <t>Hahn, Hüen</t>
+  </si>
+  <si>
+    <t>Grummbäre</t>
+  </si>
+  <si>
+    <t>Katzemolerd</t>
+  </si>
+  <si>
+    <t>Mülwalver</t>
+  </si>
+  <si>
+    <t>Stachelpalm</t>
+  </si>
+  <si>
+    <t>Schessele</t>
+  </si>
+  <si>
+    <t>Dalerle</t>
+  </si>
+  <si>
+    <t>Hafe</t>
+  </si>
+  <si>
+    <t>Merz</t>
+  </si>
+  <si>
+    <t>[N]eidenstein</t>
+  </si>
+  <si>
+    <t>Baden Sins[h]eim</t>
+  </si>
+  <si>
+    <t>Schülerin [Magdalena] Schmitt</t>
+  </si>
+  <si>
+    <t>d-S</t>
+  </si>
+  <si>
+    <t>Dasselbe {vorherige Zeile: Sa[n]gessel}</t>
+  </si>
+  <si>
+    <t>Ante, [W]awel</t>
+  </si>
+  <si>
+    <t>Flattermaus</t>
+  </si>
+  <si>
+    <t>Kutler, Glück, Hühn</t>
+  </si>
+  <si>
+    <t>Molert</t>
+  </si>
+  <si>
+    <t>Suh[erhr]utsguf</t>
+  </si>
+  <si>
+    <t>Taß, Tassel</t>
+  </si>
+  <si>
+    <t>zwiege {es steht noch ein anderes Wort (Brunsmuck) dabei, da wurde sich in der Zeile vertan}</t>
+  </si>
+  <si>
+    <t>[Kattendemf] Heinrich</t>
+  </si>
+  <si>
+    <t>Zaber[m]</t>
+  </si>
+  <si>
+    <t>Bürgermeister</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -23882,6 +24161,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -23952,7 +24238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -23970,8 +24256,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24271,15 +24556,14 @@
   <dimension ref="A1:BE2566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2221" sqref="B2221"/>
+      <pane ySplit="1" topLeftCell="A2213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2226" sqref="T2226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="20" max="20" width="29.83203125" customWidth="1"/>
     <col min="24" max="24" width="11.5" style="9"/>
-    <col min="51" max="52" width="11.5" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.2">
@@ -24433,10 +24717,10 @@
       <c r="AX1" s="1" t="s">
         <v>6815</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AY1" s="1" t="s">
         <v>6822</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>6816</v>
       </c>
       <c r="BA1" s="1" t="s">
@@ -24534,7 +24818,7 @@
       <c r="AA2" t="s">
         <v>6942</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" t="s">
         <v>7403</v>
       </c>
       <c r="AC2" t="s">
@@ -24567,7 +24851,7 @@
       <c r="AL2" t="s">
         <v>7508</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" t="s">
         <v>7716</v>
       </c>
       <c r="AN2">
@@ -24576,7 +24860,7 @@
       <c r="AP2" t="s">
         <v>7510</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AQ2" t="s">
         <v>7717</v>
       </c>
       <c r="AR2" t="s">
@@ -24585,7 +24869,7 @@
       <c r="AS2" t="s">
         <v>7511</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" t="s">
         <v>7229</v>
       </c>
       <c r="AU2" t="s">
@@ -24600,19 +24884,19 @@
       <c r="AX2" t="s">
         <v>6964</v>
       </c>
-      <c r="AY2" s="17">
+      <c r="AY2">
         <v>999</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" t="s">
         <v>7515</v>
       </c>
       <c r="BA2">
         <v>999</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BB2" t="s">
         <v>7718</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BC2" t="s">
         <v>7719</v>
       </c>
       <c r="BD2" s="5" t="s">
@@ -24767,10 +25051,10 @@
       <c r="AX3" t="s">
         <v>6964</v>
       </c>
-      <c r="AY3" s="17" t="s">
+      <c r="AY3" t="s">
         <v>6965</v>
       </c>
-      <c r="AZ3" s="17" t="s">
+      <c r="AZ3" t="s">
         <v>6966</v>
       </c>
       <c r="BA3" t="s">
@@ -24838,7 +25122,7 @@
       <c r="R4" t="s">
         <v>6827</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" t="s">
         <v>7720</v>
       </c>
       <c r="T4" t="s">
@@ -24859,7 +25143,7 @@
       <c r="Y4" t="s">
         <v>7001</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" t="s">
         <v>7480</v>
       </c>
       <c r="AA4" t="s">
@@ -24931,10 +25215,10 @@
       <c r="AX4" t="s">
         <v>6993</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="AY4">
         <v>999</v>
       </c>
-      <c r="AZ4" s="17" t="s">
+      <c r="AZ4" t="s">
         <v>6965</v>
       </c>
       <c r="BA4" t="s">
@@ -25095,10 +25379,10 @@
       <c r="AX5" t="s">
         <v>6993</v>
       </c>
-      <c r="AY5" s="17">
+      <c r="AY5">
         <v>999</v>
       </c>
-      <c r="AZ5" s="17" t="s">
+      <c r="AZ5" t="s">
         <v>6994</v>
       </c>
       <c r="BA5">
@@ -25184,10 +25468,10 @@
       <c r="X6" s="9">
         <v>999</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" t="s">
         <v>7721</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" t="s">
         <v>7714</v>
       </c>
       <c r="AA6" t="s">
@@ -25217,7 +25501,7 @@
       <c r="AI6" t="s">
         <v>7534</v>
       </c>
-      <c r="AJ6" s="17" t="s">
+      <c r="AJ6" t="s">
         <v>7722</v>
       </c>
       <c r="AK6" t="s">
@@ -25259,10 +25543,10 @@
       <c r="AX6" t="s">
         <v>6993</v>
       </c>
-      <c r="AY6" s="17">
+      <c r="AY6">
         <v>999</v>
       </c>
-      <c r="AZ6" s="17" t="s">
+      <c r="AZ6" t="s">
         <v>7447</v>
       </c>
       <c r="BA6" t="s">
@@ -25271,7 +25555,7 @@
       <c r="BB6" t="s">
         <v>7711</v>
       </c>
-      <c r="BC6" s="17" t="s">
+      <c r="BC6" t="s">
         <v>7715</v>
       </c>
       <c r="BD6" s="5" t="s">
@@ -25426,10 +25710,10 @@
       <c r="AX7" t="s">
         <v>7023</v>
       </c>
-      <c r="AY7" s="17">
+      <c r="AY7">
         <v>999</v>
       </c>
-      <c r="AZ7" s="17" t="s">
+      <c r="AZ7" t="s">
         <v>7024</v>
       </c>
       <c r="BA7">
@@ -25593,10 +25877,10 @@
       <c r="AX8" t="s">
         <v>7047</v>
       </c>
-      <c r="AY8" s="17">
+      <c r="AY8">
         <v>999</v>
       </c>
-      <c r="AZ8" s="17" t="s">
+      <c r="AZ8" t="s">
         <v>7048</v>
       </c>
       <c r="BA8">
@@ -25760,10 +26044,10 @@
       <c r="AX9" t="s">
         <v>7297</v>
       </c>
-      <c r="AY9" s="17">
+      <c r="AY9">
         <v>999</v>
       </c>
-      <c r="AZ9" s="17" t="s">
+      <c r="AZ9" t="s">
         <v>6965</v>
       </c>
       <c r="BA9">
@@ -25924,10 +26208,10 @@
       <c r="AX10" t="s">
         <v>7207</v>
       </c>
-      <c r="AY10" s="17">
+      <c r="AY10">
         <v>999</v>
       </c>
-      <c r="AZ10" s="17" t="s">
+      <c r="AZ10" t="s">
         <v>7397</v>
       </c>
       <c r="BA10">
@@ -26088,10 +26372,10 @@
       <c r="AX11" t="s">
         <v>7077</v>
       </c>
-      <c r="AY11" s="17">
+      <c r="AY11">
         <v>999</v>
       </c>
-      <c r="AZ11" s="17" t="s">
+      <c r="AZ11" t="s">
         <v>6965</v>
       </c>
       <c r="BA11">
@@ -26252,10 +26536,10 @@
       <c r="AX12" t="s">
         <v>7433</v>
       </c>
-      <c r="AY12" s="17">
+      <c r="AY12">
         <v>999</v>
       </c>
-      <c r="AZ12" s="17" t="s">
+      <c r="AZ12" t="s">
         <v>7560</v>
       </c>
       <c r="BA12" t="s">
@@ -26326,7 +26610,7 @@
       <c r="S13" t="s">
         <v>7449</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" t="s">
         <v>5885</v>
       </c>
       <c r="U13">
@@ -26341,7 +26625,7 @@
       <c r="X13" s="9" t="s">
         <v>7450</v>
       </c>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" t="s">
         <v>7723</v>
       </c>
       <c r="Z13" t="s">
@@ -26362,7 +26646,7 @@
       <c r="AE13" t="s">
         <v>7712</v>
       </c>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" t="s">
         <v>7724</v>
       </c>
       <c r="AG13" t="s">
@@ -26380,7 +26664,7 @@
       <c r="AK13" t="s">
         <v>7441</v>
       </c>
-      <c r="AL13" s="17" t="s">
+      <c r="AL13" t="s">
         <v>7725</v>
       </c>
       <c r="AM13" t="s">
@@ -26416,22 +26700,22 @@
       <c r="AX13" t="s">
         <v>7445</v>
       </c>
-      <c r="AY13" s="17">
+      <c r="AY13">
         <v>999</v>
       </c>
-      <c r="AZ13" s="17" t="s">
+      <c r="AZ13" t="s">
         <v>7447</v>
       </c>
       <c r="BA13">
         <v>999</v>
       </c>
-      <c r="BB13" s="17" t="s">
+      <c r="BB13" t="s">
         <v>7726</v>
       </c>
       <c r="BC13" t="s">
         <v>7448</v>
       </c>
-      <c r="BD13" s="17" t="s">
+      <c r="BD13" t="s">
         <v>7727</v>
       </c>
     </row>
@@ -26505,7 +26789,7 @@
       <c r="X14" s="9" t="s">
         <v>7468</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" t="s">
         <v>7728</v>
       </c>
       <c r="Z14" t="s">
@@ -26523,16 +26807,16 @@
       <c r="AD14" t="s">
         <v>7454</v>
       </c>
-      <c r="AE14" s="17" t="s">
+      <c r="AE14" t="s">
         <v>7729</v>
       </c>
-      <c r="AF14" s="17" t="s">
+      <c r="AF14" t="s">
         <v>7724</v>
       </c>
-      <c r="AG14" s="17" t="s">
+      <c r="AG14" t="s">
         <v>7440</v>
       </c>
-      <c r="AH14" s="17" t="s">
+      <c r="AH14" t="s">
         <v>7730</v>
       </c>
       <c r="AI14" t="s">
@@ -26571,7 +26855,7 @@
       <c r="AU14" t="s">
         <v>6893</v>
       </c>
-      <c r="AV14" s="17" t="s">
+      <c r="AV14" t="s">
         <v>7731</v>
       </c>
       <c r="AW14" t="s">
@@ -26580,10 +26864,10 @@
       <c r="AX14" t="s">
         <v>7445</v>
       </c>
-      <c r="AY14" s="17">
+      <c r="AY14">
         <v>999</v>
       </c>
-      <c r="AZ14" s="17" t="s">
+      <c r="AZ14" t="s">
         <v>7713</v>
       </c>
       <c r="BA14">
@@ -26744,10 +27028,10 @@
       <c r="AX15" t="s">
         <v>6993</v>
       </c>
-      <c r="AY15" s="17">
+      <c r="AY15">
         <v>999</v>
       </c>
-      <c r="AZ15" s="17" t="s">
+      <c r="AZ15" t="s">
         <v>7024</v>
       </c>
       <c r="BA15">
@@ -26908,10 +27192,10 @@
       <c r="AX16" t="s">
         <v>6993</v>
       </c>
-      <c r="AY16" s="17">
+      <c r="AY16">
         <v>999</v>
       </c>
-      <c r="AZ16" s="17" t="s">
+      <c r="AZ16" t="s">
         <v>7024</v>
       </c>
       <c r="BA16">
@@ -27072,10 +27356,10 @@
       <c r="AX17" t="s">
         <v>6993</v>
       </c>
-      <c r="AY17" s="17">
+      <c r="AY17">
         <v>999</v>
       </c>
-      <c r="AZ17" s="17" t="s">
+      <c r="AZ17" t="s">
         <v>7024</v>
       </c>
       <c r="BA17">
@@ -27239,10 +27523,10 @@
       <c r="AX18" t="s">
         <v>7556</v>
       </c>
-      <c r="AY18" s="17">
+      <c r="AY18">
         <v>999</v>
       </c>
-      <c r="AZ18" s="17" t="s">
+      <c r="AZ18" t="s">
         <v>7557</v>
       </c>
       <c r="BA18" t="s">
@@ -27403,10 +27687,10 @@
       <c r="AX19" t="s">
         <v>7576</v>
       </c>
-      <c r="AY19" s="17">
+      <c r="AY19">
         <v>999</v>
       </c>
-      <c r="AZ19" s="17" t="s">
+      <c r="AZ19" t="s">
         <v>7577</v>
       </c>
       <c r="BA19">
@@ -27567,10 +27851,10 @@
       <c r="AX20" t="s">
         <v>7077</v>
       </c>
-      <c r="AY20" s="17">
+      <c r="AY20">
         <v>999</v>
       </c>
-      <c r="AZ20" s="17" t="s">
+      <c r="AZ20" t="s">
         <v>6965</v>
       </c>
       <c r="BA20">
@@ -27731,10 +28015,10 @@
       <c r="AX21" t="s">
         <v>7607</v>
       </c>
-      <c r="AY21" s="17">
+      <c r="AY21">
         <v>999</v>
       </c>
-      <c r="AZ21" s="17" t="s">
+      <c r="AZ21" t="s">
         <v>7608</v>
       </c>
       <c r="BA21">
@@ -27895,10 +28179,10 @@
       <c r="AX22" t="s">
         <v>7077</v>
       </c>
-      <c r="AY22" s="17">
+      <c r="AY22">
         <v>999</v>
       </c>
-      <c r="AZ22" s="17" t="s">
+      <c r="AZ22" t="s">
         <v>6965</v>
       </c>
       <c r="BA22" t="s">
@@ -28059,10 +28343,10 @@
       <c r="AX23" t="s">
         <v>6964</v>
       </c>
-      <c r="AY23" s="17">
+      <c r="AY23">
         <v>999</v>
       </c>
-      <c r="AZ23" s="17" t="s">
+      <c r="AZ23" t="s">
         <v>7641</v>
       </c>
       <c r="BA23">
@@ -28223,10 +28507,10 @@
       <c r="AX24" t="s">
         <v>6993</v>
       </c>
-      <c r="AY24" s="17">
+      <c r="AY24">
         <v>999</v>
       </c>
-      <c r="AZ24" s="17" t="s">
+      <c r="AZ24" t="s">
         <v>7024</v>
       </c>
       <c r="BA24">
@@ -28387,10 +28671,10 @@
       <c r="AX25" t="s">
         <v>6993</v>
       </c>
-      <c r="AY25" s="17">
+      <c r="AY25">
         <v>999</v>
       </c>
-      <c r="AZ25" s="17" t="s">
+      <c r="AZ25" t="s">
         <v>7665</v>
       </c>
       <c r="BA25" t="s">
@@ -28551,10 +28835,10 @@
       <c r="AX26" t="s">
         <v>7077</v>
       </c>
-      <c r="AY26" s="17">
+      <c r="AY26">
         <v>999</v>
       </c>
-      <c r="AZ26" s="17" t="s">
+      <c r="AZ26" t="s">
         <v>6965</v>
       </c>
       <c r="BA26" t="s">
@@ -28715,10 +28999,10 @@
       <c r="AX27" t="s">
         <v>7685</v>
       </c>
-      <c r="AY27" s="17">
+      <c r="AY27">
         <v>999</v>
       </c>
-      <c r="AZ27" s="17" t="s">
+      <c r="AZ27" t="s">
         <v>7024</v>
       </c>
       <c r="BA27">
@@ -28879,10 +29163,10 @@
       <c r="AX28" t="s">
         <v>7702</v>
       </c>
-      <c r="AY28" s="17">
+      <c r="AY28">
         <v>999</v>
       </c>
-      <c r="AZ28" s="17" t="s">
+      <c r="AZ28" t="s">
         <v>7608</v>
       </c>
       <c r="BA28">
@@ -29043,10 +29327,10 @@
       <c r="AX29">
         <v>999</v>
       </c>
-      <c r="AY29" s="17">
+      <c r="AY29">
         <v>999</v>
       </c>
-      <c r="AZ29" s="17">
+      <c r="AZ29">
         <v>999</v>
       </c>
       <c r="BA29">
@@ -29207,10 +29491,10 @@
       <c r="AX30" t="s">
         <v>6925</v>
       </c>
-      <c r="AY30" s="17">
+      <c r="AY30">
         <v>999</v>
       </c>
-      <c r="AZ30" s="17" t="s">
+      <c r="AZ30" t="s">
         <v>6926</v>
       </c>
       <c r="BA30" t="s">
@@ -29371,10 +29655,10 @@
       <c r="AX31" t="s">
         <v>7077</v>
       </c>
-      <c r="AY31" s="17">
+      <c r="AY31">
         <v>999</v>
       </c>
-      <c r="AZ31" s="17" t="s">
+      <c r="AZ31" t="s">
         <v>7078</v>
       </c>
       <c r="BA31" t="s">
@@ -29535,10 +29819,10 @@
       <c r="AX32" t="s">
         <v>6964</v>
       </c>
-      <c r="AY32" s="17">
+      <c r="AY32">
         <v>999</v>
       </c>
-      <c r="AZ32" s="17" t="s">
+      <c r="AZ32" t="s">
         <v>6994</v>
       </c>
       <c r="BA32">
@@ -29702,10 +29986,10 @@
       <c r="AX33">
         <v>999</v>
       </c>
-      <c r="AY33" s="17">
+      <c r="AY33">
         <v>999</v>
       </c>
-      <c r="AZ33" s="17" t="s">
+      <c r="AZ33" t="s">
         <v>7118</v>
       </c>
       <c r="BA33" t="s">
@@ -29866,10 +30150,10 @@
       <c r="AX34" t="s">
         <v>6993</v>
       </c>
-      <c r="AY34" s="17">
+      <c r="AY34">
         <v>999</v>
       </c>
-      <c r="AZ34" s="17" t="s">
+      <c r="AZ34" t="s">
         <v>7136</v>
       </c>
       <c r="BA34">
@@ -30033,10 +30317,10 @@
       <c r="AX35" t="s">
         <v>7165</v>
       </c>
-      <c r="AY35" s="17">
+      <c r="AY35">
         <v>999</v>
       </c>
-      <c r="AZ35" s="17" t="s">
+      <c r="AZ35" t="s">
         <v>7166</v>
       </c>
       <c r="BA35" t="s">
@@ -30197,10 +30481,10 @@
       <c r="AX36" t="s">
         <v>6993</v>
       </c>
-      <c r="AY36" s="17">
+      <c r="AY36">
         <v>999</v>
       </c>
-      <c r="AZ36" s="17" t="s">
+      <c r="AZ36" t="s">
         <v>7024</v>
       </c>
       <c r="BA36">
@@ -30361,10 +30645,10 @@
       <c r="AX37" t="s">
         <v>7207</v>
       </c>
-      <c r="AY37" s="17">
+      <c r="AY37">
         <v>999</v>
       </c>
-      <c r="AZ37" s="17" t="s">
+      <c r="AZ37" t="s">
         <v>7024</v>
       </c>
       <c r="BA37">
@@ -30528,10 +30812,10 @@
       <c r="AX38" t="s">
         <v>7233</v>
       </c>
-      <c r="AY38" s="17">
+      <c r="AY38">
         <v>999</v>
       </c>
-      <c r="AZ38" s="17" t="s">
+      <c r="AZ38" t="s">
         <v>7234</v>
       </c>
       <c r="BA38" t="s">
@@ -30692,10 +30976,10 @@
       <c r="AX39" t="s">
         <v>6993</v>
       </c>
-      <c r="AY39" s="17">
+      <c r="AY39">
         <v>999</v>
       </c>
-      <c r="AZ39" s="17" t="s">
+      <c r="AZ39" t="s">
         <v>7024</v>
       </c>
       <c r="BA39">
@@ -30859,10 +31143,10 @@
       <c r="AX40" t="s">
         <v>7077</v>
       </c>
-      <c r="AY40" s="17">
+      <c r="AY40">
         <v>999</v>
       </c>
-      <c r="AZ40" s="17" t="s">
+      <c r="AZ40" t="s">
         <v>7273</v>
       </c>
       <c r="BA40">
@@ -31023,10 +31307,10 @@
       <c r="AX41" t="s">
         <v>7297</v>
       </c>
-      <c r="AY41" s="17">
+      <c r="AY41">
         <v>999</v>
       </c>
-      <c r="AZ41" s="17" t="s">
+      <c r="AZ41" t="s">
         <v>7353</v>
       </c>
       <c r="BA41">
@@ -31190,10 +31474,10 @@
       <c r="AX42" t="s">
         <v>6993</v>
       </c>
-      <c r="AY42" s="17">
+      <c r="AY42">
         <v>999</v>
       </c>
-      <c r="AZ42" s="17" t="s">
+      <c r="AZ42" t="s">
         <v>7320</v>
       </c>
       <c r="BA42" t="s">
@@ -31354,10 +31638,10 @@
       <c r="AX43" t="s">
         <v>7297</v>
       </c>
-      <c r="AY43" s="17">
+      <c r="AY43">
         <v>999</v>
       </c>
-      <c r="AZ43" s="17" t="s">
+      <c r="AZ43" t="s">
         <v>7343</v>
       </c>
       <c r="BA43" t="s">
@@ -94707,10 +94991,10 @@
       <c r="AX2210" t="s">
         <v>7742</v>
       </c>
-      <c r="AY2210" s="17">
+      <c r="AY2210">
         <v>999</v>
       </c>
-      <c r="AZ2210" s="17" t="s">
+      <c r="AZ2210" t="s">
         <v>7743</v>
       </c>
       <c r="BA2210">
@@ -94871,22 +95155,22 @@
       <c r="AX2211" t="s">
         <v>7077</v>
       </c>
-      <c r="AY2211" s="17">
+      <c r="AY2211">
         <v>999</v>
       </c>
-      <c r="AZ2211" s="17" t="s">
+      <c r="AZ2211" t="s">
         <v>7755</v>
       </c>
-      <c r="BA2211" s="17" t="s">
+      <c r="BA2211" t="s">
         <v>7559</v>
       </c>
-      <c r="BB2211" s="17" t="s">
+      <c r="BB2211" t="s">
         <v>7578</v>
       </c>
-      <c r="BC2211" s="17" t="s">
+      <c r="BC2211" t="s">
         <v>7137</v>
       </c>
-      <c r="BD2211" s="17" t="s">
+      <c r="BD2211" t="s">
         <v>6970</v>
       </c>
     </row>
@@ -95035,22 +95319,22 @@
       <c r="AX2212" t="s">
         <v>7773</v>
       </c>
-      <c r="AY2212" s="17">
+      <c r="AY2212">
         <v>999</v>
       </c>
-      <c r="AZ2212" s="17" t="s">
+      <c r="AZ2212" t="s">
         <v>7775</v>
       </c>
-      <c r="BA2212" s="17" t="s">
+      <c r="BA2212" t="s">
         <v>7774</v>
       </c>
-      <c r="BB2212" s="17" t="s">
+      <c r="BB2212" t="s">
         <v>7776</v>
       </c>
-      <c r="BC2212" s="17" t="s">
+      <c r="BC2212" t="s">
         <v>6996</v>
       </c>
-      <c r="BD2212" s="17" t="s">
+      <c r="BD2212" t="s">
         <v>7189</v>
       </c>
     </row>
@@ -95199,22 +95483,22 @@
       <c r="AX2213" t="s">
         <v>7792</v>
       </c>
-      <c r="AY2213" s="17">
+      <c r="AY2213">
         <v>999</v>
       </c>
-      <c r="AZ2213" s="17" t="s">
+      <c r="AZ2213" t="s">
         <v>7793</v>
       </c>
       <c r="BA2213">
         <v>999</v>
       </c>
-      <c r="BB2213" s="17" t="s">
+      <c r="BB2213" t="s">
         <v>7794</v>
       </c>
-      <c r="BC2213" s="17" t="s">
+      <c r="BC2213" t="s">
         <v>6996</v>
       </c>
-      <c r="BD2213" s="17" t="s">
+      <c r="BD2213" t="s">
         <v>6930</v>
       </c>
     </row>
@@ -95363,22 +95647,22 @@
       <c r="AX2214" t="s">
         <v>7297</v>
       </c>
-      <c r="AY2214" s="17">
+      <c r="AY2214">
         <v>999</v>
       </c>
-      <c r="AZ2214" s="17" t="s">
+      <c r="AZ2214" t="s">
         <v>7343</v>
       </c>
       <c r="BA2214">
         <v>999</v>
       </c>
-      <c r="BB2214" s="17" t="s">
+      <c r="BB2214" t="s">
         <v>7804</v>
       </c>
-      <c r="BC2214" s="17" t="s">
+      <c r="BC2214" t="s">
         <v>6996</v>
       </c>
-      <c r="BD2214" s="17" t="s">
+      <c r="BD2214" t="s">
         <v>6970</v>
       </c>
     </row>
@@ -95527,22 +95811,22 @@
       <c r="AX2215" t="s">
         <v>7820</v>
       </c>
-      <c r="AY2215" s="17">
+      <c r="AY2215">
         <v>999</v>
       </c>
-      <c r="AZ2215" s="17" t="s">
+      <c r="AZ2215" t="s">
         <v>7821</v>
       </c>
       <c r="BA2215">
         <v>999</v>
       </c>
-      <c r="BB2215" s="17" t="s">
+      <c r="BB2215" t="s">
         <v>7822</v>
       </c>
-      <c r="BC2215" s="17" t="s">
+      <c r="BC2215" t="s">
         <v>7823</v>
       </c>
-      <c r="BD2215" s="17" t="s">
+      <c r="BD2215" t="s">
         <v>7436</v>
       </c>
     </row>
@@ -95688,22 +95972,22 @@
       <c r="AX2216" t="s">
         <v>7837</v>
       </c>
-      <c r="AY2216" s="17">
+      <c r="AY2216">
         <v>999</v>
       </c>
-      <c r="AZ2216" s="17" t="s">
+      <c r="AZ2216" t="s">
         <v>7838</v>
       </c>
       <c r="BA2216">
         <v>999</v>
       </c>
-      <c r="BB2216" s="17" t="s">
+      <c r="BB2216" t="s">
         <v>7839</v>
       </c>
-      <c r="BC2216" s="17" t="s">
+      <c r="BC2216" t="s">
         <v>6969</v>
       </c>
-      <c r="BD2216" s="17" t="s">
+      <c r="BD2216" t="s">
         <v>6930</v>
       </c>
     </row>
@@ -95852,22 +96136,22 @@
       <c r="AX2217" t="s">
         <v>7858</v>
       </c>
-      <c r="AY2217" s="17">
+      <c r="AY2217">
         <v>999</v>
       </c>
-      <c r="AZ2217" s="17" t="s">
+      <c r="AZ2217" t="s">
         <v>7859</v>
       </c>
-      <c r="BA2217" s="17" t="s">
+      <c r="BA2217" t="s">
         <v>7860</v>
       </c>
-      <c r="BB2217" s="17" t="s">
+      <c r="BB2217" t="s">
         <v>7861</v>
       </c>
-      <c r="BC2217" s="17" t="s">
+      <c r="BC2217" t="s">
         <v>6969</v>
       </c>
-      <c r="BD2217" s="17" t="s">
+      <c r="BD2217" t="s">
         <v>7862</v>
       </c>
     </row>
@@ -96016,22 +96300,22 @@
       <c r="AX2218" t="s">
         <v>7880</v>
       </c>
-      <c r="AY2218" s="17">
+      <c r="AY2218">
         <v>999</v>
       </c>
-      <c r="AZ2218" s="17" t="s">
+      <c r="AZ2218" t="s">
         <v>7881</v>
       </c>
-      <c r="BA2218" s="17">
+      <c r="BA2218">
         <v>999</v>
       </c>
-      <c r="BB2218" s="17" t="s">
+      <c r="BB2218" t="s">
         <v>7322</v>
       </c>
-      <c r="BC2218" s="17" t="s">
+      <c r="BC2218" t="s">
         <v>6996</v>
       </c>
-      <c r="BD2218" s="17" t="s">
+      <c r="BD2218" t="s">
         <v>6930</v>
       </c>
     </row>
@@ -96180,22 +96464,22 @@
       <c r="AX2219" t="s">
         <v>7894</v>
       </c>
-      <c r="AY2219" s="17">
+      <c r="AY2219">
         <v>999</v>
       </c>
-      <c r="AZ2219" s="17" t="s">
+      <c r="AZ2219" t="s">
         <v>7859</v>
       </c>
-      <c r="BA2219" s="17">
+      <c r="BA2219">
         <v>999</v>
       </c>
-      <c r="BB2219" s="17" t="s">
+      <c r="BB2219" t="s">
         <v>7895</v>
       </c>
-      <c r="BC2219" s="17" t="s">
+      <c r="BC2219" t="s">
         <v>6996</v>
       </c>
-      <c r="BD2219" s="17" t="s">
+      <c r="BD2219" t="s">
         <v>7896</v>
       </c>
     </row>
@@ -96344,22 +96628,22 @@
       <c r="AX2220" t="s">
         <v>7445</v>
       </c>
-      <c r="AY2220" s="17">
+      <c r="AY2220">
         <v>999</v>
       </c>
-      <c r="AZ2220" s="17" t="s">
+      <c r="AZ2220" t="s">
         <v>7447</v>
       </c>
-      <c r="BA2220" s="17">
+      <c r="BA2220">
         <v>999</v>
       </c>
-      <c r="BB2220" s="17" t="s">
+      <c r="BB2220" t="s">
         <v>6895</v>
       </c>
-      <c r="BC2220" s="17" t="s">
+      <c r="BC2220" t="s">
         <v>6896</v>
       </c>
-      <c r="BD2220" s="17" t="s">
+      <c r="BD2220" t="s">
         <v>6897</v>
       </c>
     </row>
@@ -96508,26 +96792,32 @@
       <c r="AX2221" t="s">
         <v>7920</v>
       </c>
-      <c r="AY2221" s="17" t="s">
+      <c r="AY2221">
+        <v>999</v>
+      </c>
+      <c r="AZ2221" t="s">
         <v>7921</v>
       </c>
-      <c r="AZ2221" s="17">
+      <c r="BA2221">
         <v>999</v>
       </c>
-      <c r="BA2221" s="17">
-        <v>999</v>
-      </c>
-      <c r="BB2221" s="17" t="s">
+      <c r="BB2221" t="s">
         <v>7922</v>
       </c>
-      <c r="BC2221" s="17" t="s">
+      <c r="BC2221" t="s">
         <v>7923</v>
       </c>
-      <c r="BD2221" s="17" t="s">
+      <c r="BD2221" t="s">
         <v>6897</v>
       </c>
     </row>
     <row r="2222" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2222" s="4">
+        <v>44968</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2222" t="s">
         <v>3835</v>
       </c>
@@ -96549,11 +96839,149 @@
       <c r="J2222">
         <v>48.871569999999998</v>
       </c>
+      <c r="K2222" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2222">
+        <v>25</v>
+      </c>
+      <c r="M2222">
+        <v>48.5</v>
+      </c>
+      <c r="N2222" t="s">
+        <v>7907</v>
+      </c>
       <c r="O2222" t="s">
         <v>3947</v>
       </c>
+      <c r="P2222">
+        <v>999</v>
+      </c>
+      <c r="Q2222" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2222" t="s">
+        <v>7946</v>
+      </c>
+      <c r="S2222" t="s">
+        <v>7947</v>
+      </c>
+      <c r="T2222" t="s">
+        <v>5657</v>
+      </c>
+      <c r="U2222">
+        <v>999</v>
+      </c>
+      <c r="V2222">
+        <v>999</v>
+      </c>
+      <c r="W2222" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2222" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2222" t="s">
+        <v>7926</v>
+      </c>
+      <c r="Z2222" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2222" t="s">
+        <v>7927</v>
+      </c>
+      <c r="AB2222" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2222" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2222" t="s">
+        <v>7928</v>
+      </c>
+      <c r="AE2222" t="s">
+        <v>7217</v>
+      </c>
+      <c r="AF2222" t="s">
+        <v>7929</v>
+      </c>
+      <c r="AG2222" t="s">
+        <v>7930</v>
+      </c>
+      <c r="AH2222" t="s">
+        <v>7931</v>
+      </c>
+      <c r="AI2222" t="s">
+        <v>7932</v>
+      </c>
+      <c r="AJ2222" t="s">
+        <v>7933</v>
+      </c>
+      <c r="AK2222" t="s">
+        <v>7600</v>
+      </c>
+      <c r="AL2222" t="s">
+        <v>7572</v>
+      </c>
+      <c r="AM2222" s="17" t="s">
+        <v>7935</v>
+      </c>
+      <c r="AN2222" t="s">
+        <v>7934</v>
+      </c>
+      <c r="AP2222" s="13" t="s">
+        <v>7936</v>
+      </c>
+      <c r="AQ2222" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AR2222" t="s">
+        <v>7937</v>
+      </c>
+      <c r="AS2222" s="13" t="s">
+        <v>7938</v>
+      </c>
+      <c r="AT2222" t="s">
+        <v>7229</v>
+      </c>
+      <c r="AU2222" t="s">
+        <v>7939</v>
+      </c>
+      <c r="AV2222" t="s">
+        <v>7819</v>
+      </c>
+      <c r="AW2222" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2222" t="s">
+        <v>7940</v>
+      </c>
+      <c r="AY2222">
+        <v>999</v>
+      </c>
+      <c r="AZ2222" t="s">
+        <v>7941</v>
+      </c>
+      <c r="BA2222" t="s">
+        <v>7942</v>
+      </c>
+      <c r="BB2222" t="s">
+        <v>7943</v>
+      </c>
+      <c r="BC2222" t="s">
+        <v>7944</v>
+      </c>
+      <c r="BD2222" t="s">
+        <v>7945</v>
+      </c>
     </row>
     <row r="2223" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2223" s="4">
+        <v>44968</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2223" t="s">
         <v>3835</v>
       </c>
@@ -96575,11 +97003,149 @@
       <c r="J2223">
         <v>48.905679999999997</v>
       </c>
+      <c r="K2223" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2223">
+        <v>25.1</v>
+      </c>
+      <c r="M2223">
+        <v>48.5</v>
+      </c>
+      <c r="N2223" t="s">
+        <v>7948</v>
+      </c>
       <c r="O2223" t="s">
         <v>3951</v>
       </c>
+      <c r="P2223">
+        <v>999</v>
+      </c>
+      <c r="Q2223" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2223" t="s">
+        <v>6762</v>
+      </c>
+      <c r="S2223" t="s">
+        <v>7968</v>
+      </c>
+      <c r="T2223" t="s">
+        <v>7969</v>
+      </c>
+      <c r="U2223" t="s">
+        <v>7967</v>
+      </c>
+      <c r="V2223">
+        <v>999</v>
+      </c>
+      <c r="W2223" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2223" s="9" t="s">
+        <v>7968</v>
+      </c>
+      <c r="Y2223" t="s">
+        <v>7949</v>
+      </c>
+      <c r="Z2223" t="s">
+        <v>7950</v>
+      </c>
+      <c r="AA2223" t="s">
+        <v>7951</v>
+      </c>
+      <c r="AB2223" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2223" t="s">
+        <v>7952</v>
+      </c>
+      <c r="AD2223" t="s">
+        <v>7953</v>
+      </c>
+      <c r="AE2223" t="s">
+        <v>7886</v>
+      </c>
+      <c r="AF2223" t="s">
+        <v>7406</v>
+      </c>
+      <c r="AG2223" t="s">
+        <v>7367</v>
+      </c>
+      <c r="AH2223" t="s">
+        <v>7954</v>
+      </c>
+      <c r="AI2223" t="s">
+        <v>7570</v>
+      </c>
+      <c r="AJ2223" t="s">
+        <v>7955</v>
+      </c>
+      <c r="AK2223" t="s">
+        <v>7956</v>
+      </c>
+      <c r="AL2223" t="s">
+        <v>7572</v>
+      </c>
+      <c r="AM2223" t="s">
+        <v>7957</v>
+      </c>
+      <c r="AN2223" t="s">
+        <v>7958</v>
+      </c>
+      <c r="AP2223" t="s">
+        <v>7959</v>
+      </c>
+      <c r="AQ2223" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AR2223" t="s">
+        <v>7960</v>
+      </c>
+      <c r="AS2223" t="s">
+        <v>7891</v>
+      </c>
+      <c r="AT2223" t="s">
+        <v>7961</v>
+      </c>
+      <c r="AU2223" t="s">
+        <v>7962</v>
+      </c>
+      <c r="AV2223" t="s">
+        <v>7963</v>
+      </c>
+      <c r="AW2223" t="s">
+        <v>7964</v>
+      </c>
+      <c r="AX2223" t="s">
+        <v>7556</v>
+      </c>
+      <c r="AY2223">
+        <v>999</v>
+      </c>
+      <c r="AZ2223" t="s">
+        <v>7515</v>
+      </c>
+      <c r="BA2223">
+        <v>999</v>
+      </c>
+      <c r="BB2223" s="13" t="s">
+        <v>7965</v>
+      </c>
+      <c r="BC2223" t="s">
+        <v>7966</v>
+      </c>
+      <c r="BD2223" t="s">
+        <v>7579</v>
+      </c>
     </row>
     <row r="2224" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2224" s="4">
+        <v>44968</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2224" t="s">
         <v>3835</v>
       </c>
@@ -96601,11 +97167,149 @@
       <c r="J2224">
         <v>48.893009999999997</v>
       </c>
+      <c r="K2224" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2224">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M2224">
+        <v>48.5</v>
+      </c>
+      <c r="N2224" t="s">
+        <v>7970</v>
+      </c>
       <c r="O2224" t="s">
         <v>3954</v>
       </c>
-    </row>
-    <row r="2225" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2224">
+        <v>999</v>
+      </c>
+      <c r="Q2224" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2224">
+        <v>999</v>
+      </c>
+      <c r="S2224" t="s">
+        <v>7989</v>
+      </c>
+      <c r="T2224" t="s">
+        <v>4720</v>
+      </c>
+      <c r="U2224">
+        <v>999</v>
+      </c>
+      <c r="V2224">
+        <v>999</v>
+      </c>
+      <c r="W2224" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2224" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2224" t="s">
+        <v>7213</v>
+      </c>
+      <c r="Z2224" t="s">
+        <v>7971</v>
+      </c>
+      <c r="AA2224" t="s">
+        <v>7972</v>
+      </c>
+      <c r="AB2224" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2224" t="s">
+        <v>7973</v>
+      </c>
+      <c r="AD2224" t="s">
+        <v>7974</v>
+      </c>
+      <c r="AE2224" t="s">
+        <v>7217</v>
+      </c>
+      <c r="AF2224" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2224" t="s">
+        <v>7975</v>
+      </c>
+      <c r="AH2224" t="s">
+        <v>7976</v>
+      </c>
+      <c r="AI2224" t="s">
+        <v>7219</v>
+      </c>
+      <c r="AJ2224" t="s">
+        <v>7977</v>
+      </c>
+      <c r="AK2224" t="s">
+        <v>7978</v>
+      </c>
+      <c r="AL2224" t="s">
+        <v>7979</v>
+      </c>
+      <c r="AM2224" t="s">
+        <v>7223</v>
+      </c>
+      <c r="AN2224" t="s">
+        <v>7980</v>
+      </c>
+      <c r="AP2224" t="s">
+        <v>7551</v>
+      </c>
+      <c r="AQ2224" t="s">
+        <v>7226</v>
+      </c>
+      <c r="AR2224" t="s">
+        <v>7981</v>
+      </c>
+      <c r="AS2224" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2224" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2224" t="s">
+        <v>7982</v>
+      </c>
+      <c r="AV2224" t="s">
+        <v>7983</v>
+      </c>
+      <c r="AW2224" t="s">
+        <v>7984</v>
+      </c>
+      <c r="AX2224" t="s">
+        <v>7985</v>
+      </c>
+      <c r="AY2224">
+        <v>999</v>
+      </c>
+      <c r="AZ2224" t="s">
+        <v>7673</v>
+      </c>
+      <c r="BA2224">
+        <v>999</v>
+      </c>
+      <c r="BB2224" t="s">
+        <v>7986</v>
+      </c>
+      <c r="BC2224" t="s">
+        <v>7987</v>
+      </c>
+      <c r="BD2224" t="s">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="2225" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2225" s="4">
+        <v>44968</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2225" t="s">
         <v>3835</v>
       </c>
@@ -96627,11 +97331,149 @@
       <c r="J2225">
         <v>48.905439999999999</v>
       </c>
+      <c r="K2225" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2225">
+        <v>25.1</v>
+      </c>
+      <c r="M2225">
+        <v>48.5</v>
+      </c>
+      <c r="N2225" t="s">
+        <v>7990</v>
+      </c>
       <c r="O2225" t="s">
         <v>3957</v>
       </c>
-    </row>
-    <row r="2226" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2225">
+        <v>999</v>
+      </c>
+      <c r="Q2225" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2225" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2225" t="s">
+        <v>8003</v>
+      </c>
+      <c r="T2225" t="s">
+        <v>8004</v>
+      </c>
+      <c r="U2225" t="s">
+        <v>8005</v>
+      </c>
+      <c r="V2225">
+        <v>999</v>
+      </c>
+      <c r="W2225" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2225" s="9" t="s">
+        <v>8006</v>
+      </c>
+      <c r="Y2225" t="s">
+        <v>7808</v>
+      </c>
+      <c r="Z2225" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2225" t="s">
+        <v>7991</v>
+      </c>
+      <c r="AB2225" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2225" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2225" t="s">
+        <v>7992</v>
+      </c>
+      <c r="AE2225" t="s">
+        <v>7993</v>
+      </c>
+      <c r="AF2225" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2225" t="s">
+        <v>7994</v>
+      </c>
+      <c r="AH2225" t="s">
+        <v>7546</v>
+      </c>
+      <c r="AI2225" t="s">
+        <v>7570</v>
+      </c>
+      <c r="AJ2225" t="s">
+        <v>7995</v>
+      </c>
+      <c r="AK2225" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2225" t="s">
+        <v>7996</v>
+      </c>
+      <c r="AM2225" t="s">
+        <v>7997</v>
+      </c>
+      <c r="AN2225" t="s">
+        <v>7998</v>
+      </c>
+      <c r="AP2225" t="s">
+        <v>7801</v>
+      </c>
+      <c r="AQ2225" t="s">
+        <v>7226</v>
+      </c>
+      <c r="AR2225" t="s">
+        <v>7553</v>
+      </c>
+      <c r="AS2225" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2225" t="s">
+        <v>7185</v>
+      </c>
+      <c r="AU2225" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2225" t="s">
+        <v>7999</v>
+      </c>
+      <c r="AW2225" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2225" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2225">
+        <v>999</v>
+      </c>
+      <c r="AZ2225" t="s">
+        <v>8000</v>
+      </c>
+      <c r="BA2225" t="s">
+        <v>8001</v>
+      </c>
+      <c r="BB2225" t="s">
+        <v>8002</v>
+      </c>
+      <c r="BC2225" t="s">
+        <v>6996</v>
+      </c>
+      <c r="BD2225" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="2226" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B2226" s="4">
+        <v>44968</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2226" t="s">
         <v>3835</v>
       </c>
@@ -96653,11 +97495,143 @@
       <c r="J2226">
         <v>48.882260000000002</v>
       </c>
+      <c r="K2226" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2226">
+        <v>25.1</v>
+      </c>
+      <c r="M2226">
+        <v>48.5</v>
+      </c>
+      <c r="N2226" t="s">
+        <v>8007</v>
+      </c>
       <c r="O2226" t="s">
         <v>3963</v>
       </c>
-    </row>
-    <row r="2227" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="P2226">
+        <v>999</v>
+      </c>
+      <c r="Q2226" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2226" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2226" t="s">
+        <v>8016</v>
+      </c>
+      <c r="T2226" t="s">
+        <v>3837</v>
+      </c>
+      <c r="U2226" t="s">
+        <v>8017</v>
+      </c>
+      <c r="V2226">
+        <v>9999</v>
+      </c>
+      <c r="W2226" t="s">
+        <v>7564</v>
+      </c>
+      <c r="X2226" s="9" t="s">
+        <v>8018</v>
+      </c>
+      <c r="Y2226" t="s">
+        <v>7808</v>
+      </c>
+      <c r="Z2226" t="s">
+        <v>7971</v>
+      </c>
+      <c r="AA2226" t="s">
+        <v>8008</v>
+      </c>
+      <c r="AB2226" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2226" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2226" t="s">
+        <v>8009</v>
+      </c>
+      <c r="AE2226" t="s">
+        <v>8010</v>
+      </c>
+      <c r="AF2226" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2226" t="s">
+        <v>7497</v>
+      </c>
+      <c r="AH2226" t="s">
+        <v>7010</v>
+      </c>
+      <c r="AI2226" t="s">
+        <v>7219</v>
+      </c>
+      <c r="AJ2226" t="s">
+        <v>8011</v>
+      </c>
+      <c r="AK2226" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2226" t="s">
+        <v>6953</v>
+      </c>
+      <c r="AM2226" t="s">
+        <v>8012</v>
+      </c>
+      <c r="AN2226" t="s">
+        <v>7832</v>
+      </c>
+      <c r="AP2226" t="s">
+        <v>7801</v>
+      </c>
+      <c r="AQ2226" t="s">
+        <v>6957</v>
+      </c>
+      <c r="AR2226" t="s">
+        <v>7553</v>
+      </c>
+      <c r="AS2226" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2226" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2226" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2226" t="s">
+        <v>7754</v>
+      </c>
+      <c r="AW2226" s="13" t="s">
+        <v>8013</v>
+      </c>
+      <c r="AX2226" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2226">
+        <v>999</v>
+      </c>
+      <c r="AZ2226" t="s">
+        <v>8014</v>
+      </c>
+      <c r="BA2226">
+        <v>999</v>
+      </c>
+      <c r="BB2226" t="s">
+        <v>8002</v>
+      </c>
+      <c r="BC2226" t="s">
+        <v>8015</v>
+      </c>
+      <c r="BD2226" t="s">
+        <v>7579</v>
+      </c>
+    </row>
+    <row r="2227" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2227" t="s">
         <v>3835</v>
       </c>
@@ -96683,7 +97657,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="2228" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2228" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2228" t="s">
         <v>3835</v>
       </c>
@@ -96709,7 +97683,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="2229" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2229" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2229" t="s">
         <v>3835</v>
       </c>
@@ -96735,7 +97709,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="2230" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2230" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2230" t="s">
         <v>3835</v>
       </c>
@@ -96761,7 +97735,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="2231" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2231" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2231" t="s">
         <v>3835</v>
       </c>
@@ -96787,7 +97761,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="2232" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2232" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2232" t="s">
         <v>3835</v>
       </c>
@@ -96813,7 +97787,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="2233" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2233" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2233" t="s">
         <v>3835</v>
       </c>
@@ -96839,7 +97813,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="2234" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2234" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2234" t="s">
         <v>3835</v>
       </c>
@@ -96865,7 +97839,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="2235" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2235" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2235" t="s">
         <v>3835</v>
       </c>
@@ -96891,7 +97865,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="2236" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2236" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2236" t="s">
         <v>3835</v>
       </c>
@@ -96917,7 +97891,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="2237" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2237" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2237" t="s">
         <v>3835</v>
       </c>
@@ -96943,7 +97917,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="2238" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2238" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2238" t="s">
         <v>3835</v>
       </c>
@@ -96969,7 +97943,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="2239" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2239" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2239" t="s">
         <v>3835</v>
       </c>
@@ -96995,7 +97969,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="2240" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="2240" spans="2:56" x14ac:dyDescent="0.2">
       <c r="D2240" t="s">
         <v>3835</v>
       </c>

--- a/Data/DWA_full_JR.xlsx
+++ b/Data/DWA_full_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5E751-3BDE-A443-A521-6BE299867F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70C365-676C-4B4F-8CB7-01CBB62C7780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20960" yWindow="-580" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15081" uniqueCount="8019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15563" uniqueCount="8248">
   <si>
     <t>ID</t>
   </si>
@@ -24107,6 +24107,693 @@
   </si>
   <si>
     <t>Bürgermeister</t>
+  </si>
+  <si>
+    <t>d-T</t>
+  </si>
+  <si>
+    <t>And[ev]awl (m)</t>
+  </si>
+  <si>
+    <t>Kuttlhahn (m), Hü[e]n (w)</t>
+  </si>
+  <si>
+    <t>Hewwamm (w)</t>
+  </si>
+  <si>
+    <t>Grumbir (w)</t>
+  </si>
+  <si>
+    <t>Mühlwalfer (m)</t>
+  </si>
+  <si>
+    <t>Muhr (w)</t>
+  </si>
+  <si>
+    <t>Pfedd[r] (m)</t>
+  </si>
+  <si>
+    <t>Geischl (w)</t>
+  </si>
+  <si>
+    <t>Kruslsbeer (w)</t>
+  </si>
+  <si>
+    <t>Schtricknoodl (w)</t>
+  </si>
+  <si>
+    <t>Schüssl (w)</t>
+  </si>
+  <si>
+    <t>Heinrich Schönig</t>
+  </si>
+  <si>
+    <t>e-b</t>
+  </si>
+  <si>
+    <t>Brumbär</t>
+  </si>
+  <si>
+    <t>Atsel</t>
+  </si>
+  <si>
+    <t>[D]ischel &lt;helles i&gt;</t>
+  </si>
+  <si>
+    <t>Antefavel</t>
+  </si>
+  <si>
+    <t>Fladdermüs</t>
+  </si>
+  <si>
+    <t>Gudelhahn, Glügg</t>
+  </si>
+  <si>
+    <t>Hewāmm</t>
+  </si>
+  <si>
+    <t>Gaïschel</t>
+  </si>
+  <si>
+    <t>Sperleng</t>
+  </si>
+  <si>
+    <t>Grüdelsbär</t>
+  </si>
+  <si>
+    <t>Streknodel</t>
+  </si>
+  <si>
+    <t>S[eeh]erheitsnodel</t>
+  </si>
+  <si>
+    <t>Ta[u]ss</t>
+  </si>
+  <si>
+    <t>erdener Ha[u]fe</t>
+  </si>
+  <si>
+    <t>Geiss {durchgestrichen &amp; unterstrichen, vermutlich wegen Zeilenchaos}</t>
+  </si>
+  <si>
+    <t>ab Bogen 4 (Nr. 162 Sperling) alles eine Zeile nach unten verrutscht)</t>
+  </si>
+  <si>
+    <t>H. Stephan</t>
+  </si>
+  <si>
+    <t>[B]</t>
+  </si>
+  <si>
+    <t>Schülerin Jung Katharina</t>
+  </si>
+  <si>
+    <t>e-c</t>
+  </si>
+  <si>
+    <t>Andevöjel, Andekuder</t>
+  </si>
+  <si>
+    <t>Mück (a)</t>
+  </si>
+  <si>
+    <t>Oumd</t>
+  </si>
+  <si>
+    <t>Ga͡ogummer</t>
+  </si>
+  <si>
+    <t>Hewa͡omm</t>
+  </si>
+  <si>
+    <t>Kuddelha͡ohn, Glück</t>
+  </si>
+  <si>
+    <t>Grumbär</t>
+  </si>
+  <si>
+    <t>Ka͡otzemollert</t>
+  </si>
+  <si>
+    <t>Mülwal[v]er</t>
+  </si>
+  <si>
+    <t>Mour</t>
+  </si>
+  <si>
+    <t>Pfedder (de)</t>
+  </si>
+  <si>
+    <t>Spa͡otz</t>
+  </si>
+  <si>
+    <t>Grüßelsbärn</t>
+  </si>
+  <si>
+    <t>Steggnodel</t>
+  </si>
+  <si>
+    <t>Ta͡oß</t>
+  </si>
+  <si>
+    <t>erdene Ha͡ofn</t>
+  </si>
+  <si>
+    <t>[E]. Waechter</t>
+  </si>
+  <si>
+    <t>St Ludwig</t>
+  </si>
+  <si>
+    <t>Engweiler Uttenhofen {Bogen 1}</t>
+  </si>
+  <si>
+    <t>d-U</t>
+  </si>
+  <si>
+    <t>Ǟmais (w)</t>
+  </si>
+  <si>
+    <t>Līcht (s)</t>
+  </si>
+  <si>
+    <t>Brommelsbäre (w)</t>
+  </si>
+  <si>
+    <t>A(o)tzl (w)</t>
+  </si>
+  <si>
+    <t>[E]ndevoigl</t>
+  </si>
+  <si>
+    <t>Fleddermǖs (w)</t>
+  </si>
+  <si>
+    <t>Muck (die)</t>
+  </si>
+  <si>
+    <t>Ommd (s)</t>
+  </si>
+  <si>
+    <t>Gögommer</t>
+  </si>
+  <si>
+    <t>Bodde (m)</t>
+  </si>
+  <si>
+    <t>Kodlhōān {Strich geht durch über oa}, Höen</t>
+  </si>
+  <si>
+    <t>Hewamm (d)</t>
+  </si>
+  <si>
+    <t>[G]rombäre</t>
+  </si>
+  <si>
+    <t>Koatzemoller</t>
+  </si>
+  <si>
+    <t>Mǖhlwelfer</t>
+  </si>
+  <si>
+    <t>Pfeddr</t>
+  </si>
+  <si>
+    <t>Gaischl</t>
+  </si>
+  <si>
+    <t>Pflǖm (w)</t>
+  </si>
+  <si>
+    <t>Schboatz</t>
+  </si>
+  <si>
+    <t>Grusselsbäre</t>
+  </si>
+  <si>
+    <t>Gouff (w)</t>
+  </si>
+  <si>
+    <t>Strecknōdl</t>
+  </si>
+  <si>
+    <t>Toass</t>
+  </si>
+  <si>
+    <t>Hoafe</t>
+  </si>
+  <si>
+    <t>zwīge, zweigen &lt;Ausdruck für veredeln unbekannt&gt;</t>
+  </si>
+  <si>
+    <t>U. Elsass</t>
+  </si>
+  <si>
+    <t>Hermann F[r]ink</t>
+  </si>
+  <si>
+    <t>d-V</t>
+  </si>
+  <si>
+    <t>Bummere (w)</t>
+  </si>
+  <si>
+    <t>Entevöjel (m)</t>
+  </si>
+  <si>
+    <t>Umt (s)</t>
+  </si>
+  <si>
+    <t>Güllerie (m), Huhn (w)</t>
+  </si>
+  <si>
+    <t>Roller (m), Moller (m)</t>
+  </si>
+  <si>
+    <t>Müllwärfer (m)</t>
+  </si>
+  <si>
+    <t>Strecknudel (w)</t>
+  </si>
+  <si>
+    <t>Teller (m)</t>
+  </si>
+  <si>
+    <t>Jung Renatus</t>
+  </si>
+  <si>
+    <t>999 {Eintrag: 30.5.99, vermutlich mit Geburtsjahr verwechselt}</t>
+  </si>
+  <si>
+    <t>d-Q</t>
+  </si>
+  <si>
+    <t>Brammbär</t>
+  </si>
+  <si>
+    <t>Dischell</t>
+  </si>
+  <si>
+    <t>Antevawell</t>
+  </si>
+  <si>
+    <t>Flāddermüs</t>
+  </si>
+  <si>
+    <t>Mŭck</t>
+  </si>
+  <si>
+    <t>Kuddelhahn, Huen</t>
+  </si>
+  <si>
+    <t>Grumbäre</t>
+  </si>
+  <si>
+    <t>Geischtl</t>
+  </si>
+  <si>
+    <t>Krüdelsbäre</t>
+  </si>
+  <si>
+    <t>Stecknodel, Gŭf</t>
+  </si>
+  <si>
+    <t>Schissel, Tass</t>
+  </si>
+  <si>
+    <t>gezwiegt</t>
+  </si>
+  <si>
+    <t>Uffweiler</t>
+  </si>
+  <si>
+    <t>Franz Wehrle</t>
+  </si>
+  <si>
+    <t>Wallbach, Hochrhein</t>
+  </si>
+  <si>
+    <t>d-[IV]</t>
+  </si>
+  <si>
+    <t>Dischel (die)</t>
+  </si>
+  <si>
+    <t>Atzel (die)</t>
+  </si>
+  <si>
+    <t>Uhmt (das)</t>
+  </si>
+  <si>
+    <t>Gag[u]mmer (die)</t>
+  </si>
+  <si>
+    <t>Güller (der), Kuttler (der), Glück (die)</t>
+  </si>
+  <si>
+    <t>Grumbeere (die)</t>
+  </si>
+  <si>
+    <t>Mollert (der)</t>
+  </si>
+  <si>
+    <t>Mur (die)</t>
+  </si>
+  <si>
+    <t>Pfetter (der)</t>
+  </si>
+  <si>
+    <t>Geischel (die)</t>
+  </si>
+  <si>
+    <t>Spatz (der)</t>
+  </si>
+  <si>
+    <t>Grüselsbeere (die)</t>
+  </si>
+  <si>
+    <t>Gůff (die)</t>
+  </si>
+  <si>
+    <t>zweien</t>
+  </si>
+  <si>
+    <t>Geis (die)</t>
+  </si>
+  <si>
+    <t>Schulleiter No[r]th</t>
+  </si>
+  <si>
+    <t>Friedrich No[r]th &lt;Schulleiter&gt;</t>
+  </si>
+  <si>
+    <t>d-Na</t>
+  </si>
+  <si>
+    <t>Amäis</t>
+  </si>
+  <si>
+    <t>Àtzel</t>
+  </si>
+  <si>
+    <t>Antvójel</t>
+  </si>
+  <si>
+    <t>Fladdermüss</t>
+  </si>
+  <si>
+    <t>Umt</t>
+  </si>
+  <si>
+    <t>Gàgummer</t>
+  </si>
+  <si>
+    <t>Hahn, Kuddler, Hüan, [G]luck</t>
+  </si>
+  <si>
+    <t>Hewàmm</t>
+  </si>
+  <si>
+    <t>Kàtzemoller</t>
+  </si>
+  <si>
+    <t>Mulwalfer</t>
+  </si>
+  <si>
+    <t>S[ä]j</t>
+  </si>
+  <si>
+    <t>Gäischel</t>
+  </si>
+  <si>
+    <t>Grüselsbeer</t>
+  </si>
+  <si>
+    <t>Stecknudel</t>
+  </si>
+  <si>
+    <t>Stricknudel</t>
+  </si>
+  <si>
+    <t>Kaffischiessel</t>
+  </si>
+  <si>
+    <t>Hàfe</t>
+  </si>
+  <si>
+    <t>Marianne Westphal</t>
+  </si>
+  <si>
+    <t>Brŏmbeer (w)</t>
+  </si>
+  <si>
+    <t>Dischel (e, w)</t>
+  </si>
+  <si>
+    <t>Atzel (e, w)</t>
+  </si>
+  <si>
+    <t>Antevöjel (en, m)</t>
+  </si>
+  <si>
+    <t>Licht (e, w)</t>
+  </si>
+  <si>
+    <t>Fladdermüs (e, w)</t>
+  </si>
+  <si>
+    <t>Muck (e, w)</t>
+  </si>
+  <si>
+    <t>Gagummer (e, w) &lt;concombre fr.&gt;</t>
+  </si>
+  <si>
+    <t>Bůdde (e, w), Bůdd (e, w)</t>
+  </si>
+  <si>
+    <t>Kuttler (e), Hüen (e)</t>
+  </si>
+  <si>
+    <t>Hewamm (d, w)</t>
+  </si>
+  <si>
+    <t>Grumbeer (e, w)</t>
+  </si>
+  <si>
+    <t>Katzemollert (e, m)</t>
+  </si>
+  <si>
+    <t>Mülmalfer (e, m)</t>
+  </si>
+  <si>
+    <t>Mo[u]hr (e, w)</t>
+  </si>
+  <si>
+    <t>Pfetter (dr, m)</t>
+  </si>
+  <si>
+    <t>Geischel (e, w)</t>
+  </si>
+  <si>
+    <t>Pflüm (e, w)</t>
+  </si>
+  <si>
+    <t>Schpa[o]tz (e, m)</t>
+  </si>
+  <si>
+    <t>Grüselsbeer (e, w)</t>
+  </si>
+  <si>
+    <t>Guff (e, w)</t>
+  </si>
+  <si>
+    <t>Tass (e, w), Schessele (e, w)</t>
+  </si>
+  <si>
+    <t>Ha[o]fe (e, m)</t>
+  </si>
+  <si>
+    <t>Gäis (e, w)</t>
+  </si>
+  <si>
+    <t>Magdalene Frantz</t>
+  </si>
+  <si>
+    <t>d-Z</t>
+  </si>
+  <si>
+    <t>Åmeis (w)</t>
+  </si>
+  <si>
+    <t>Brummber (w)</t>
+  </si>
+  <si>
+    <t>Flattermüs (w)</t>
+  </si>
+  <si>
+    <t>Gak[n]umer (w)</t>
+  </si>
+  <si>
+    <t>Güller (m), Hüen (w)</t>
+  </si>
+  <si>
+    <t>Grummb[ere] (w)</t>
+  </si>
+  <si>
+    <t>Grüselber (w)</t>
+  </si>
+  <si>
+    <t>Dass (w)</t>
+  </si>
+  <si>
+    <t>[Fe]detopf (m)</t>
+  </si>
+  <si>
+    <t>file (s)</t>
+  </si>
+  <si>
+    <t>Perrin G[awy]</t>
+  </si>
+  <si>
+    <t>Saal</t>
+  </si>
+  <si>
+    <t>d-O</t>
+  </si>
+  <si>
+    <t>Lich[t]</t>
+  </si>
+  <si>
+    <t>Pfrumbeere</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Mu[?]g</t>
+  </si>
+  <si>
+    <t>Kuddelhahn, Hüehn</t>
+  </si>
+  <si>
+    <t>Grummbeere</t>
+  </si>
+  <si>
+    <t>Mül[w]alfer</t>
+  </si>
+  <si>
+    <t>Schbaz</t>
+  </si>
+  <si>
+    <t>Mo[u]r</t>
+  </si>
+  <si>
+    <t>Grüßalbeere</t>
+  </si>
+  <si>
+    <t>Heimlich Georg</t>
+  </si>
+  <si>
+    <t>d-X</t>
+  </si>
+  <si>
+    <t>Bru[o]mbär</t>
+  </si>
+  <si>
+    <t>[E]lschter</t>
+  </si>
+  <si>
+    <t>Ändrich</t>
+  </si>
+  <si>
+    <t>Ga[o]gummer</t>
+  </si>
+  <si>
+    <t>Bŭdde</t>
+  </si>
+  <si>
+    <t>Ha[o]hn, Gogl, Bibl</t>
+  </si>
+  <si>
+    <t>Grŭmbär</t>
+  </si>
+  <si>
+    <t>Katzeroller</t>
+  </si>
+  <si>
+    <t>Mülw[ur]f</t>
+  </si>
+  <si>
+    <t>Spa[o]tz</t>
+  </si>
+  <si>
+    <t>Krüsselsbäre</t>
+  </si>
+  <si>
+    <t>[D]a[o]n, groß: Soll</t>
+  </si>
+  <si>
+    <t>Ha[o]fe</t>
+  </si>
+  <si>
+    <t>Land Elsass</t>
+  </si>
+  <si>
+    <t>[K]eim [?]</t>
+  </si>
+  <si>
+    <t>Elfriede Hild</t>
+  </si>
+  <si>
+    <t>e-a</t>
+  </si>
+  <si>
+    <t>Ameisle</t>
+  </si>
+  <si>
+    <t>Ante[v]öjel</t>
+  </si>
+  <si>
+    <t>Fladermüß</t>
+  </si>
+  <si>
+    <t>Uhmt</t>
+  </si>
+  <si>
+    <t>Butt €</t>
+  </si>
+  <si>
+    <t>Hāhn, Hüehn</t>
+  </si>
+  <si>
+    <t>M[u]r €</t>
+  </si>
+  <si>
+    <t>Pflümm</t>
+  </si>
+  <si>
+    <t>Spātz</t>
+  </si>
+  <si>
+    <t>Guff (e)</t>
+  </si>
+  <si>
+    <t>Strecknudel</t>
+  </si>
+  <si>
+    <t>Tassel (e)</t>
+  </si>
+  <si>
+    <t>Tallerle (e)</t>
+  </si>
+  <si>
+    <t>Hafe (e)</t>
+  </si>
+  <si>
+    <t>ejle, zwihe</t>
+  </si>
+  <si>
+    <t>Krämer R[?]</t>
   </si>
 </sst>
 </file>
@@ -24238,7 +24925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -24257,6 +24944,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24555,9 +25243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE2566"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2226" sqref="T2226"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2239" sqref="X2239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -97303,7 +97991,7 @@
         <v>7988</v>
       </c>
     </row>
-    <row r="2225" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="2225" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B2225" s="4">
         <v>44968</v>
       </c>
@@ -97467,7 +98155,7 @@
         <v>6970</v>
       </c>
     </row>
-    <row r="2226" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="2226" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B2226" s="4">
         <v>44968</v>
       </c>
@@ -97631,7 +98319,13 @@
         <v>7579</v>
       </c>
     </row>
-    <row r="2227" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="2227" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2227" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2227" t="s">
         <v>3835</v>
       </c>
@@ -97653,11 +98347,149 @@
       <c r="J2227">
         <v>48.878399999999999</v>
       </c>
+      <c r="K2227" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2227">
+        <v>25.1</v>
+      </c>
+      <c r="M2227">
+        <v>48.5</v>
+      </c>
+      <c r="N2227" t="s">
+        <v>8019</v>
+      </c>
       <c r="O2227" t="s">
         <v>3966</v>
       </c>
-    </row>
-    <row r="2228" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2227">
+        <v>999</v>
+      </c>
+      <c r="Q2227" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2227" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2227" t="s">
+        <v>8031</v>
+      </c>
+      <c r="T2227" t="s">
+        <v>5633</v>
+      </c>
+      <c r="U2227" t="s">
+        <v>4825</v>
+      </c>
+      <c r="V2227">
+        <v>999</v>
+      </c>
+      <c r="W2227" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2227" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2227" t="s">
+        <v>7123</v>
+      </c>
+      <c r="Z2227" t="s">
+        <v>6878</v>
+      </c>
+      <c r="AA2227" t="s">
+        <v>7868</v>
+      </c>
+      <c r="AB2227" t="s">
+        <v>7869</v>
+      </c>
+      <c r="AC2227" t="s">
+        <v>7259</v>
+      </c>
+      <c r="AD2227" t="s">
+        <v>8020</v>
+      </c>
+      <c r="AE2227" t="s">
+        <v>7871</v>
+      </c>
+      <c r="AF2227" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2227" t="s">
+        <v>7872</v>
+      </c>
+      <c r="AH2227" t="s">
+        <v>6884</v>
+      </c>
+      <c r="AI2227" t="s">
+        <v>7127</v>
+      </c>
+      <c r="AJ2227" t="s">
+        <v>8021</v>
+      </c>
+      <c r="AK2227" t="s">
+        <v>8022</v>
+      </c>
+      <c r="AL2227" t="s">
+        <v>8023</v>
+      </c>
+      <c r="AM2227" t="s">
+        <v>7475</v>
+      </c>
+      <c r="AN2227" t="s">
+        <v>8024</v>
+      </c>
+      <c r="AP2227" t="s">
+        <v>8025</v>
+      </c>
+      <c r="AQ2227" t="s">
+        <v>8026</v>
+      </c>
+      <c r="AR2227" t="s">
+        <v>8027</v>
+      </c>
+      <c r="AS2227" t="s">
+        <v>7204</v>
+      </c>
+      <c r="AT2227" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2227" t="s">
+        <v>6922</v>
+      </c>
+      <c r="AV2227" t="s">
+        <v>8028</v>
+      </c>
+      <c r="AW2227" t="s">
+        <v>7135</v>
+      </c>
+      <c r="AX2227" t="s">
+        <v>8029</v>
+      </c>
+      <c r="AY2227">
+        <v>999</v>
+      </c>
+      <c r="AZ2227" t="s">
+        <v>8030</v>
+      </c>
+      <c r="BA2227">
+        <v>999</v>
+      </c>
+      <c r="BB2227" t="s">
+        <v>7252</v>
+      </c>
+      <c r="BC2227" t="s">
+        <v>6969</v>
+      </c>
+      <c r="BD2227" t="s">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="2228" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2228" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2228" t="s">
         <v>3835</v>
       </c>
@@ -97679,11 +98511,152 @@
       <c r="J2228">
         <v>48.885080000000002</v>
       </c>
+      <c r="K2228" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2228">
+        <v>25.1</v>
+      </c>
+      <c r="M2228">
+        <v>48.5</v>
+      </c>
+      <c r="N2228" t="s">
+        <v>8032</v>
+      </c>
       <c r="O2228" t="s">
         <v>3969</v>
       </c>
-    </row>
-    <row r="2229" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2228">
+        <v>999</v>
+      </c>
+      <c r="Q2228" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2228">
+        <v>999</v>
+      </c>
+      <c r="S2228" t="s">
+        <v>8049</v>
+      </c>
+      <c r="T2228" t="s">
+        <v>6761</v>
+      </c>
+      <c r="U2228">
+        <v>999</v>
+      </c>
+      <c r="V2228">
+        <v>999</v>
+      </c>
+      <c r="W2228" t="s">
+        <v>8050</v>
+      </c>
+      <c r="X2228" s="9" t="s">
+        <v>8051</v>
+      </c>
+      <c r="Y2228" t="s">
+        <v>7808</v>
+      </c>
+      <c r="Z2228" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2228" t="s">
+        <v>8033</v>
+      </c>
+      <c r="AB2228" t="s">
+        <v>8035</v>
+      </c>
+      <c r="AC2228" t="s">
+        <v>8034</v>
+      </c>
+      <c r="AD2228" t="s">
+        <v>8036</v>
+      </c>
+      <c r="AE2228" t="s">
+        <v>8037</v>
+      </c>
+      <c r="AF2228" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2228" t="s">
+        <v>7781</v>
+      </c>
+      <c r="AH2228" t="s">
+        <v>7546</v>
+      </c>
+      <c r="AI2228" t="s">
+        <v>7219</v>
+      </c>
+      <c r="AJ2228" t="s">
+        <v>8038</v>
+      </c>
+      <c r="AK2228" t="s">
+        <v>8039</v>
+      </c>
+      <c r="AL2228" t="s">
+        <v>6953</v>
+      </c>
+      <c r="AM2228" t="s">
+        <v>7800</v>
+      </c>
+      <c r="AN2228" t="s">
+        <v>7832</v>
+      </c>
+      <c r="AP2228" t="s">
+        <v>7551</v>
+      </c>
+      <c r="AQ2228" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AR2228" t="s">
+        <v>8040</v>
+      </c>
+      <c r="AS2228" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2228" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2228" t="s">
+        <v>8041</v>
+      </c>
+      <c r="AV2228" t="s">
+        <v>8042</v>
+      </c>
+      <c r="AW2228" t="s">
+        <v>8044</v>
+      </c>
+      <c r="AX2228" t="s">
+        <v>8043</v>
+      </c>
+      <c r="AY2228">
+        <v>999</v>
+      </c>
+      <c r="AZ2228" t="s">
+        <v>8045</v>
+      </c>
+      <c r="BA2228">
+        <v>999</v>
+      </c>
+      <c r="BB2228" t="s">
+        <v>8046</v>
+      </c>
+      <c r="BC2228">
+        <v>999</v>
+      </c>
+      <c r="BD2228" t="s">
+        <v>8047</v>
+      </c>
+      <c r="BE2228" t="s">
+        <v>8048</v>
+      </c>
+    </row>
+    <row r="2229" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2229" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2229" t="s">
         <v>3835</v>
       </c>
@@ -97705,11 +98678,149 @@
       <c r="J2229">
         <v>48.878140000000002</v>
       </c>
+      <c r="K2229" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2229">
+        <v>25.1</v>
+      </c>
+      <c r="M2229">
+        <v>48.5</v>
+      </c>
+      <c r="N2229" t="s">
+        <v>8052</v>
+      </c>
       <c r="O2229" t="s">
         <v>3972</v>
       </c>
-    </row>
-    <row r="2230" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2229" t="s">
+        <v>8071</v>
+      </c>
+      <c r="Q2229" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2229" t="s">
+        <v>6737</v>
+      </c>
+      <c r="S2229" t="s">
+        <v>8069</v>
+      </c>
+      <c r="T2229" t="s">
+        <v>8070</v>
+      </c>
+      <c r="U2229">
+        <v>999</v>
+      </c>
+      <c r="V2229">
+        <v>999</v>
+      </c>
+      <c r="W2229" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2229" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2229" t="s">
+        <v>7808</v>
+      </c>
+      <c r="Z2229" t="s">
+        <v>7971</v>
+      </c>
+      <c r="AA2229" t="s">
+        <v>7991</v>
+      </c>
+      <c r="AB2229" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2229" t="s">
+        <v>7596</v>
+      </c>
+      <c r="AD2229" t="s">
+        <v>8053</v>
+      </c>
+      <c r="AE2229" t="s">
+        <v>8037</v>
+      </c>
+      <c r="AF2229" t="s">
+        <v>8054</v>
+      </c>
+      <c r="AG2229" t="s">
+        <v>8055</v>
+      </c>
+      <c r="AH2229" t="s">
+        <v>8056</v>
+      </c>
+      <c r="AI2229" t="s">
+        <v>7219</v>
+      </c>
+      <c r="AJ2229" t="s">
+        <v>8058</v>
+      </c>
+      <c r="AK2229" t="s">
+        <v>8057</v>
+      </c>
+      <c r="AL2229" t="s">
+        <v>8059</v>
+      </c>
+      <c r="AM2229" t="s">
+        <v>8060</v>
+      </c>
+      <c r="AN2229" t="s">
+        <v>8061</v>
+      </c>
+      <c r="AP2229" t="s">
+        <v>8062</v>
+      </c>
+      <c r="AQ2229" t="s">
+        <v>8063</v>
+      </c>
+      <c r="AR2229" t="s">
+        <v>7553</v>
+      </c>
+      <c r="AS2229" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2229" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2229" t="s">
+        <v>8064</v>
+      </c>
+      <c r="AV2229" t="s">
+        <v>8065</v>
+      </c>
+      <c r="AW2229" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2229" t="s">
+        <v>8066</v>
+      </c>
+      <c r="AY2229">
+        <v>999</v>
+      </c>
+      <c r="AZ2229" t="s">
+        <v>8067</v>
+      </c>
+      <c r="BA2229">
+        <v>999</v>
+      </c>
+      <c r="BB2229" t="s">
+        <v>8068</v>
+      </c>
+      <c r="BC2229" t="s">
+        <v>7137</v>
+      </c>
+      <c r="BD2229" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="2230" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2230" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2230" t="s">
         <v>3835</v>
       </c>
@@ -97731,11 +98842,149 @@
       <c r="J2230">
         <v>48.862270000000002</v>
       </c>
+      <c r="K2230" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2230">
+        <v>25.1</v>
+      </c>
+      <c r="M2230">
+        <v>48.5</v>
+      </c>
+      <c r="N2230" t="s">
+        <v>8072</v>
+      </c>
       <c r="O2230" t="s">
         <v>3975</v>
       </c>
-    </row>
-    <row r="2231" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2230">
+        <v>999</v>
+      </c>
+      <c r="Q2230" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2230" t="s">
+        <v>8098</v>
+      </c>
+      <c r="S2230" t="s">
+        <v>8099</v>
+      </c>
+      <c r="T2230" t="s">
+        <v>2118</v>
+      </c>
+      <c r="U2230" t="s">
+        <v>4825</v>
+      </c>
+      <c r="V2230">
+        <v>999</v>
+      </c>
+      <c r="W2230" t="s">
+        <v>6939</v>
+      </c>
+      <c r="X2230" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2230" t="s">
+        <v>8073</v>
+      </c>
+      <c r="Z2230" t="s">
+        <v>8074</v>
+      </c>
+      <c r="AA2230" t="s">
+        <v>8075</v>
+      </c>
+      <c r="AB2230" t="s">
+        <v>7869</v>
+      </c>
+      <c r="AC2230" t="s">
+        <v>8076</v>
+      </c>
+      <c r="AD2230" t="s">
+        <v>8077</v>
+      </c>
+      <c r="AE2230" t="s">
+        <v>8078</v>
+      </c>
+      <c r="AF2230" t="s">
+        <v>8079</v>
+      </c>
+      <c r="AG2230" t="s">
+        <v>8080</v>
+      </c>
+      <c r="AH2230" t="s">
+        <v>8081</v>
+      </c>
+      <c r="AI2230" t="s">
+        <v>8082</v>
+      </c>
+      <c r="AJ2230" t="s">
+        <v>8083</v>
+      </c>
+      <c r="AK2230" t="s">
+        <v>8084</v>
+      </c>
+      <c r="AL2230" t="s">
+        <v>8085</v>
+      </c>
+      <c r="AM2230" t="s">
+        <v>8086</v>
+      </c>
+      <c r="AN2230" t="s">
+        <v>8087</v>
+      </c>
+      <c r="AP2230" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2230" t="s">
+        <v>8088</v>
+      </c>
+      <c r="AR2230" t="s">
+        <v>8089</v>
+      </c>
+      <c r="AS2230" t="s">
+        <v>8090</v>
+      </c>
+      <c r="AT2230" t="s">
+        <v>6921</v>
+      </c>
+      <c r="AU2230" t="s">
+        <v>8091</v>
+      </c>
+      <c r="AV2230" t="s">
+        <v>8092</v>
+      </c>
+      <c r="AW2230" t="s">
+        <v>8093</v>
+      </c>
+      <c r="AX2230" t="s">
+        <v>8094</v>
+      </c>
+      <c r="AY2230">
+        <v>999</v>
+      </c>
+      <c r="AZ2230" t="s">
+        <v>8095</v>
+      </c>
+      <c r="BA2230">
+        <v>999</v>
+      </c>
+      <c r="BB2230" t="s">
+        <v>8096</v>
+      </c>
+      <c r="BC2230" t="s">
+        <v>8097</v>
+      </c>
+      <c r="BD2230" t="s">
+        <v>7051</v>
+      </c>
+    </row>
+    <row r="2231" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2231" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2231" t="s">
         <v>3835</v>
       </c>
@@ -97757,11 +99006,149 @@
       <c r="J2231">
         <v>48.858780000000003</v>
       </c>
+      <c r="K2231" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2231">
+        <v>25.1</v>
+      </c>
+      <c r="M2231">
+        <v>48.5</v>
+      </c>
+      <c r="N2231" t="s">
+        <v>8100</v>
+      </c>
       <c r="O2231" t="s">
         <v>3978</v>
       </c>
-    </row>
-    <row r="2232" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2231">
+        <v>999</v>
+      </c>
+      <c r="Q2231" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2231" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2231" t="s">
+        <v>8109</v>
+      </c>
+      <c r="T2231" t="s">
+        <v>8110</v>
+      </c>
+      <c r="U2231">
+        <v>999</v>
+      </c>
+      <c r="V2231">
+        <v>999</v>
+      </c>
+      <c r="W2231" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2231" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2231" t="s">
+        <v>6973</v>
+      </c>
+      <c r="Z2231" t="s">
+        <v>6878</v>
+      </c>
+      <c r="AA2231" t="s">
+        <v>8101</v>
+      </c>
+      <c r="AB2231" t="s">
+        <v>7125</v>
+      </c>
+      <c r="AC2231" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2231" t="s">
+        <v>8102</v>
+      </c>
+      <c r="AE2231" t="s">
+        <v>7829</v>
+      </c>
+      <c r="AF2231" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2231" t="s">
+        <v>8103</v>
+      </c>
+      <c r="AH2231" t="s">
+        <v>6884</v>
+      </c>
+      <c r="AI2231" t="s">
+        <v>7196</v>
+      </c>
+      <c r="AJ2231" t="s">
+        <v>8104</v>
+      </c>
+      <c r="AK2231" t="s">
+        <v>6982</v>
+      </c>
+      <c r="AL2231" t="s">
+        <v>6983</v>
+      </c>
+      <c r="AM2231" t="s">
+        <v>8105</v>
+      </c>
+      <c r="AN2231" t="s">
+        <v>8106</v>
+      </c>
+      <c r="AP2231" t="s">
+        <v>7203</v>
+      </c>
+      <c r="AQ2231" t="s">
+        <v>6891</v>
+      </c>
+      <c r="AR2231" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2231" t="s">
+        <v>7204</v>
+      </c>
+      <c r="AT2231" t="s">
+        <v>7185</v>
+      </c>
+      <c r="AU2231" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2231" t="s">
+        <v>6894</v>
+      </c>
+      <c r="AW2231" t="s">
+        <v>7135</v>
+      </c>
+      <c r="AX2231" t="s">
+        <v>8107</v>
+      </c>
+      <c r="AY2231">
+        <v>999</v>
+      </c>
+      <c r="AZ2231" t="s">
+        <v>7024</v>
+      </c>
+      <c r="BA2231" t="s">
+        <v>8108</v>
+      </c>
+      <c r="BB2231" t="s">
+        <v>7322</v>
+      </c>
+      <c r="BC2231" t="s">
+        <v>6996</v>
+      </c>
+      <c r="BD2231" t="s">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="2232" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2232" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2232" t="s">
         <v>3835</v>
       </c>
@@ -97783,11 +99170,149 @@
       <c r="J2232">
         <v>48.910209999999999</v>
       </c>
+      <c r="K2232" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2232">
+        <v>25.1</v>
+      </c>
+      <c r="M2232">
+        <v>48.5</v>
+      </c>
+      <c r="N2232" t="s">
+        <v>8111</v>
+      </c>
       <c r="O2232" t="s">
         <v>3981</v>
       </c>
-    </row>
-    <row r="2233" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2232" t="s">
+        <v>8124</v>
+      </c>
+      <c r="Q2232" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2232" t="s">
+        <v>6737</v>
+      </c>
+      <c r="S2232" t="s">
+        <v>8125</v>
+      </c>
+      <c r="T2232" t="s">
+        <v>8126</v>
+      </c>
+      <c r="U2232">
+        <v>999</v>
+      </c>
+      <c r="V2232">
+        <v>999</v>
+      </c>
+      <c r="W2232" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2232" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2232" t="s">
+        <v>7213</v>
+      </c>
+      <c r="Z2232" t="s">
+        <v>7971</v>
+      </c>
+      <c r="AA2232" t="s">
+        <v>8112</v>
+      </c>
+      <c r="AB2232" t="s">
+        <v>8113</v>
+      </c>
+      <c r="AC2232" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2232" t="s">
+        <v>8114</v>
+      </c>
+      <c r="AE2232" t="s">
+        <v>8115</v>
+      </c>
+      <c r="AF2232" t="s">
+        <v>8116</v>
+      </c>
+      <c r="AG2232" t="s">
+        <v>6948</v>
+      </c>
+      <c r="AH2232" t="s">
+        <v>7546</v>
+      </c>
+      <c r="AI2232" t="s">
+        <v>7570</v>
+      </c>
+      <c r="AJ2232" t="s">
+        <v>8117</v>
+      </c>
+      <c r="AK2232" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2232" t="s">
+        <v>8118</v>
+      </c>
+      <c r="AM2232" t="s">
+        <v>7223</v>
+      </c>
+      <c r="AN2232" t="s">
+        <v>7442</v>
+      </c>
+      <c r="AP2232" t="s">
+        <v>6956</v>
+      </c>
+      <c r="AQ2232" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AR2232" t="s">
+        <v>8119</v>
+      </c>
+      <c r="AS2232" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2232" t="s">
+        <v>7394</v>
+      </c>
+      <c r="AU2232" t="s">
+        <v>7982</v>
+      </c>
+      <c r="AV2232" t="s">
+        <v>8120</v>
+      </c>
+      <c r="AW2232" t="s">
+        <v>8121</v>
+      </c>
+      <c r="AX2232" t="s">
+        <v>7077</v>
+      </c>
+      <c r="AY2232">
+        <v>999</v>
+      </c>
+      <c r="AZ2232" t="s">
+        <v>8122</v>
+      </c>
+      <c r="BA2232">
+        <v>999</v>
+      </c>
+      <c r="BB2232" t="s">
+        <v>8002</v>
+      </c>
+      <c r="BC2232" t="s">
+        <v>8123</v>
+      </c>
+      <c r="BD2232" t="s">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="2233" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2233" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2233" t="s">
         <v>3835</v>
       </c>
@@ -97809,11 +99334,149 @@
       <c r="J2233">
         <v>48.844659999999998</v>
       </c>
+      <c r="K2233" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2233">
+        <v>25.1</v>
+      </c>
+      <c r="M2233">
+        <v>48.5</v>
+      </c>
+      <c r="N2233" t="s">
+        <v>8127</v>
+      </c>
       <c r="O2233" t="s">
         <v>3984</v>
       </c>
-    </row>
-    <row r="2234" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2233">
+        <v>999</v>
+      </c>
+      <c r="Q2233" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2233" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2233" t="s">
+        <v>8144</v>
+      </c>
+      <c r="T2233" t="s">
+        <v>1268</v>
+      </c>
+      <c r="U2233" t="s">
+        <v>4352</v>
+      </c>
+      <c r="V2233">
+        <v>999</v>
+      </c>
+      <c r="W2233" t="s">
+        <v>7107</v>
+      </c>
+      <c r="X2233" s="9" t="s">
+        <v>8143</v>
+      </c>
+      <c r="Y2233">
+        <v>999</v>
+      </c>
+      <c r="Z2233">
+        <v>999</v>
+      </c>
+      <c r="AA2233">
+        <v>999</v>
+      </c>
+      <c r="AB2233" t="s">
+        <v>8128</v>
+      </c>
+      <c r="AC2233" t="s">
+        <v>8129</v>
+      </c>
+      <c r="AD2233" t="s">
+        <v>7404</v>
+      </c>
+      <c r="AE2233">
+        <v>999</v>
+      </c>
+      <c r="AF2233" t="s">
+        <v>8079</v>
+      </c>
+      <c r="AG2233" t="s">
+        <v>8130</v>
+      </c>
+      <c r="AH2233" t="s">
+        <v>8131</v>
+      </c>
+      <c r="AI2233">
+        <v>999</v>
+      </c>
+      <c r="AJ2233" t="s">
+        <v>8132</v>
+      </c>
+      <c r="AK2233">
+        <v>999</v>
+      </c>
+      <c r="AL2233" t="s">
+        <v>8133</v>
+      </c>
+      <c r="AM2233" t="s">
+        <v>8134</v>
+      </c>
+      <c r="AN2233">
+        <v>999</v>
+      </c>
+      <c r="AP2233" t="s">
+        <v>8135</v>
+      </c>
+      <c r="AQ2233" t="s">
+        <v>8136</v>
+      </c>
+      <c r="AR2233" t="s">
+        <v>8137</v>
+      </c>
+      <c r="AS2233">
+        <v>999</v>
+      </c>
+      <c r="AT2233">
+        <v>999</v>
+      </c>
+      <c r="AU2233" t="s">
+        <v>8138</v>
+      </c>
+      <c r="AV2233" t="s">
+        <v>8139</v>
+      </c>
+      <c r="AW2233" t="s">
+        <v>8140</v>
+      </c>
+      <c r="AX2233">
+        <v>999</v>
+      </c>
+      <c r="AY2233">
+        <v>999</v>
+      </c>
+      <c r="AZ2233">
+        <v>999</v>
+      </c>
+      <c r="BA2233">
+        <v>999</v>
+      </c>
+      <c r="BB2233">
+        <v>999</v>
+      </c>
+      <c r="BC2233" t="s">
+        <v>8141</v>
+      </c>
+      <c r="BD2233" t="s">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="2234" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2234" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2234" t="s">
         <v>3835</v>
       </c>
@@ -97835,11 +99498,149 @@
       <c r="J2234">
         <v>48.854280000000003</v>
       </c>
+      <c r="K2234" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2234">
+        <v>25.1</v>
+      </c>
+      <c r="M2234">
+        <v>48.5</v>
+      </c>
+      <c r="N2234" t="s">
+        <v>8145</v>
+      </c>
       <c r="O2234" t="s">
         <v>3987</v>
       </c>
-    </row>
-    <row r="2235" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2234">
+        <v>999</v>
+      </c>
+      <c r="Q2234" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2234" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2234" t="s">
+        <v>8163</v>
+      </c>
+      <c r="T2234" t="s">
+        <v>3987</v>
+      </c>
+      <c r="U2234">
+        <v>999</v>
+      </c>
+      <c r="V2234">
+        <v>999</v>
+      </c>
+      <c r="W2234" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2234" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2234" t="s">
+        <v>8146</v>
+      </c>
+      <c r="Z2234" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2234" t="s">
+        <v>7884</v>
+      </c>
+      <c r="AB2234" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2234" t="s">
+        <v>8147</v>
+      </c>
+      <c r="AD2234" t="s">
+        <v>8148</v>
+      </c>
+      <c r="AE2234" t="s">
+        <v>8149</v>
+      </c>
+      <c r="AF2234" t="s">
+        <v>6947</v>
+      </c>
+      <c r="AG2234" t="s">
+        <v>8150</v>
+      </c>
+      <c r="AH2234" t="s">
+        <v>8151</v>
+      </c>
+      <c r="AI2234" t="s">
+        <v>7219</v>
+      </c>
+      <c r="AJ2234" t="s">
+        <v>8152</v>
+      </c>
+      <c r="AK2234" t="s">
+        <v>8153</v>
+      </c>
+      <c r="AL2234" t="s">
+        <v>6953</v>
+      </c>
+      <c r="AM2234" t="s">
+        <v>8154</v>
+      </c>
+      <c r="AN2234" t="s">
+        <v>8155</v>
+      </c>
+      <c r="AP2234" t="s">
+        <v>8156</v>
+      </c>
+      <c r="AQ2234" t="s">
+        <v>7226</v>
+      </c>
+      <c r="AR2234" t="s">
+        <v>8157</v>
+      </c>
+      <c r="AS2234" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2234" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2234" t="s">
+        <v>6961</v>
+      </c>
+      <c r="AV2234" t="s">
+        <v>8158</v>
+      </c>
+      <c r="AW2234" t="s">
+        <v>8159</v>
+      </c>
+      <c r="AX2234" t="s">
+        <v>8160</v>
+      </c>
+      <c r="AY2234">
+        <v>999</v>
+      </c>
+      <c r="AZ2234" t="s">
+        <v>8161</v>
+      </c>
+      <c r="BA2234">
+        <v>999</v>
+      </c>
+      <c r="BB2234" t="s">
+        <v>8162</v>
+      </c>
+      <c r="BC2234" t="s">
+        <v>7137</v>
+      </c>
+      <c r="BD2234" t="s">
+        <v>7745</v>
+      </c>
+    </row>
+    <row r="2235" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2235" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2235" t="s">
         <v>3835</v>
       </c>
@@ -97861,11 +99662,149 @@
       <c r="J2235">
         <v>48.854280000000003</v>
       </c>
+      <c r="K2235" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2235">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M2235">
+        <v>8.5</v>
+      </c>
+      <c r="N2235" t="s">
+        <v>8145</v>
+      </c>
       <c r="O2235" t="s">
         <v>3987</v>
       </c>
-    </row>
-    <row r="2236" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2235">
+        <v>999</v>
+      </c>
+      <c r="Q2235" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2235" t="s">
+        <v>6841</v>
+      </c>
+      <c r="S2235" t="s">
+        <v>8188</v>
+      </c>
+      <c r="T2235" t="s">
+        <v>3997</v>
+      </c>
+      <c r="U2235">
+        <v>999</v>
+      </c>
+      <c r="V2235" t="s">
+        <v>6737</v>
+      </c>
+      <c r="W2235" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2235" s="9" t="s">
+        <v>8188</v>
+      </c>
+      <c r="Y2235" t="s">
+        <v>7123</v>
+      </c>
+      <c r="Z2235" t="s">
+        <v>8168</v>
+      </c>
+      <c r="AA2235" t="s">
+        <v>8164</v>
+      </c>
+      <c r="AB2235" t="s">
+        <v>8165</v>
+      </c>
+      <c r="AC2235" t="s">
+        <v>8166</v>
+      </c>
+      <c r="AD2235" t="s">
+        <v>8167</v>
+      </c>
+      <c r="AE2235" t="s">
+        <v>8169</v>
+      </c>
+      <c r="AF2235" t="s">
+        <v>8170</v>
+      </c>
+      <c r="AG2235" t="s">
+        <v>7569</v>
+      </c>
+      <c r="AH2235" t="s">
+        <v>8171</v>
+      </c>
+      <c r="AI2235" t="s">
+        <v>8172</v>
+      </c>
+      <c r="AJ2235" t="s">
+        <v>8173</v>
+      </c>
+      <c r="AK2235" t="s">
+        <v>8174</v>
+      </c>
+      <c r="AL2235" t="s">
+        <v>8175</v>
+      </c>
+      <c r="AM2235" t="s">
+        <v>8176</v>
+      </c>
+      <c r="AN2235" t="s">
+        <v>8177</v>
+      </c>
+      <c r="AP2235" s="13" t="s">
+        <v>8178</v>
+      </c>
+      <c r="AQ2235" t="s">
+        <v>8179</v>
+      </c>
+      <c r="AR2235" t="s">
+        <v>8180</v>
+      </c>
+      <c r="AS2235" t="s">
+        <v>8181</v>
+      </c>
+      <c r="AT2235" t="s">
+        <v>7185</v>
+      </c>
+      <c r="AU2235" s="13" t="s">
+        <v>8182</v>
+      </c>
+      <c r="AV2235" t="s">
+        <v>8183</v>
+      </c>
+      <c r="AW2235" t="s">
+        <v>8184</v>
+      </c>
+      <c r="AX2235" t="s">
+        <v>7207</v>
+      </c>
+      <c r="AY2235">
+        <v>999</v>
+      </c>
+      <c r="AZ2235" t="s">
+        <v>8185</v>
+      </c>
+      <c r="BA2235">
+        <v>999</v>
+      </c>
+      <c r="BB2235" s="13" t="s">
+        <v>8186</v>
+      </c>
+      <c r="BC2235" t="s">
+        <v>6969</v>
+      </c>
+      <c r="BD2235" t="s">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="2236" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2236" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2236" t="s">
         <v>3835</v>
       </c>
@@ -97887,11 +99826,149 @@
       <c r="J2236">
         <v>48.848439999999997</v>
       </c>
+      <c r="K2236" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2236">
+        <v>25.1</v>
+      </c>
+      <c r="M2236">
+        <v>48.5</v>
+      </c>
+      <c r="N2236" t="s">
+        <v>8189</v>
+      </c>
       <c r="O2236" t="s">
         <v>3991</v>
       </c>
-    </row>
-    <row r="2237" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2236">
+        <v>999</v>
+      </c>
+      <c r="Q2236" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2236" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2236" t="s">
+        <v>8200</v>
+      </c>
+      <c r="T2236" t="s">
+        <v>8201</v>
+      </c>
+      <c r="U2236">
+        <v>999</v>
+      </c>
+      <c r="V2236">
+        <v>999</v>
+      </c>
+      <c r="W2236" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2236" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2236" t="s">
+        <v>8190</v>
+      </c>
+      <c r="Z2236" t="s">
+        <v>6878</v>
+      </c>
+      <c r="AA2236" t="s">
+        <v>8191</v>
+      </c>
+      <c r="AB2236" t="s">
+        <v>7125</v>
+      </c>
+      <c r="AC2236" t="s">
+        <v>6880</v>
+      </c>
+      <c r="AD2236" t="s">
+        <v>8102</v>
+      </c>
+      <c r="AE2236" t="s">
+        <v>8192</v>
+      </c>
+      <c r="AF2236" t="s">
+        <v>6882</v>
+      </c>
+      <c r="AG2236" t="s">
+        <v>8103</v>
+      </c>
+      <c r="AH2236" t="s">
+        <v>8193</v>
+      </c>
+      <c r="AI2236" t="s">
+        <v>7246</v>
+      </c>
+      <c r="AJ2236" t="s">
+        <v>8194</v>
+      </c>
+      <c r="AK2236" t="s">
+        <v>7457</v>
+      </c>
+      <c r="AL2236" t="s">
+        <v>8195</v>
+      </c>
+      <c r="AM2236" t="s">
+        <v>7475</v>
+      </c>
+      <c r="AN2236" t="s">
+        <v>7130</v>
+      </c>
+      <c r="AP2236" t="s">
+        <v>7114</v>
+      </c>
+      <c r="AQ2236" t="s">
+        <v>6891</v>
+      </c>
+      <c r="AR2236" t="s">
+        <v>6892</v>
+      </c>
+      <c r="AS2236" t="s">
+        <v>7204</v>
+      </c>
+      <c r="AT2236" t="s">
+        <v>7185</v>
+      </c>
+      <c r="AU2236" t="s">
+        <v>6893</v>
+      </c>
+      <c r="AV2236" t="s">
+        <v>8196</v>
+      </c>
+      <c r="AW2236" t="s">
+        <v>7135</v>
+      </c>
+      <c r="AX2236" t="s">
+        <v>7207</v>
+      </c>
+      <c r="AY2236">
+        <v>999</v>
+      </c>
+      <c r="AZ2236" t="s">
+        <v>8197</v>
+      </c>
+      <c r="BA2236" t="s">
+        <v>7666</v>
+      </c>
+      <c r="BB2236" t="s">
+        <v>8198</v>
+      </c>
+      <c r="BC2236" t="s">
+        <v>8199</v>
+      </c>
+      <c r="BD2236" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="2237" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2237" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2237" t="s">
         <v>3835</v>
       </c>
@@ -97913,11 +99990,149 @@
       <c r="J2237">
         <v>48.832129999999999</v>
       </c>
+      <c r="K2237" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2237">
+        <v>25.1</v>
+      </c>
+      <c r="M2237">
+        <v>48.5</v>
+      </c>
+      <c r="N2237" t="s">
+        <v>8202</v>
+      </c>
       <c r="O2237" t="s">
         <v>3994</v>
       </c>
-    </row>
-    <row r="2238" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2237">
+        <v>999</v>
+      </c>
+      <c r="Q2237" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2237" t="s">
+        <v>6827</v>
+      </c>
+      <c r="S2237" t="s">
+        <v>8213</v>
+      </c>
+      <c r="T2237" t="s">
+        <v>4050</v>
+      </c>
+      <c r="U2237">
+        <v>999</v>
+      </c>
+      <c r="V2237">
+        <v>999</v>
+      </c>
+      <c r="W2237" t="s">
+        <v>6934</v>
+      </c>
+      <c r="X2237" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2237" t="s">
+        <v>7213</v>
+      </c>
+      <c r="Z2237" t="s">
+        <v>8203</v>
+      </c>
+      <c r="AA2237" t="s">
+        <v>8204</v>
+      </c>
+      <c r="AB2237" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2237" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2237" t="s">
+        <v>8205</v>
+      </c>
+      <c r="AE2237" t="s">
+        <v>8037</v>
+      </c>
+      <c r="AF2237" t="s">
+        <v>8206</v>
+      </c>
+      <c r="AG2237" t="s">
+        <v>7497</v>
+      </c>
+      <c r="AH2237" t="s">
+        <v>7546</v>
+      </c>
+      <c r="AI2237" t="s">
+        <v>7219</v>
+      </c>
+      <c r="AJ2237" t="s">
+        <v>8207</v>
+      </c>
+      <c r="AK2237" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2237" t="s">
+        <v>8208</v>
+      </c>
+      <c r="AM2237" t="s">
+        <v>7223</v>
+      </c>
+      <c r="AN2237" t="s">
+        <v>8209</v>
+      </c>
+      <c r="AP2237" t="s">
+        <v>8211</v>
+      </c>
+      <c r="AQ2237" t="s">
+        <v>7226</v>
+      </c>
+      <c r="AR2237" t="s">
+        <v>7553</v>
+      </c>
+      <c r="AS2237" t="s">
+        <v>7891</v>
+      </c>
+      <c r="AT2237" t="s">
+        <v>7133</v>
+      </c>
+      <c r="AU2237" t="s">
+        <v>8210</v>
+      </c>
+      <c r="AV2237" t="s">
+        <v>8212</v>
+      </c>
+      <c r="AW2237" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2237" t="s">
+        <v>7576</v>
+      </c>
+      <c r="AY2237">
+        <v>999</v>
+      </c>
+      <c r="AZ2237" t="s">
+        <v>7859</v>
+      </c>
+      <c r="BA2237">
+        <v>999</v>
+      </c>
+      <c r="BB2237" t="s">
+        <v>7822</v>
+      </c>
+      <c r="BC2237" t="s">
+        <v>7137</v>
+      </c>
+      <c r="BD2237" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="2238" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2238" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2238" t="s">
         <v>3835</v>
       </c>
@@ -97939,11 +100154,149 @@
       <c r="J2238">
         <v>48.84422</v>
       </c>
+      <c r="K2238" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2238">
+        <v>25.1</v>
+      </c>
+      <c r="M2238">
+        <v>48.5</v>
+      </c>
+      <c r="N2238" t="s">
+        <v>8214</v>
+      </c>
       <c r="O2238" t="s">
         <v>3997</v>
       </c>
-    </row>
-    <row r="2239" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2238">
+        <v>999</v>
+      </c>
+      <c r="Q2238" t="s">
+        <v>4352</v>
+      </c>
+      <c r="R2238" t="s">
+        <v>8228</v>
+      </c>
+      <c r="S2238" t="s">
+        <v>8229</v>
+      </c>
+      <c r="T2238" t="s">
+        <v>4832</v>
+      </c>
+      <c r="U2238" t="s">
+        <v>4825</v>
+      </c>
+      <c r="V2238">
+        <v>999</v>
+      </c>
+      <c r="W2238" t="s">
+        <v>7107</v>
+      </c>
+      <c r="X2238" s="9" t="s">
+        <v>8230</v>
+      </c>
+      <c r="Y2238" t="s">
+        <v>7213</v>
+      </c>
+      <c r="Z2238" t="s">
+        <v>6941</v>
+      </c>
+      <c r="AA2238" s="13" t="s">
+        <v>8215</v>
+      </c>
+      <c r="AB2238" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2238" t="s">
+        <v>8216</v>
+      </c>
+      <c r="AD2238" t="s">
+        <v>8217</v>
+      </c>
+      <c r="AE2238" t="s">
+        <v>7584</v>
+      </c>
+      <c r="AF2238" t="s">
+        <v>8116</v>
+      </c>
+      <c r="AG2238" t="s">
+        <v>7569</v>
+      </c>
+      <c r="AH2238" s="13" t="s">
+        <v>8218</v>
+      </c>
+      <c r="AI2238" t="s">
+        <v>8219</v>
+      </c>
+      <c r="AJ2238" s="13" t="s">
+        <v>8220</v>
+      </c>
+      <c r="AK2238" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2238" s="18" t="s">
+        <v>8221</v>
+      </c>
+      <c r="AM2238" s="18" t="s">
+        <v>8222</v>
+      </c>
+      <c r="AN2238" s="18" t="s">
+        <v>8223</v>
+      </c>
+      <c r="AP2238" t="s">
+        <v>7551</v>
+      </c>
+      <c r="AQ2238" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AR2238" t="s">
+        <v>8089</v>
+      </c>
+      <c r="AS2238" t="s">
+        <v>7228</v>
+      </c>
+      <c r="AT2238" t="s">
+        <v>7961</v>
+      </c>
+      <c r="AU2238" s="13" t="s">
+        <v>8224</v>
+      </c>
+      <c r="AV2238" t="s">
+        <v>8225</v>
+      </c>
+      <c r="AW2238" t="s">
+        <v>7046</v>
+      </c>
+      <c r="AX2238" t="s">
+        <v>7556</v>
+      </c>
+      <c r="AY2238" s="13" t="s">
+        <v>8226</v>
+      </c>
+      <c r="AZ2238">
+        <v>999</v>
+      </c>
+      <c r="BA2238">
+        <v>999</v>
+      </c>
+      <c r="BB2238" s="13" t="s">
+        <v>8227</v>
+      </c>
+      <c r="BC2238" t="s">
+        <v>6996</v>
+      </c>
+      <c r="BD2238" t="s">
+        <v>7051</v>
+      </c>
+    </row>
+    <row r="2239" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B2239" s="4">
+        <v>44969</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>6900</v>
+      </c>
       <c r="D2239" t="s">
         <v>3835</v>
       </c>
@@ -97965,11 +100318,143 @@
       <c r="J2239">
         <v>48.829740000000001</v>
       </c>
+      <c r="K2239" t="s">
+        <v>6935</v>
+      </c>
+      <c r="L2239">
+        <v>25.1</v>
+      </c>
+      <c r="M2239">
+        <v>48.5</v>
+      </c>
+      <c r="N2239" t="s">
+        <v>8231</v>
+      </c>
       <c r="O2239" t="s">
         <v>4000</v>
       </c>
-    </row>
-    <row r="2240" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="P2239">
+        <v>999</v>
+      </c>
+      <c r="Q2239" t="s">
+        <v>4231</v>
+      </c>
+      <c r="R2239" t="s">
+        <v>4825</v>
+      </c>
+      <c r="S2239" t="s">
+        <v>8247</v>
+      </c>
+      <c r="T2239" t="s">
+        <v>3807</v>
+      </c>
+      <c r="U2239">
+        <v>999</v>
+      </c>
+      <c r="V2239">
+        <v>999</v>
+      </c>
+      <c r="W2239" t="s">
+        <v>6933</v>
+      </c>
+      <c r="X2239" s="9">
+        <v>999</v>
+      </c>
+      <c r="Y2239" t="s">
+        <v>8232</v>
+      </c>
+      <c r="Z2239" t="s">
+        <v>7615</v>
+      </c>
+      <c r="AA2239" t="s">
+        <v>7884</v>
+      </c>
+      <c r="AB2239" t="s">
+        <v>7030</v>
+      </c>
+      <c r="AC2239" t="s">
+        <v>7031</v>
+      </c>
+      <c r="AD2239" t="s">
+        <v>8233</v>
+      </c>
+      <c r="AE2239" t="s">
+        <v>8234</v>
+      </c>
+      <c r="AF2239" t="s">
+        <v>7619</v>
+      </c>
+      <c r="AG2239" t="s">
+        <v>8235</v>
+      </c>
+      <c r="AH2239" t="s">
+        <v>7546</v>
+      </c>
+      <c r="AI2239" t="s">
+        <v>8236</v>
+      </c>
+      <c r="AJ2239" t="s">
+        <v>8237</v>
+      </c>
+      <c r="AK2239" t="s">
+        <v>6952</v>
+      </c>
+      <c r="AL2239" s="18" t="s">
+        <v>6953</v>
+      </c>
+      <c r="AM2239" s="18" t="s">
+        <v>7550</v>
+      </c>
+      <c r="AN2239" s="18" t="s">
+        <v>7832</v>
+      </c>
+      <c r="AP2239" t="s">
+        <v>8238</v>
+      </c>
+      <c r="AQ2239" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AR2239" t="s">
+        <v>7553</v>
+      </c>
+      <c r="AS2239" t="s">
+        <v>8239</v>
+      </c>
+      <c r="AT2239" t="s">
+        <v>7185</v>
+      </c>
+      <c r="AU2239" t="s">
+        <v>8240</v>
+      </c>
+      <c r="AV2239" t="s">
+        <v>8158</v>
+      </c>
+      <c r="AW2239" t="s">
+        <v>8241</v>
+      </c>
+      <c r="AX2239" t="s">
+        <v>8242</v>
+      </c>
+      <c r="AY2239">
+        <v>999</v>
+      </c>
+      <c r="AZ2239" t="s">
+        <v>8243</v>
+      </c>
+      <c r="BA2239" t="s">
+        <v>8244</v>
+      </c>
+      <c r="BB2239" t="s">
+        <v>8245</v>
+      </c>
+      <c r="BC2239" t="s">
+        <v>8246</v>
+      </c>
+      <c r="BD2239" t="s">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="2240" spans="2:57" x14ac:dyDescent="0.2">
       <c r="D2240" t="s">
         <v>3835</v>
       </c>
